--- a/dataset/lg/sarveswara.xlsx
+++ b/dataset/lg/sarveswara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీకంఠుం బరమేశు నవ్యయు నిజశ్రీపాదదివ్యప్రభా-
 నీకోత్సారితదేవతానిటలదుర్నీత్యక్షరధ్వాంతుఁ జి-
@@ -477,32 +474,29 @@
 ద్రాకల్పుం బ్రణుతింతు నిన్ను మది నాహ్లాదింతు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('కం', 'U'), ('ఠుం', 'U'), ('బ', '|'), ('ర', '|'), ('మే', 'U'), ('శు', '|'), ('న', 'U'), ('వ్య', '|'), ('యు', '|'), ('ని', '|'), ('జ', 'U'), ('శ్రీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ది', 'U'), ('వ్య', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('నీ', 'U'), ('కో', 'U'), ('త్సా', 'U'), ('రి', '|'), ('త', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('ని', '|'), ('ట', '|'), ('ల', '|'), ('దు', 'U'), ('ర్నీ', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('ర', 'U'), ('ధ్వాం', 'U'), ('తు', '|'), ('జి', 'U'), ('త్ప్రా', 'U'), ('కా', 'U'), ('మ్యాం', 'U'), ('గు', '|'), ('న', '|'), ('పాం', 'U'), ('గ', '|'), ('మా', 'U'), ('త్ర', '|'), ('ర', '|'), ('చి', '|'), ('త', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తు', '|'), ('జం', 'U'), ('ద్రా', 'U'), ('క', 'U'), ('ల్పుం', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ', '|'), ('ది', '|'), ('నా', 'U'), ('హ్లా', 'U'), ('దిం', 'U'), ('తు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>ఒకమా టీసకలంబు నీ మయముగా నూహించుచు న్వెండి యొ-
 క్కొకమాటింతయు నీవు గావనుచు నేయుక్తిం బ్రశంసింపనే-
@@ -510,32 +504,29 @@
 వకుఁడై నీ నిజరూప మిట్టిదన నెవ్వండోపు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('మా', 'U'), ('టీ', 'U'), ('స', '|'), ('క', '|'), ('లం', 'U'), ('బు', '|'), ('నీ', 'U'), ('మ', '|'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('నూ', 'U'), ('హిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్వెం', 'U'), ('డి', '|'), ('యొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('మా', 'U'), ('టిం', 'U'), ('త', '|'), ('యు', '|'), ('నీ', 'U'), ('వు', '|'), ('గా', 'U'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('నే', 'U'), ('యు', 'U'), ('క్తిం', 'U'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('క', '|'), ('వే', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('చి', 'U'), ('క్కు', '|'), ('ప', 'U'), ('డ్డ', '|'), ('వ', '|'), ('ని', '|'), ('నం', 'U'), ('బ్ర', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('మై', 'U'), ('యుం', 'U'), ('డు', '|'), ('భా', 'U'), ('వ', '|'), ('కు', '|'), ('డై', 'U'), ('నీ', 'U'), ('ని', '|'), ('జ', '|'), ('రూ', 'U'), ('ప', '|'), ('మి', 'U'), ('ట్టి', '|'), ('ద', '|'), ('న', '|'), ('నె', 'U'), ('వ్వం', 'U'), ('డో', 'U'), ('పు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>జ్ఞానాతీతుఁడవైన నీ మహిమఁ బ్రజ్ఞం బూని తర్కించు ట-
 జ్ఞానాంగంబగు నైననుం దమ యథాశక్తిం బ్రశంసించి ది-
@@ -543,32 +534,29 @@
 డైనం బ్రస్తుతి సేయుచుండుఁ దనచే నైనంత సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('జ్ఞా', 'U'), ('నా', 'U'), ('తీ', 'U'), ('తు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('బ్ర', 'U'), ('జ్ఞం', 'U'), ('బూ', 'U'), ('ని', '|'), ('త', 'U'), ('ర్కిం', 'U'), ('చు', '|'), ('ట', 'U'), ('జ్ఞా', 'U'), ('నాం', 'U'), ('గం', 'U'), ('బ', '|'), ('గు', '|'), ('నై', 'U'), ('న', '|'), ('నుం', 'U'), ('ద', '|'), ('మ', '|'), ('య', '|'), ('థా', 'U'), ('శ', 'U'), ('క్తిం', 'U'), ('బ్ర', '|'), ('శం', 'U'), ('సిం', 'U'), ('చి', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('నం', 'U'), ('ద', 'U'), ('స్థి', '|'), ('తి', '|'), ('బొం', 'U'), ('దు', '|'), ('వా', 'U'), ('రి', '|'), ('గ', '|'), ('ని', '|'), ('భ', 'U'), ('క్త్యా', 'U'), ('వృ', 'U'), ('త్తి', '|'), ('ని', 'U'), ('న్నె', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('డై', 'U'), ('నం', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('నై', 'U'), ('నం', 'U'), ('త', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>అమితాంభోజభవాండభాండనిలయంబైయుండు నీ యంతరం-
 గము పట్టెంతయొ దానికింక బహిరంగం బెట్టిదో సూక్ష్మత-
@@ -576,32 +564,29 @@
 ర్గము నీకైన నచింత్య మెట్లొరుఁ డెఱుంగం జాలు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మి', '|'), ('తాం', 'U'), ('భో', 'U'), ('జ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ని', '|'), ('ల', '|'), ('యం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('యం', 'U'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('ప', 'U'), ('ట్టెం', 'U'), ('త', '|'), ('యొ', '|'), ('దా', 'U'), ('ని', '|'), ('కిం', 'U'), ('క', '|'), ('బ', '|'), ('హి', '|'), ('రం', 'U'), ('గం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('సూ', 'U'), ('క్ష్మ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('దా', 'U'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('మీ', 'U'), ('ద', '|'), ('నే', 'U'), ('మి', '|'), ('వి', '|'), ('ధ', '|'), ('మో', 'U'), ('తా', 'U'), ('ని', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('పెం', 'U'), ('పు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('నీ', 'U'), ('కై', 'U'), ('న', '|'), ('న', '|'), ('చిం', 'U'), ('త్య', '|'), ('మె', 'U'), ('ట్లొ', '|'), ('రు', '|'), ('డె', '|'), ('ఱుం', 'U'), ('గం', 'U'), ('జా', 'U'), ('లు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>ఇన విఘ్నేశ్వర మాతృకాద్రుహిణ బ్రాహ్మీ స్కంద దుర్గా రమా
 వనితాధీశ్వర భైరవుల్ బలిసి భాస్వద్భక్తిసంయుక్తి నీ-
@@ -609,32 +594,29 @@
 ల్వనివారెవ్వ రజాండభాండములలో వర్ణింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('న', '|'), ('వి', 'U'), ('ఘ్నే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('మా', 'U'), ('తృ', '|'), ('కా', 'U'), ('ద్రు', '|'), ('హి', '|'), ('ణ', 'U'), ('బ్రా', 'U'), ('హ్మీ', 'U'), ('స్కం', 'U'), ('ద', '|'), ('దు', 'U'), ('ర్గా', 'U'), ('ర', '|'), ('మా', 'U'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('భై', 'U'), ('ర', '|'), ('వుల్', 'U'), ('బ', '|'), ('లి', '|'), ('సి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('క', '|'), ('ని', '|'), ('శం', 'U'), ('బుం', 'U'), ('బ', '|'), ('రి', '|'), ('వా', 'U'), ('ర', '|'), ('భృ', 'U'), ('త్య', '|'), ('ని', '|'), ('క', '|'), ('రం', 'U'), ('బై', 'U'), ('ర', 'U'), ('న్న', '|'), ('ని', 'U'), ('న్నిం', 'U'), ('కం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('వా', 'U'), ('రె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('జాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>ఏపారంగ నజాండభాండనికరం బేరూపులో బుట్టి యు-
 ద్దీపించు న్మఱి రూపులెల్ల సమసుప్తిం బొంది యేరూపులో
@@ -642,32 +624,29 @@
 రూపం బవ్యయమై వెలుంగు నది నీ రూపంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('న', '|'), ('జాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ని', '|'), ('క', '|'), ('రం', 'U'), ('బే', 'U'), ('రూ', 'U'), ('పు', '|'), ('లో', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('యు', 'U'), ('ద్దీ', 'U'), ('పిం', 'U'), ('చు', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('రూ', 'U'), ('పు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('స', '|'), ('మ', '|'), ('సు', 'U'), ('ప్తిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('యే', 'U'), ('రూ', 'U'), ('పు', '|'), ('లో', 'U'), ('లో', 'U'), ('పిం', 'U'), ('చుం', 'U'), ('గ', '|'), ('ల', '|'), ('యం', 'U'), ('గ', '|'), ('నం', 'U'), ('త', '|'), ('టి', '|'), ('కి', '|'), ('దా', 'U'), ('లో', 'U'), ('నై', 'U'), ('వి', '|'), ('జృం', 'U'), ('భిం', 'U'), ('చి', '|'), ('యే', 'U'), ('రూ', 'U'), ('పం', 'U'), ('బ', 'U'), ('వ్య', '|'), ('య', '|'), ('మై', 'U'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>జలజాతప్రభవాండబుద్బుదము లశ్రాంతంబునుం బుట్టుచుం
 గలయం గ్రాఁగుచునుండు నీ పృథులలింగస్ఫారగర్భాబ్ధిలో-
@@ -675,32 +654,29 @@
 గలదే వారికి నీ మహత్త్వ మెఱుఁగంగా శక్తి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', 'U'), ('ప్ర', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('ము', '|'), ('ల', 'U'), ('శ్రాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బు', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('గ', '|'), ('ల', '|'), ('యం', 'U'), ('గ్రా', 'U'), ('గు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('పృ', '|'), ('థు', '|'), ('ల', '|'), ('లిం', 'U'), ('గ', 'U'), ('స్ఫా', 'U'), ('ర', '|'), ('గ', 'U'), ('ర్భా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ద', 'U'), ('ద్బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('గ', 'U'), ('ర్భ', '|'), ('వా', 'U'), ('సు', '|'), ('లు', '|'), ('హ', '|'), ('రి', 'U'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('ది', '|'), ('దే', 'U'), ('వా', 'U'), ('ళి', '|'), ('యుం', 'U'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('మె', '|'), ('ఱు', '|'), ('గం', 'U'), ('గా', 'U'), ('శ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>భవదున్మేషవిజృంభణంబు పరికింపంగా సరోజాతసం-
 భవు జన్మంబు భవన్నిమేష మమితబ్రహ్మాండకల్పాంత భై-
@@ -708,32 +684,29 @@
 నివహం బెవ్వరు నేర్తు రిట్టిదని వర్ణింపంగ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దు', 'U'), ('న్మే', 'U'), ('ష', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('ణం', 'U'), ('బు', '|'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('పం', 'U'), ('గా', 'U'), ('స', '|'), ('రో', 'U'), ('జా', 'U'), ('త', '|'), ('సం', 'U'), ('భ', '|'), ('వు', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('భ', '|'), ('వ', 'U'), ('న్ని', '|'), ('మే', 'U'), ('ష', '|'), ('మ', '|'), ('మి', '|'), ('త', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('క', 'U'), ('ల్పాం', 'U'), ('త', '|'), ('భై', 'U'), ('ర', '|'), ('వ', '|'), ('సం', 'U'), ('క్షో', 'U'), ('భి', '|'), ('త', '|'), ('మ', 'U'), ('న్న', '|'), ('ద', 'U'), ('క్కి', '|'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప్రా', 'U'), ('రం', 'U'), ('భ', '|'), ('భూ', 'U'), ('రి', 'U'), ('క్రి', '|'), ('యా', 'U'), ('ని', '|'), ('వ', '|'), ('హం', 'U'), ('బె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('నే', 'U'), ('ర్తు', '|'), ('రి', 'U'), ('ట్టి', '|'), ('ద', '|'), ('ని', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>పవనుండై హిమధాముఁడై యనలుఁడై పానీయమై యాత్మయై
 రవియై యంబరమై మహీవలయమై రమ్యాష్టమూర్తిక్రియన్
@@ -741,32 +714,29 @@
 త్సవలీలావిభవంబుతోడ భవదాజ్ఞాశక్తి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('వ', '|'), ('నుం', 'U'), ('డై', 'U'), ('హి', '|'), ('మ', '|'), ('ధా', 'U'), ('ము', '|'), ('డై', 'U'), ('య', '|'), ('న', '|'), ('లు', '|'), ('డై', 'U'), ('పా', 'U'), ('నీ', 'U'), ('య', '|'), ('మై', 'U'), ('యా', 'U'), ('త్మ', '|'), ('యై', 'U'), ('ర', '|'), ('వి', '|'), ('యై', 'U'), ('యం', 'U'), ('బ', '|'), ('ర', '|'), ('మై', 'U'), ('మ', '|'), ('హీ', 'U'), ('వ', '|'), ('ల', '|'), ('య', '|'), ('మై', 'U'), ('ర', 'U'), ('మ్యా', 'U'), ('ష్ట', '|'), ('మూ', 'U'), ('ర్తి', 'U'), ('క్రి', '|'), ('యన్', 'U'), ('భు', '|'), ('వ', '|'), ('నాం', 'U'), ('డం', 'U'), ('బు', '|'), ('లు', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణాం', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('బు', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('న', 'U'), ('త్య', 'U'), ('ద్భు', '|'), ('తో', 'U'), ('త్స', '|'), ('వ', '|'), ('లీ', 'U'), ('లా', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('తో', 'U'), ('డ', '|'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('జ్ఞా', 'U'), ('శ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>జలజాతప్రభవాండభాండములు దుశ్చారిత్రులం బాత్రులం
 జెలువై యుండ యథాప్రమాణములుగా శిక్షింప రక్షింప ని-
@@ -774,32 +744,29 @@
 ట్టెలమిం జేకొని నిర్వహింప మఱి రాజెవ్వండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', 'U'), ('ప్ర', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('దు', 'U'), ('శ్చా', 'U'), ('రి', 'U'), ('త్రు', '|'), ('లం', 'U'), ('బా', 'U'), ('త్రు', '|'), ('లం', 'U'), ('జె', '|'), ('లు', '|'), ('వై', 'U'), ('యుం', 'U'), ('డ', '|'), ('య', '|'), ('థా', 'U'), ('ప్ర', '|'), ('మా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('శి', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('లీ', 'U'), ('లం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('రా', 'U'), ('జు', '|'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('జ్ఞా', 'U'), ('శ', 'U'), ('క్తి', '|'), ('గా', 'U'), ('కిం', 'U'), ('త', '|'), ('వ', 'U'), ('ట్టె', '|'), ('ల', '|'), ('మిం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('ప', '|'), ('మ', '|'), ('ఱి', '|'), ('రా', 'U'), ('జె', 'U'), ('వ్వం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>జ్ఞానజ్యోతి విజృంభమాణముగ నోజన్ విష్ణువిధ్యాది దే-
 వానీకాత్మదశావళిం దవిలి నీవారంగ వారిం గళా-
@@ -807,32 +774,29 @@
 నీ నామాంకముగా విధించు నిగమానీకంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('జ్ఞా', 'U'), ('న', 'U'), ('జ్యో', 'U'), ('తి', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('మా', 'U'), ('ణ', '|'), ('ము', '|'), ('గ', '|'), ('నో', 'U'), ('జన్', 'U'), ('వి', 'U'), ('ష్ణు', '|'), ('వి', 'U'), ('ధ్యా', 'U'), ('ది', '|'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('కా', 'U'), ('త్మ', '|'), ('ద', '|'), ('శా', 'U'), ('వ', '|'), ('ళిం', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('నీ', 'U'), ('వా', 'U'), ('రం', 'U'), ('గ', '|'), ('వా', 'U'), ('రిం', 'U'), ('గ', '|'), ('ళా', 'U'), ('జ్ఞా', 'U'), ('న', 'U'), ('ప్రౌ', 'U'), ('ఢు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('టన్', 'U'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('గా', 'U'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞ', '|'), ('శ', 'U'), ('బ్దం', 'U'), ('బు', '|'), ('దా', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మాం', 'U'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('వి', '|'), ('ధిం', 'U'), ('చు', '|'), ('ని', '|'), ('గ', '|'), ('మా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>సురల న్మర్త్యసమూహిగా మనుజులన్ శోభిల్లు బృందారకో-
 త్కరముంగా ఘను నల్పు నల్పుని ఘనుంగాఁ బుణ్యపాపాలిచేఁ
@@ -840,32 +804,29 @@
 దరయన్ జీవుల నింద్రజాలములుగా నాడించు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('ల', 'U'), ('న్మ', 'U'), ('ర్త్య', '|'), ('స', '|'), ('మూ', 'U'), ('హి', '|'), ('గా', 'U'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('లన్', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్లు', '|'), ('బృం', 'U'), ('దా', 'U'), ('ర', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ముం', 'U'), ('గా', 'U'), ('ఘ', '|'), ('ను', '|'), ('న', 'U'), ('ల్పు', '|'), ('న', 'U'), ('ల్పు', '|'), ('ని', '|'), ('ఘ', '|'), ('నుం', 'U'), ('గా', 'U'), ('బు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('పా', 'U'), ('లి', '|'), ('చే', 'U'), ('ది', '|'), ('రు', '|'), ('గ', 'U'), ('న్వై', 'U'), ('చు', '|'), ('చు', '|'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('ప్రీ', 'U'), ('తిం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('జుం', 'U'), ('డం', 'U'), ('బు', '|'), ('నం', 'U'), ('ద', '|'), ('ర', '|'), ('యన్', 'U'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('నిం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('నా', 'U'), ('డిం', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>ఘనుఁడై యేచి దశాననుండు బలిమిం గైలాసశైలేంద్ర మె-
 త్తినఁ దద్దానవనాథుఁ ద్రొక్క నతఁ డర్థి న్మ్రొక్కినం గాచి ప్రా-
@@ -873,32 +834,29 @@
 జనతో నెప్పుడు వేచియుండు భవదాజ్ఞాశక్తి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ను', '|'), ('డై', 'U'), ('యే', 'U'), ('చి', '|'), ('ద', '|'), ('శా', 'U'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('బ', '|'), ('లి', '|'), ('మిం', 'U'), ('గై', 'U'), ('లా', 'U'), ('స', '|'), ('శై', 'U'), ('లేం', 'U'), ('ద్ర', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', '|'), ('ద', 'U'), ('ద్దా', 'U'), ('న', '|'), ('వ', '|'), ('నా', 'U'), ('థు', '|'), ('ద్రొ', 'U'), ('క్క', '|'), ('న', '|'), ('త', '|'), ('డ', 'U'), ('ర్థి', '|'), ('న్మ్రొ', 'U'), ('క్కి', '|'), ('నం', 'U'), ('గా', 'U'), ('చి', 'U'), ('ప్రా', 'U'), ('క్త', '|'), ('న', '|'), ('శౌ', 'U'), ('ర్యా', 'U'), ('ధి', '|'), ('కు', '|'), ('జే', 'U'), ('సె', '|'), ('దు', 'U'), ('ష్టు', '|'), ('న', '|'), ('ణ', '|'), ('పం', 'U'), ('గా', 'U'), ('శి', 'U'), ('ష్టు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('తో', 'U'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వే', 'U'), ('చి', '|'), ('యుం', 'U'), ('డు', '|'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('జ్ఞా', 'U'), ('శ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>తమకం బెత్తిన నాత్మజం గడు మదాంధవ్యాప్తి నేకాంతప-
 క్షమునం దెవ్వరుఁ గానకుండఁ గవయంగాఁ బోయి నీ బాణఘా-
@@ -906,32 +864,29 @@
 కమునం దెవ్వరికింక నిన్ను నెఱుఁగంగా వచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మ', '|'), ('కం', 'U'), ('బె', 'U'), ('త్తి', '|'), ('న', '|'), ('నా', 'U'), ('త్మ', '|'), ('జం', 'U'), ('గ', '|'), ('డు', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('నే', 'U'), ('కాం', 'U'), ('త', '|'), ('ప', 'U'), ('క్ష', '|'), ('ము', '|'), ('నం', 'U'), ('దె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('గా', 'U'), ('న', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('వ', '|'), ('యం', 'U'), ('గా', 'U'), ('బో', 'U'), ('యి', '|'), ('నీ', 'U'), ('బా', 'U'), ('ణ', '|'), ('ఘా', 'U'), ('త', '|'), ('ము', '|'), ('నం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వుం', 'U'), ('డు', '|'), ('ద్రె', 'U'), ('ళ్లె', '|'), ('న', '|'), ('ని', '|'), ('నం', 'U'), ('దా', 'U'), ('ద', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కిం', 'U'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('నె', '|'), ('ఱు', '|'), ('గం', 'U'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>పలుజన్మంబులఁ గూడఁబడ్డ భవశుంభద్ఘోరదుష్కర్మరా-
 సులు పైఁ గూలి సమస్తజీవులు వెసన్ శోషించుచు న్బెద్దదు-
@@ -939,32 +894,29 @@
 ప్రళయం బొక్కొకమాటు సేయుదు తుదిన్ భావింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('గూ', 'U'), ('డ', '|'), ('బ', 'U'), ('డ్డ', '|'), ('భ', '|'), ('వ', '|'), ('శుం', 'U'), ('భ', 'U'), ('ద్ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర్మ', '|'), ('రా', 'U'), ('సు', '|'), ('లు', '|'), ('పై', 'U'), ('గూ', 'U'), ('లి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('జీ', 'U'), ('వు', '|'), ('లు', '|'), ('వె', '|'), ('సన్', 'U'), ('శో', 'U'), ('షిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్బె', 'U'), ('ద్ద', '|'), ('దు', 'U'), ('ర్బ', '|'), ('లు', '|'), ('రై', 'U'), ('చి', 'U'), ('క్కి', '|'), ('న', '|'), ('ద', 'U'), ('ద్భ', '|'), ('వా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్థం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బ', 'U'), ('ద్మో', 'U'), ('ద్భ', '|'), ('వ', 'U'), ('ప్ర', '|'), ('ళ', '|'), ('యం', 'U'), ('బొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('మా', 'U'), ('టు', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('తు', '|'), ('దిన్', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>సుమహత్పద్మభవాండపంక్తుల లయక్షోభప్రతాపంబుతో
 నిమిషార్థంబునఁ గ్రాఁచి పెంపెసఁగు నీ నేత్రానలజ్యోతి య-
@@ -972,32 +924,29 @@
 స్మముగాఁ జేయుట నిశ్చయింప నిది దా శౌర్యంబె సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('మ', '|'), ('హ', 'U'), ('త్ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('పం', 'U'), ('క్తు', '|'), ('ల', '|'), ('ల', '|'), ('య', 'U'), ('క్షో', 'U'), ('భ', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('పం', 'U'), ('బు', '|'), ('తో', 'U'), ('ని', '|'), ('మి', '|'), ('షా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('న', 'U'), ('గ్రా', 'U'), ('చి', '|'), ('పెం', 'U'), ('పె', '|'), ('స', '|'), ('గు', '|'), ('నీ', 'U'), ('నే', 'U'), ('త్రా', 'U'), ('న', '|'), ('ల', 'U'), ('జ్యో', 'U'), ('తి', '|'), ('య', 'U'), ('య్య', '|'), ('మ', '|'), ('మీ', 'U'), ('నాం', 'U'), ('క', '|'), ('జ', '|'), ('లం', 'U'), ('ధ', '|'), ('ర', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('దై', 'U'), ('త్యా', 'U'), ('లి', 'U'), ('న్వి', '|'), ('జృం', 'U'), ('భిం', 'U'), ('చి', '|'), ('భ', 'U'), ('స్మ', '|'), ('ము', '|'), ('గా', 'U'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('ని', 'U'), ('శ్చ', '|'), ('యిం', 'U'), ('ప', '|'), ('ని', '|'), ('ది', '|'), ('దా', 'U'), ('శౌ', 'U'), ('ర్యం', 'U'), ('బె', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>అతిదక్షుండగు దక్షుఁ డీజగములో యాగంబు సల్లక్షణ-
 స్థితిగాఁ జేయుచునుండి మిము మది నుద్దేశింపమిం జేసి తా
@@ -1005,32 +954,29 @@
 మ్మతితో జేయని దుర్మదుండు మనునే భావింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('ద', 'U'), ('క్షుం', 'U'), ('డ', '|'), ('గు', '|'), ('ద', 'U'), ('క్షు', '|'), ('డీ', 'U'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('యా', 'U'), ('గం', 'U'), ('బు', '|'), ('స', 'U'), ('ల్ల', 'U'), ('క్ష', '|'), ('ణ', 'U'), ('స్థి', '|'), ('తి', '|'), ('గా', 'U'), ('జే', 'U'), ('యు', '|'), ('చు', '|'), ('నుం', 'U'), ('డి', '|'), ('మి', '|'), ('ము', '|'), ('మ', '|'), ('ది', '|'), ('ను', 'U'), ('ద్దే', 'U'), ('శిం', 'U'), ('ప', '|'), ('మిం', 'U'), ('జే', 'U'), ('సి', '|'), ('తా', 'U'), ('హ', '|'), ('తు', '|'), ('డ', 'U'), ('య్యెం', 'U'), ('దు', '|'), ('ది', '|'), ('న', 'U'), ('ట్టి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లు', '|'), ('బొం', 'U'), ('దై', 'U'), ('యుం', 'U'), ('డు', '|'), ('నే', 'U'), ('క', 'U'), ('ర్త', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('తో', 'U'), ('జే', 'U'), ('య', '|'), ('ని', '|'), ('దు', '|'), ('ర్మ', '|'), ('దుం', 'U'), ('డు', '|'), ('మ', '|'), ('ను', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>జగతీచక్రము పాదఘట్టనసదృశ్యంబై ప్రవర్తింపఁగా
 గగనంబంతయు బాహుమండలసమగ్రవ్యాప్తులం దద్భుతం-
@@ -1038,32 +984,29 @@
 నిగుడం బొంగి నటింతు తాండవమహానృత్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('పా', 'U'), ('ద', '|'), ('ఘ', 'U'), ('ట్ట', '|'), ('న', '|'), ('స', '|'), ('దృ', 'U'), ('శ్యం', 'U'), ('బై', 'U'), ('ప్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('గ', '|'), ('నం', 'U'), ('బం', 'U'), ('త', '|'), ('యు', '|'), ('బా', 'U'), ('హు', '|'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', 'U'), ('వ్యా', 'U'), ('ప్తు', '|'), ('లం', 'U'), ('ద', 'U'), ('ద్భు', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('ఘూ', 'U'), ('ర్ణి', 'U'), ('ల్ల', '|'), ('న', '|'), ('జాం', 'U'), ('త్య', '|'), ('వే', 'U'), ('ళ', '|'), ('ల', '|'), ('స', '|'), ('ము', 'U'), ('ద్భూ', 'U'), ('తాం', 'U'), ('గ', '|'), ('హా', 'U'), ('రా', 'U'), ('వ', '|'), ('ళుల్', 'U'), ('ని', '|'), ('గు', '|'), ('డం', 'U'), ('బొం', 'U'), ('గి', '|'), ('న', '|'), ('టిం', 'U'), ('తు', '|'), ('తాం', 'U'), ('డ', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('నృ', 'U'), ('త్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>అమరేంద్రాబ్జభవాళి కెన్నఁ దుది నీ వాదిం బ్రసాదింప న-
 ర్థము సిద్ధించుచునుండుఁగాని సురమాత్రుం గోరిన న్వీరి కా-
@@ -1071,32 +1014,29 @@
 ర్థముగా నీవ సమస్తకర్త వగుటం దర్కింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్రా', 'U'), ('బ్జ', '|'), ('భ', '|'), ('వా', 'U'), ('ళి', '|'), ('కె', 'U'), ('న్న', '|'), ('దు', '|'), ('ది', '|'), ('నీ', 'U'), ('వా', 'U'), ('దిం', 'U'), ('బ్ర', '|'), ('సా', 'U'), ('దిం', 'U'), ('ప', '|'), ('న', 'U'), ('ర్థ', '|'), ('ము', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('సు', '|'), ('ర', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('గో', 'U'), ('రి', '|'), ('న', 'U'), ('న్వీ', 'U'), ('రి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('ప', '|'), ('ద', '|'), ('నే', 'U'), ('క', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ల', 'U'), ('బ్రా', 'U'), ('రం', 'U'), ('భిం', 'U'), ('చి', '|'), ('రే', 'U'), ('ని', 'U'), ('శ్చ', '|'), ('యా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('గా', 'U'), ('నీ', 'U'), ('వ', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('క', 'U'), ('ర్త', '|'), ('వ', '|'), ('గు', '|'), ('టం', 'U'), ('ద', 'U'), ('ర్కిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>అమరంగా స్ఫుటభక్తినాటకము భాషాంగక్రియాంగాభిర-
 మ్యముగాఁ జూపిన మెచ్చి మీరిల బలే యన్నంతకున్ యోనిగే-
@@ -1104,32 +1044,29 @@
 గములోనం బహురూపమాడు వెలయంగా జీవి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రం', 'U'), ('గా', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('భ', 'U'), ('క్తి', '|'), ('నా', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('భా', 'U'), ('షాం', 'U'), ('గ', 'U'), ('క్రి', '|'), ('యాం', 'U'), ('గా', 'U'), ('భి', '|'), ('ర', 'U'), ('మ్య', '|'), ('ము', '|'), ('గా', 'U'), ('జూ', 'U'), ('పి', '|'), ('న', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మీ', 'U'), ('రి', '|'), ('ల', '|'), ('బ', '|'), ('లే', 'U'), ('య', 'U'), ('న్నం', 'U'), ('త', '|'), ('కున్', 'U'), ('యో', 'U'), ('ని', '|'), ('గే', 'U'), ('హ', '|'), ('ము', '|'), ('లన్', 'U'), ('రూ', 'U'), ('పు', '|'), ('లు', '|'), ('వ', 'U'), ('న్ను', '|'), ('కొం', 'U'), ('చు', '|'), ('ను', '|'), ('న', '|'), ('టుం', 'U'), ('డై', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('నం', 'U'), ('బ', '|'), ('హు', '|'), ('రూ', 'U'), ('ప', '|'), ('మా', 'U'), ('డు', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('జీ', 'U'), ('వి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>శ్రీవత్సాంకు రమావిశేషతయు వాక్ఛ్రీనాథు చాతుర్యమున్
 దేవాధీశ్వరు వైభవోన్నతియు నా తిగ్మాంశు తేజంబు శ్రీ-
@@ -1137,32 +1074,29 @@
 ద్భావాత్ముండగు పుణ్యమూర్తికి దృణప్రాయంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('వ', 'U'), ('త్సాం', 'U'), ('కు', '|'), ('ర', '|'), ('మా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('త', '|'), ('యు', '|'), ('వా', 'U'), ('క్ఛ్రీ', 'U'), ('నా', 'U'), ('థు', '|'), ('చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('దే', 'U'), ('వా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('వై', 'U'), ('భ', '|'), ('వో', 'U'), ('న్న', '|'), ('తి', '|'), ('యు', '|'), ('నా', 'U'), ('తి', 'U'), ('గ్మాం', 'U'), ('శు', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('దే', 'U'), ('వీ', 'U'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('రూ', 'U'), ('ప', '|'), ('వి', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ము', '|'), ('చిం', 'U'), ('తిం', 'U'), ('పం', 'U'), ('గ', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ద్భా', 'U'), ('వా', 'U'), ('త్ముం', 'U'), ('డ', '|'), ('గు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('కి', '|'), ('దృ', '|'), ('ణ', 'U'), ('ప్రా', 'U'), ('యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>ఇల సద్భక్తుల పాదధూళిపటలం బేమర్త్యుఫాలంబునం
 జిలుకు న్వాఁ డపవర్గనాథుఁ డనినన్ సిద్ధంబుగా వారి ని-
@@ -1170,32 +1104,29 @@
 ఫలమూహించి విధించి యెవ్వరికిఁ జెప్పన్వచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('పా', 'U'), ('ద', '|'), ('ధూ', 'U'), ('ళి', '|'), ('ప', '|'), ('ట', '|'), ('లం', 'U'), ('బే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('ఫా', 'U'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('జి', '|'), ('లు', '|'), ('కు', 'U'), ('న్వా', 'U'), ('డ', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', '|'), ('నా', 'U'), ('థు', '|'), ('డ', '|'), ('ని', '|'), ('నన్', 'U'), ('సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('వా', 'U'), ('రి', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('హ', 'U'), ('స్తా', 'U'), ('ర్పి', '|'), ('త', '|'), ('భూ', 'U'), ('తి', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('నొ', '|'), ('స', '|'), ('లా', 'U'), ('రం', 'U'), ('బూ', 'U'), ('యు', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సి', '|'), ('కిన్', 'U'), ('ఫ', '|'), ('ల', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('వి', '|'), ('ధిం', 'U'), ('చి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('జె', 'U'), ('ప్ప', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>పలుతీర్థంబులఁ గ్రుంకుకంటె మహిలో భక్తాంఘ్రిపానీయముల్
 తలమీఁదం జిలికించుకొన్న శుచితీర్థం బాడ భారంబు త-
@@ -1203,32 +1134,29 @@
 యలరున్ శాశ్వతభుక్తిముక్తిఫలదంబై యుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('ల', 'U'), ('గ్రుం', 'U'), ('కు', '|'), ('కం', 'U'), ('టె', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('భ', 'U'), ('క్తాం', 'U'), ('ఘ్రి', '|'), ('పా', 'U'), ('నీ', 'U'), ('య', '|'), ('ముల్', 'U'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('దం', 'U'), ('జి', '|'), ('లి', '|'), ('కిం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('శు', '|'), ('చి', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బా', 'U'), ('డ', '|'), ('భా', 'U'), ('రం', 'U'), ('బు', '|'), ('త', 'U'), ('త్ఫ', '|'), ('ల', '|'), ('మ', 'U'), ('త్య', 'U'), ('ల్ప', '|'), ('ము', '|'), ('భ', 'U'), ('క్త', '|'), ('పా', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళాం', 'U'), ('భః', 'U'), ('స్ప', 'U'), ('ర్శ', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('ర', '|'), ('మై', 'U'), ('య', '|'), ('ల', '|'), ('రున్', 'U'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('భు', 'U'), ('క్తి', '|'), ('ము', 'U'), ('క్తి', '|'), ('ఫ', '|'), ('ల', '|'), ('దం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>రమణన్ భక్తసమగ్రదర్శనము తీర్థశ్రేణి తద్గోష్ఠి తీ-
 ర్థము తద్దివ్యదయావలోకనము తీర్థంబెన్నఁగా నిట్టి జం-
@@ -1236,32 +1164,29 @@
 కములోఁ దీర్థములంచు నేఱులు సొజంగానేల సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('మ', '|'), ('ణన్', 'U'), ('భ', 'U'), ('క్త', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('ము', '|'), ('తీ', 'U'), ('ర్థ', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('త', 'U'), ('ద్గో', 'U'), ('ష్ఠి', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('త', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ము', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('ని', 'U'), ('ట్టి', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('తీ', 'U'), ('ర్థాం', 'U'), ('బు', '|'), ('ధి', '|'), ('నో', 'U'), ('ల', '|'), ('లా', 'U'), ('డ', '|'), ('క', '|'), ('వి', '|'), ('వే', 'U'), ('క', 'U'), ('భ్ర', 'U'), ('ష్టు', '|'), ('లై', 'U'), ('పో', 'U'), ('యి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లో', 'U'), ('దీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నే', 'U'), ('ఱు', '|'), ('లు', '|'), ('సొ', '|'), ('జం', 'U'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>కమనీయంబగు సర్వతీర్థములు లింగంబున్నచో మూర్తిమం-
 తములై యొప్పుచునుండు లింగమును దాత్పర్యంబుతో భక్తగా-
@@ -1269,32 +1194,29 @@
 ర్థములందెల్లను దివ్యతీర్థము భవద్భక్తుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('నీ', 'U'), ('యం', 'U'), ('బ', '|'), ('గు', '|'), ('స', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లు', '|'), ('లిం', 'U'), ('గం', 'U'), ('బు', 'U'), ('న్న', '|'), ('చో', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('మం', 'U'), ('త', '|'), ('ము', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('లిం', 'U'), ('గ', '|'), ('ము', '|'), ('ను', '|'), ('దా', 'U'), ('త్ప', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('తో', 'U'), ('భ', 'U'), ('క్త', '|'), ('గా', 'U'), ('త్ర', '|'), ('ము', '|'), ('లం', 'U'), ('దె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నుం', 'U'), ('డు', '|'), ('గా', 'U'), ('న', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('ద', 'U'), ('త్త్వా', 'U'), ('ర్థ', '|'), ('మూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('దీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లం', 'U'), ('దె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('ది', 'U'), ('వ్య', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('భ', '|'), ('వ', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>ధరణిం దీర్థములాడుకంటె నతిమోదం బొప్ప యజ్ఞంబులం
 బరగం జేయుటకంటె సువ్రతములొప్ప వేదశాస్త్రార్థత-
@@ -1302,32 +1224,29 @@
 త్పురుషశ్రేష్ఠులఁ బూజసేయుట మహాపుణ్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణిం', 'U'), ('దీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('కం', 'U'), ('టె', '|'), ('న', '|'), ('తి', '|'), ('మో', 'U'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('య', 'U'), ('జ్ఞం', 'U'), ('బు', '|'), ('లం', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('సు', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్రా', 'U'), ('ర్థ', '|'), ('త', 'U'), ('త్ప', '|'), ('రు', '|'), ('డై', 'U'), ('యా', 'U'), ('ద', '|'), ('ట', '|'), ('జ', 'U'), ('ల్పు', '|'), ('కం', 'U'), ('టె', '|'), ('మ', '|'), ('ది', '|'), ('ను', 'U'), ('త్సా', 'U'), ('హిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('మ', 'U'), ('త్పు', '|'), ('రు', '|'), ('ష', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('మ', '|'), ('హా', 'U'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>భవదీయామలతత్త్వనిర్ణయకళాప్రఖ్యాతసద్భక్తపుం-
 గవగోష్ఠీసుఖవార్ధిలోనఁ గడువేడ్కం దేలినం గాక యీ
@@ -1335,32 +1254,29 @@
 ర్భవసంఘాకలితాత్మతామసమహాపంకంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('మ', '|'), ('ల', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ని', 'U'), ('ర్ణ', '|'), ('య', '|'), ('క', '|'), ('ళా', 'U'), ('ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('పుం', 'U'), ('గ', '|'), ('వ', '|'), ('గో', 'U'), ('ష్ఠీ', 'U'), ('సు', '|'), ('ఖ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('లో', 'U'), ('న', '|'), ('గ', '|'), ('డు', '|'), ('వే', 'U'), ('డ్కం', 'U'), ('దే', 'U'), ('లి', '|'), ('నం', 'U'), ('గా', 'U'), ('క', '|'), ('యీ', 'U'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('దీ', 'U'), ('ర్థ', '|'), ('జ', '|'), ('లం', 'U'), ('బు', '|'), ('లం', 'U'), ('గ', '|'), ('డ', '|'), ('గి', '|'), ('నం', 'U'), ('బో', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ర్భ', '|'), ('వ', '|'), ('సం', 'U'), ('ఘా', 'U'), ('క', '|'), ('లి', '|'), ('తా', 'U'), ('త్మ', '|'), ('తా', 'U'), ('మ', '|'), ('స', '|'), ('మ', '|'), ('హా', 'U'), ('పం', 'U'), ('కం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>ధరణిం బ్రాక్తనభక్తనిర్మితమహాస్థానంబులై యొప్పు శ్రీ-
 గిరిముఖ్యంబగు దివ్యతీర్థములు భక్తిం జూచిరే వారి దు-
@@ -1368,32 +1284,29 @@
 బరమార్థంబుగఁ బాయదే నరుల పాపంబెల్ల సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణిం', 'U'), ('బ్రా', 'U'), ('క్త', '|'), ('న', '|'), ('భ', 'U'), ('క్త', '|'), ('ని', '|'), ('ర్మి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('స్థా', 'U'), ('నం', 'U'), ('బు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', 'U'), ('శ్రీ', 'U'), ('గి', '|'), ('రి', '|'), ('ము', 'U'), ('ఖ్యం', 'U'), ('బ', '|'), ('గు', '|'), ('ది', 'U'), ('వ్య', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లు', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('జూ', 'U'), ('చి', '|'), ('రే', 'U'), ('వా', 'U'), ('రి', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('వా', 'U'), ('యు', '|'), ('న', 'U'), ('న్న', '|'), ('మ', '|'), ('ఱి', '|'), ('సా', 'U'), ('క్షా', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('లం', 'U'), ('జూ', 'U'), ('చి', '|'), ('నం', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గ', '|'), ('బా', 'U'), ('య', '|'), ('దే', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('పా', 'U'), ('పం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>కని సద్భక్తుల కంత నంతఁ గడువేడ్కన్ హృత్ప్రణామంబు సే-
 సినమాత్రం జెడు సర్వదోషములు తచ్ఛ్రీపాదము ల్ముట్టి మ్రొ-
@@ -1401,32 +1314,29 @@
 సినఁ ద్వద్దివ్యదయావలోకనఘనశ్రీ లొందు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ని', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కం', 'U'), ('త', '|'), ('నం', 'U'), ('త', '|'), ('గ', '|'), ('డు', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('హృ', 'U'), ('త్ప్ర', '|'), ('ణా', 'U'), ('మం', 'U'), ('బు', '|'), ('సే', 'U'), ('సి', '|'), ('న', '|'), ('మా', 'U'), ('త్రం', 'U'), ('జె', '|'), ('డు', '|'), ('స', 'U'), ('ర్వ', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('త', 'U'), ('చ్ఛ్రీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్ము', 'U'), ('ట్టి', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('స', 'U'), ('ర్వాం', 'U'), ('గ', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('య', '|'), ('గు', '|'), ('భ', '|'), ('క్తిన్', 'U'), ('వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('ద్వ', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ఘ', '|'), ('న', 'U'), ('శ్రీ', 'U'), ('లొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>జలజాతప్రభవాచ్యుతాదులు మదిం జర్చించి చర్చించి నీ
 కల రూపారయలేక చిక్కులఁ బడంగా నిన్ను హస్తార్పితా-
@@ -1434,32 +1344,29 @@
 క్తుల శౌర్యం బుపమింప నెవ్వఁడు సమర్థుం డింక సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', 'U'), ('ప్ర', '|'), ('భ', '|'), ('వా', 'U'), ('చ్యు', '|'), ('తా', 'U'), ('దు', '|'), ('లు', '|'), ('మ', '|'), ('దిం', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('చి', '|'), ('చ', 'U'), ('ర్చిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('క', '|'), ('ల', '|'), ('రూ', 'U'), ('పా', 'U'), ('ర', '|'), ('య', '|'), ('లే', 'U'), ('క', '|'), ('చి', 'U'), ('క్కు', '|'), ('ల', '|'), ('బ', '|'), ('డం', 'U'), ('గా', 'U'), ('ని', 'U'), ('న్ను', '|'), ('హ', 'U'), ('స్తా', 'U'), ('ర్పి', '|'), ('తా', 'U'), ('మ', '|'), ('ల', '|'), ('క', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('కి', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యే', 'U'), ('ర్ప', '|'), ('ఱ', '|'), ('చి', '|'), ('సం', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('చే', 'U'), ('కొ', 'U'), ('న్న', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('శౌ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('ప', '|'), ('మిం', 'U'), ('ప', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('స', '|'), ('మ', 'U'), ('ర్థుం', 'U'), ('డిం', 'U'), ('క', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>అమరన్ భక్తగణాత్మమధ్యమము లింగావాస మీ లింగ మ-
 ధ్యమముం బద్మభవాండభాండనిలయంబై యుండుట భక్తతృ-
@@ -1467,32 +1374,29 @@
 ప్తిమహత్త్వంబున నీ సమస్తమును దృప్తిం బొందు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రన్', 'U'), ('భ', 'U'), ('క్త', '|'), ('గ', '|'), ('ణా', 'U'), ('త్మ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('ము', '|'), ('లిం', 'U'), ('గా', 'U'), ('వా', 'U'), ('స', '|'), ('మీ', 'U'), ('లిం', 'U'), ('గ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('ముం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ని', '|'), ('ల', '|'), ('యం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ట', '|'), ('భ', 'U'), ('క్త', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('మ', '|'), ('హా', 'U'), ('లిం', 'U'), ('గ', '|'), ('ము', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('యై', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ను', 'U'), ('ద్దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('ద', 'U'), ('ల్లిం', 'U'), ('గ', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('ను', '|'), ('దృ', 'U'), ('ప్తిం', 'U'), ('బొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>అనురాగంబున నిన్నుఁ జూచుఁ దలపోయన్ జొక్కుఁ గాంక్షించు వ-
 ర్ణన సేయం దమకించు సిగ్గు విరియన్ బ్రార్థించు శోషించు నం-
@@ -1500,32 +1404,29 @@
 దనరంగా మది నిన్ను డక్కఁ గొను సద్భక్తుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('రా', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('యన్', 'U'), ('జొ', 'U'), ('క్కు', '|'), ('గాం', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('సే', 'U'), ('యం', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('చు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('వి', '|'), ('రి', '|'), ('యన్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('శో', 'U'), ('షిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('దన్', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చు', '|'), ('ద', 'U'), ('న్ను', '|'), ('మ', '|'), ('ఱ', '|'), ('చుం', 'U'), ('దా', 'U'), ('నీ', 'U'), ('ద', '|'), ('శా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('లం', 'U'), ('ద', '|'), ('న', '|'), ('రం', 'U'), ('గా', 'U'), ('మ', '|'), ('ది', '|'), ('ని', 'U'), ('న్ను', '|'), ('డ', 'U'), ('క్క', '|'), ('గొ', '|'), ('ను', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>ఎలమిన్ భక్తుఁడు వక్రుఁడై నడిచెనే నేపారఁగా దానికిం
 గలుషింపం గలహింపఁ గింకిరిపడం గాదెట్టిచోనైన ని-
@@ -1533,32 +1434,29 @@
 కలుగాఁ బాఱిన దాని నొండు వలుకంగాఁ జన్నె సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('ల', '|'), ('మిన్', 'U'), ('భ', 'U'), ('క్తు', '|'), ('డు', '|'), ('వ', 'U'), ('క్రు', '|'), ('డై', 'U'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('నే', 'U'), ('నే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('దా', 'U'), ('ని', '|'), ('కిం', 'U'), ('గ', '|'), ('లు', '|'), ('షిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ల', '|'), ('హిం', 'U'), ('ప', '|'), ('గిం', 'U'), ('కి', '|'), ('రి', '|'), ('ప', '|'), ('డం', 'U'), ('గా', 'U'), ('దె', 'U'), ('ట్టి', '|'), ('చో', 'U'), ('నై', 'U'), ('న', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('గం', 'U'), ('గా', 'U'), ('పృ', '|'), ('థు', '|'), ('ల', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('మ', '|'), ('ర', '|'), ('యం', 'U'), ('బ్ర', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('దా', 'U'), ('నె', 'U'), ('న్ని', '|'), ('వం', 'U'), ('క', '|'), ('లు', '|'), ('గా', 'U'), ('బా', 'U'), ('ఱి', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('నొం', 'U'), ('డు', '|'), ('వ', '|'), ('లు', '|'), ('కం', 'U'), ('గా', 'U'), ('జ', 'U'), ('న్నె', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>సికతాధామము నీకుఁ జేసి మదిలోఁ జెన్నొంది క్రీడించు బా-
 లకు లింద్రాధికులన్న నీ గుడు లతిశ్లాఘ్యేష్టకాష్ఠాదులన్
@@ -1566,32 +1464,29 @@
 పకు సౌభాగ్యము మాన మెవ్వరికిఁ జెప్పన్వచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('క', '|'), ('తా', 'U'), ('ధా', 'U'), ('మ', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('జే', 'U'), ('సి', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('జె', 'U'), ('న్నొం', 'U'), ('ది', 'U'), ('క్రీ', 'U'), ('డిం', 'U'), ('చు', '|'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('లిం', 'U'), ('ద్రా', 'U'), ('ధి', '|'), ('కు', '|'), ('ల', 'U'), ('న్న', '|'), ('నీ', 'U'), ('గు', '|'), ('డు', '|'), ('ల', '|'), ('తి', 'U'), ('శ్లా', 'U'), ('ఘ్యే', 'U'), ('ష్ట', '|'), ('కా', 'U'), ('ష్ఠా', 'U'), ('దు', '|'), ('లన్', 'U'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('నె', 'U'), ('త్తి', '|'), ('భూ', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('లో', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్లు', '|'), ('వం', 'U'), ('శ', 'U'), ('ప్ర', '|'), ('దీ', 'U'), ('ప', '|'), ('కు', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('జె', 'U'), ('ప్ప', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>భవదభ్యర్చనవేళలన్ భవుల సంపద్భ్రాంతులన్ దీనమా-
 నవులన్ విద్విషులన్ భవాతురుల సన్మానించుటల్ సౌఖ్యము-
@@ -1599,32 +1494,29 @@
 భువి నీ భక్తుల కాత్మలో విరసము ల్వుట్టించు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('ద', 'U'), ('భ్య', 'U'), ('ర్చ', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('లన్', 'U'), ('భ', '|'), ('వు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద్భ్రాం', 'U'), ('తు', '|'), ('లన్', 'U'), ('దీ', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లన్', 'U'), ('వి', 'U'), ('ద్వి', '|'), ('షు', '|'), ('లన్', 'U'), ('భ', '|'), ('వా', 'U'), ('తు', '|'), ('రు', '|'), ('ల', '|'), ('స', 'U'), ('న్మా', 'U'), ('నిం', 'U'), ('చు', '|'), ('టల్', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('వి', '|'), ('హా', 'U'), ('రే', 'U'), ('చ్ఛ', '|'), ('లు', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చు', '|'), ('చో', 'U'), ('భు', '|'), ('వి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('వి', '|'), ('ర', '|'), ('స', '|'), ('ము', 'U'), ('ల్వు', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>కరుణం జేకొనిరేని రౌరవపదగ్రస్తాత్తు దేవేంద్రుఁగాఁ
 బరగం జేయుదు రాత్మలో నలిగిరేఁ బర్జన్యు నా రౌరవో-
@@ -1632,32 +1524,29 @@
 నరయన్ భక్తుల శక్తి యెట్లు గుఱిసేయ న్వచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రు', '|'), ('ణం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('రే', 'U'), ('ని', '|'), ('రౌ', 'U'), ('ర', '|'), ('వ', '|'), ('ప', '|'), ('ద', 'U'), ('గ్ర', 'U'), ('స్తా', 'U'), ('త్తు', '|'), ('దే', 'U'), ('వేం', 'U'), ('ద్రు', '|'), ('గా', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('జే', 'U'), ('యు', '|'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('న', '|'), ('లి', '|'), ('గి', '|'), ('రే', 'U'), ('బ', 'U'), ('ర్జ', 'U'), ('న్యు', '|'), ('నా', 'U'), ('రౌ', 'U'), ('ర', '|'), ('వో', 'U'), ('త్క', '|'), ('ర', '|'), ('పం', 'U'), ('క', 'U'), ('ప్ర', '|'), ('వి', '|'), ('లీ', 'U'), ('న', '|'), ('కీ', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('చో', 'U'), ('న', '|'), ('ర', '|'), ('యన్', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('శ', 'U'), ('క్తి', '|'), ('యె', 'U'), ('ట్లు', '|'), ('గు', '|'), ('ఱి', '|'), ('సే', 'U'), ('య', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>రమణీయక్షితిపాలుఁ డింద్రుని చతుర్మాసక్రమాయుష్యుఁ డా
 యమరేంద్రుం డజునాడికాద్వయమువాఁ డా బ్రహ్మ యుష్మన్నిమే-
@@ -1665,32 +1554,29 @@
 త్తమరాజ్యస్థితిపట్టభద్రుఁ డగు సద్భక్తుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('య', 'U'), ('క్షి', '|'), ('తి', '|'), ('పా', 'U'), ('లు', '|'), ('డిం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('చ', '|'), ('తు', '|'), ('ర్మా', 'U'), ('స', 'U'), ('క్ర', '|'), ('మా', 'U'), ('యు', 'U'), ('ష్యు', '|'), ('డా', 'U'), ('య', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్రుం', 'U'), ('డ', '|'), ('జు', '|'), ('నా', 'U'), ('డి', '|'), ('కా', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('వా', 'U'), ('డా', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('యు', 'U'), ('ష్మ', 'U'), ('న్ని', '|'), ('మే', 'U'), ('ష', '|'), ('ము', '|'), ('వా', 'U'), ('డం', 'U'), ('చు', '|'), ('ను', '|'), ('వీ', 'U'), ('రి', '|'), ('నె', 'U'), ('ల్ల', '|'), ('న', '|'), ('గు', '|'), ('నీ', 'U'), ('సా', 'U'), ('లో', 'U'), ('క్య', '|'), ('సా', 'U'), ('మీ', 'U'), ('ప్య', '|'), ('స', 'U'), ('త్త', '|'), ('మ', '|'), ('రా', 'U'), ('జ్య', 'U'), ('స్థి', '|'), ('తి', '|'), ('ప', 'U'), ('ట్ట', '|'), ('భ', '|'), ('ద్రు', '|'), ('డ', '|'), ('గు', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>ప్రకటింపంగ సమస్తపాతకములం బాపంగ నీ పూజయం-
 దొక పుష్పాంశము చాలునన్న మహిలో నూహింపఁగా నీ పదా-
@@ -1698,32 +1584,29 @@
 ప్రకరం బెన్నెడివాఁడు లోకములలోఁ బాపిష్ఠి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('క', '|'), ('టిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('ము', '|'), ('లం', 'U'), ('బా', 'U'), ('పం', 'U'), ('గ', '|'), ('నీ', 'U'), ('పూ', 'U'), ('జ', '|'), ('యం', 'U'), ('దొ', '|'), ('క', '|'), ('పు', 'U'), ('ష్పాం', 'U'), ('శ', '|'), ('ము', '|'), ('చా', 'U'), ('లు', '|'), ('న', 'U'), ('న్న', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('నూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నీ', 'U'), ('ప', '|'), ('దా', 'U'), ('ర్చ', '|'), ('కు', '|'), ('లే', 'U'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('శు', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('మ', '|'), ('దిం', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('ద', 'U'), ('ద్దు', 'U'), ('ర్గు', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బె', 'U'), ('న్నె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('బా', 'U'), ('పి', 'U'), ('ష్ఠి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>తమ తేజంబుఁ దృణీకరించుచు సముద్యత్తేజులై మీఁదిలో-
 కములందున్ జరియించు నీ యచలభక్తశ్రేష్ఠులం జూచి నె-
@@ -1731,32 +1614,29 @@
 ర్త్యమునం బుట్టఁగ వాంఛసేయుదు రమర్త్యశ్రేణి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మ', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('దృ', '|'), ('ణీ', 'U'), ('క', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్తే', 'U'), ('జు', '|'), ('లై', 'U'), ('మీ', 'U'), ('ది', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లం', 'U'), ('దున్', 'U'), ('జ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('య', '|'), ('చ', '|'), ('ల', '|'), ('భ', 'U'), ('క్త', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('లం', 'U'), ('జూ', 'U'), ('చి', '|'), ('నె', 'U'), ('య్య', '|'), ('ము', '|'), ('నం', 'U'), ('దా', 'U'), ('రు', '|'), ('ను', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('ము', '|'), ('నం', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('గ', '|'), ('వాం', 'U'), ('ఛ', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('ర', '|'), ('మ', 'U'), ('ర్త్య', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>అమరన్ భక్తులకెల్ల నీవ హృదయంబై యుండుట న్వారి సౌ-
 ఖ్యము నీ సౌఖ్యము వారి కూర్మియు సమగ్రంబైన నీ కూర్మిత-
@@ -1764,32 +1644,29 @@
 వము దా వారల వాక్యనిర్ణయము నీ వాక్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రన్', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('వ', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ట', 'U'), ('న్వా', 'U'), ('రి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('వా', 'U'), ('రి', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('యు', '|'), ('స', '|'), ('మ', 'U'), ('గ్రం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('కూ', 'U'), ('ర్మి', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('రౌ', 'U'), ('ద్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('దా', 'U'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('వా', 'U'), ('క్య', '|'), ('ని', 'U'), ('ర్ణ', '|'), ('య', '|'), ('ము', '|'), ('నీ', 'U'), ('వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>అవనిం బెన్నిధి భాగ్యహీనునకుఁ బ్రత్యక్షంబు గాకప్పు డొం-
 డవ భాండాకృతిఁ దాల్చి మాఁటువడి మాయావృత్తి నున్నట్లు దా
@@ -1797,32 +1674,29 @@
 ర్వ్యవయసాయాత్ముల కెల్లఁ గేవలనరుండై తోఁచు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('నిం', 'U'), ('బె', 'U'), ('న్ని', '|'), ('ధి', '|'), ('భా', 'U'), ('గ్య', '|'), ('హీ', 'U'), ('ను', '|'), ('న', '|'), ('కు', 'U'), ('బ్ర', 'U'), ('త్య', 'U'), ('క్షం', 'U'), ('బు', '|'), ('గా', 'U'), ('క', 'U'), ('ప్పు', '|'), ('డొం', 'U'), ('డ', '|'), ('వ', '|'), ('భాం', 'U'), ('డా', 'U'), ('కృ', '|'), ('తి', '|'), ('దా', 'U'), ('ల్చి', '|'), ('మా', 'U'), ('టు', '|'), ('వ', '|'), ('డి', '|'), ('మా', 'U'), ('యా', 'U'), ('వృ', 'U'), ('త్తి', '|'), ('ను', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('దా', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', 'U'), ('ప్ర', '|'), ('తి', '|'), ('బిం', 'U'), ('బ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('య', '|'), ('గు', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('దు', 'U'), ('ర్వ్య', '|'), ('వ', '|'), ('య', '|'), ('సా', 'U'), ('యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('గే', 'U'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('రుం', 'U'), ('డై', 'U'), ('తో', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>క్షితిపై శ్వేతమునీంద్రుఁ జంప నలుకం గీనాశుఁ డేతెంచి నీ
 యతికోపోజ్జ్వలనాహుతి న్మడిసెఁ దథ్యం బేకనిష్ఠాసమ-
@@ -1830,32 +1704,29 @@
 బ్రతిపక్షావలి కెట్లు వారి దెసఁ జేరన్వచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('క్షి', '|'), ('తి', '|'), ('పై', 'U'), ('శ్వే', 'U'), ('త', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('జం', 'U'), ('ప', '|'), ('న', '|'), ('లు', '|'), ('కం', 'U'), ('గీ', 'U'), ('నా', 'U'), ('శు', '|'), ('డే', 'U'), ('తెం', 'U'), ('చి', '|'), ('నీ', 'U'), ('య', '|'), ('తి', '|'), ('కో', 'U'), ('పో', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('నా', 'U'), ('హు', '|'), ('తి', 'U'), ('న్మ', '|'), ('డి', '|'), ('సె', '|'), ('ద', 'U'), ('థ్యం', 'U'), ('బే', 'U'), ('క', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('తు', '|'), ('లం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('లు', '|'), ('డ', '|'), ('వై', 'U'), ('నీ', 'U'), ('వె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్గా', 'U'), ('వ', '|'), ('గా', 'U'), ('బ్ర', '|'), ('తి', '|'), ('ప', 'U'), ('క్షా', 'U'), ('వ', '|'), ('లి', '|'), ('కె', 'U'), ('ట్లు', '|'), ('వా', 'U'), ('రి', '|'), ('దె', '|'), ('స', '|'), ('జే', 'U'), ('ర', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>కింకం దన్ను నదల్చి చక్రమునఁ దాఁ గృష్ణుండని న్వైచినం
 బొంకంబొప్పఁగ దానిఁ దుత్తుఱుముగాఁ బోఁదట్టి యుప్పొంగె ని-
@@ -1863,32 +1734,29 @@
 సంకల్పప్రభవప్రతాపవనభాస్వద్దావ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('కిం', 'U'), ('కం', 'U'), ('ద', 'U'), ('న్ను', '|'), ('న', '|'), ('ద', 'U'), ('ల్చి', '|'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('గృ', 'U'), ('ష్ణుం', 'U'), ('డ', '|'), ('ని', 'U'), ('న్వై', 'U'), ('చి', '|'), ('నం', 'U'), ('బొం', 'U'), ('కం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('దా', 'U'), ('ని', '|'), ('దు', 'U'), ('త్తు', '|'), ('ఱు', '|'), ('ము', '|'), ('గా', 'U'), ('బో', 'U'), ('ద', 'U'), ('ట్టి', '|'), ('యు', 'U'), ('ప్పొం', 'U'), ('గె', '|'), ('ని', 'U'), ('శ్శం', 'U'), ('కా', 'U'), ('త్ముం', 'U'), ('డు', '|'), ('ద', '|'), ('ధీ', 'U'), ('చి', '|'), ('శా', 'U'), ('శ్వ', '|'), ('తు', '|'), ('లు', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('లూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('గా', 'U'), ('సం', 'U'), ('క', 'U'), ('ల్ప', 'U'), ('ప్ర', '|'), ('భ', '|'), ('వ', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('వ', '|'), ('న', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్దా', 'U'), ('వ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>ఘటదుగ్ధంబులు పేరుఁగాక వెలయంగా నెంత తోడంటి న-
 న్నట దుర్గాంబుధి పేరునే జగములో నల్పుండు దుస్సంగతిం
@@ -1896,32 +1764,29 @@
 త్కటమై తాఁకిన నన్యచిత్తుఁడగునే తర్కింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ట', '|'), ('దు', 'U'), ('గ్ధం', 'U'), ('బు', '|'), ('లు', '|'), ('పే', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('నెం', 'U'), ('త', '|'), ('తో', 'U'), ('డం', 'U'), ('టి', '|'), ('న', 'U'), ('న్న', '|'), ('ట', '|'), ('దు', 'U'), ('ర్గాం', 'U'), ('బు', '|'), ('ధి', '|'), ('పే', 'U'), ('రు', '|'), ('నే', 'U'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('న', 'U'), ('ల్పుం', 'U'), ('డు', '|'), ('దు', 'U'), ('స్సం', 'U'), ('గ', '|'), ('తిం', 'U'), ('జ', '|'), ('టు', '|'), ('లా', 'U'), ('త్ముం', 'U'), ('డ', '|'), ('గు', '|'), ('గా', 'U'), ('క', '|'), ('యె', 'U'), ('య్యె', '|'), ('డ', '|'), ('ల', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డే', 'U'), ('కా', 'U'), ('ర్య', '|'), ('ము', 'U'), ('త్క', '|'), ('ట', '|'), ('మై', 'U'), ('తా', 'U'), ('కి', '|'), ('న', '|'), ('న', 'U'), ('న్య', '|'), ('చి', 'U'), ('త్తు', '|'), ('డ', '|'), ('గు', '|'), ('నే', 'U'), ('త', 'U'), ('ర్కిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>సతి వేడ్కం దన ప్రాణవల్లభునితో సంయోగ మర్థించుఁ గా-
 కతనిం బ్రార్థనసేసి సొమ్ముగొనిపో నఱ్ఱాడునే భక్తుఁ డీ-
@@ -1929,32 +1794,29 @@
 త్సితకామ్యార్థము లొండు వేఁడుకొనునే చింతింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('తి', '|'), ('వే', 'U'), ('డ్కం', 'U'), ('ద', '|'), ('న', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('ని', '|'), ('తో', 'U'), ('సం', 'U'), ('యో', 'U'), ('గ', '|'), ('మ', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('గా', 'U'), ('క', '|'), ('త', '|'), ('నిం', 'U'), ('బ్రా', 'U'), ('ర్థ', '|'), ('న', '|'), ('సే', 'U'), ('సి', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('న', 'U'), ('ఱ్ఱా', 'U'), ('డు', '|'), ('నే', 'U'), ('భ', 'U'), ('క్తు', '|'), ('డీ', 'U'), ('క్షి', '|'), ('తి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('య', '|'), ('వే', 'U'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('మ', '|'), ('ఱి', '|'), ('నీ', 'U'), ('శ్రీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్గొ', 'U'), ('ల్చి', '|'), ('కు', 'U'), ('త్సి', '|'), ('త', '|'), ('కా', 'U'), ('మ్యా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లొం', 'U'), ('డు', '|'), ('వే', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('నే', 'U'), ('చిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>భ్రమరధ్యానము దాల్చి కీటకము సద్భావాదిసంయుక్తిఁ దా
 భ్రమరంబై ఖగవీథి నాడునని నన్బాటించి నిన్నాత్మ నె-
@@ -1962,32 +1824,29 @@
 మతత్త్వమునం దవ్యయలీల నుండు టరుదే భావింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('భ్ర', '|'), ('మ', '|'), ('ర', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('కీ', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('స', 'U'), ('ద్భా', 'U'), ('వా', 'U'), ('ది', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తి', '|'), ('దా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రం', 'U'), ('బై', 'U'), ('ఖ', '|'), ('గ', '|'), ('వీ', 'U'), ('థి', '|'), ('నా', 'U'), ('డు', '|'), ('న', '|'), ('ని', '|'), ('న', 'U'), ('న్బా', 'U'), ('టిం', 'U'), ('చి', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('నె', 'U'), ('య్య', '|'), ('ము', '|'), ('తో', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('డు', '|'), ('ను', '|'), ('నీ', 'U'), ('య', 'U'), ('ట్లే', 'U'), ('ప', '|'), ('ర', 'U'), ('వ్యో', 'U'), ('మ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('నం', 'U'), ('ద', 'U'), ('వ్య', '|'), ('య', '|'), ('లీ', 'U'), ('ల', '|'), ('నుం', 'U'), ('డు', '|'), ('ట', '|'), ('రు', '|'), ('దే', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>అమరశ్రేణులకు న్సుధామయకళౌఘాత్మీయసారంబు ర-
 గ్యముగాఁ గ్రోలఁగ నిచ్చి తానొక కళామాత్రాంగుఁడై యున్న చం-
@@ -1995,32 +1854,29 @@
 క్రమభారాకృశుఁ జూచి మ్రొక్కుదురు లోకంబెల్ల సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('ర', 'U'), ('శ్రే', 'U'), ('ణు', '|'), ('ల', '|'), ('కు', 'U'), ('న్సు', '|'), ('ధా', 'U'), ('మ', '|'), ('య', '|'), ('క', '|'), ('ళౌ', 'U'), ('ఘా', 'U'), ('త్మీ', 'U'), ('య', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('ర', 'U'), ('గ్య', '|'), ('ము', '|'), ('గా', 'U'), ('గ్రో', 'U'), ('ల', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('నొ', '|'), ('క', '|'), ('క', '|'), ('ళా', 'U'), ('మా', 'U'), ('త్రాం', 'U'), ('గు', '|'), ('డై', 'U'), ('యు', 'U'), ('న్న', '|'), ('చం', 'U'), ('ద్ర', '|'), ('ము', '|'), ('నిం', 'U'), ('జూ', 'U'), ('చి', '|'), ('జ', '|'), ('గ', 'U'), ('మ్ము', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('గ', '|'), ('తి', '|'), ('నా', 'U'), ('రన్', 'U'), ('భ', 'U'), ('క్త', '|'), ('పూ', 'U'), ('జా', 'U'), ('ని', '|'), ('ధి', 'U'), ('క్ర', '|'), ('మ', '|'), ('భా', 'U'), ('రా', 'U'), ('కృ', '|'), ('శు', '|'), ('జూ', 'U'), ('చి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('లో', 'U'), ('కం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>చెదరం బాఱు దశప్రభంజనములన్ శిక్షన్ సుషుమ్నంబునం
 గుదియం బట్టి చలింపకుండ శశినర్కుం గట్టి భాస్వన్మన-
@@ -2028,32 +1884,29 @@
 హృదయానందరసాబ్ధిఁ దేలు శివయోగీంద్రుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ద', '|'), ('రం', 'U'), ('బా', 'U'), ('ఱు', '|'), ('ద', '|'), ('శ', 'U'), ('ప్ర', '|'), ('భం', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('లన్', 'U'), ('శి', '|'), ('క్షన్', 'U'), ('సు', '|'), ('షు', 'U'), ('మ్నం', 'U'), ('బు', '|'), ('నం', 'U'), ('గు', '|'), ('ది', '|'), ('యం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('చ', '|'), ('లిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డ', '|'), ('శ', '|'), ('శి', '|'), ('న', 'U'), ('ర్కుం', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('న్మ', '|'), ('న', 'U'), ('స్స', '|'), ('ద', '|'), ('న', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ని', 'U'), ('న్నె', '|'), ('ల', '|'), ('మి', '|'), ('సం', 'U'), ('స్థా', 'U'), ('ప్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('తా', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('ర', '|'), ('సా', 'U'), ('బ్ధి', '|'), ('దే', 'U'), ('లు', '|'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>వెలి వీక్షించిన నీ స్వరూపమె మహావిస్పష్టమై యాత్మలో-
 పల భావించిన నీ స్వరూపమె మహాప్రవ్యక్తమై దృష్టులం
@@ -2061,32 +1914,29 @@
 గలనైన న్శివయోగి తన్ను జగముం గానండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('లి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('మె', '|'), ('మ', '|'), ('హా', 'U'), ('వి', 'U'), ('స్ప', 'U'), ('ష్ట', '|'), ('మై', 'U'), ('యా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('మె', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('మై', 'U'), ('దృ', 'U'), ('ష్టు', '|'), ('లం', 'U'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('య', '|'), ('చ', '|'), ('లి', '|'), ('త', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బు', '|'), ('నం', 'U'), ('జే', 'U'), ('సి', '|'), ('తా', 'U'), ('గ', '|'), ('ల', '|'), ('నై', 'U'), ('న', 'U'), ('న్శి', '|'), ('వ', '|'), ('యో', 'U'), ('గి', '|'), ('త', 'U'), ('న్ను', '|'), ('జ', '|'), ('గ', '|'), ('ముం', 'U'), ('గా', 'U'), ('నం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>భవదాకారమె కాంచు నీ స్తవకదంబశ్రేష్ఠసద్వాక్యముల్
 చెవులార న్విను నిన్నె చెప్పు మది దుశ్శీలేంద్రియాటోపదు-
@@ -2094,32 +1944,29 @@
 జెవిటి న్మూగయునై చరించు మహి నీ శీలుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దా', 'U'), ('కా', 'U'), ('ర', '|'), ('మె', '|'), ('కాం', 'U'), ('చు', '|'), ('నీ', 'U'), ('స్త', '|'), ('వ', '|'), ('క', '|'), ('దం', 'U'), ('బ', 'U'), ('శ్రే', 'U'), ('ష్ఠ', '|'), ('స', 'U'), ('ద్వా', 'U'), ('క్య', '|'), ('ముల్', 'U'), ('చె', '|'), ('వు', '|'), ('లా', 'U'), ('ర', 'U'), ('న్వి', '|'), ('ను', '|'), ('ని', 'U'), ('న్నె', '|'), ('చె', 'U'), ('ప్పు', '|'), ('మ', '|'), ('ది', '|'), ('దు', 'U'), ('శ్శీ', 'U'), ('లేం', 'U'), ('ద్రి', '|'), ('యా', 'U'), ('టో', 'U'), ('ప', '|'), ('దు', 'U'), ('ర్వ్య', '|'), ('వ', '|'), ('సా', 'U'), ('యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('గాం', 'U'), ('చు', '|'), ('చో', 'U'), ('వి', '|'), ('నె', '|'), ('డి', '|'), ('చో', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చు', '|'), ('చో', 'U'), ('జీ', 'U'), ('కు', '|'), ('నుం', 'U'), ('జె', '|'), ('వి', '|'), ('టి', 'U'), ('న్మూ', 'U'), ('గ', '|'), ('యు', '|'), ('నై', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('మ', '|'), ('హి', '|'), ('నీ', 'U'), ('శీ', 'U'), ('లుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>అతిలాలిత్యముగా నహర్నిశము నిన్నర్చింపగా వచ్చు సు-
 వ్రతుఁడై యుండఁగవచ్చు నెల్లకళలం బ్రౌఢుఁడు గావచ్చు వా-
@@ -2127,32 +1974,29 @@
 స్థితిగా నీ దయ లేని మానవునకుం జింతింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('లా', 'U'), ('లి', 'U'), ('త్య', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('హ', 'U'), ('ర్ని', '|'), ('శ', '|'), ('ము', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('సు', 'U'), ('వ్ర', '|'), ('తు', '|'), ('డై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('క', '|'), ('ళ', '|'), ('లం', 'U'), ('బ్రౌ', 'U'), ('ఢు', '|'), ('డు', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('క్ప', '|'), ('తి', '|'), ('గా', 'U'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ఱి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('సు', 'U'), ('స్థి', '|'), ('తి', '|'), ('గా', 'U'), ('నీ', 'U'), ('ద', '|'), ('య', '|'), ('లే', 'U'), ('ని', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('న', '|'), ('కుం', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>భవికిన్ భక్తి మహత్త్వ మంకురితమై పాటిల్ల భక్తుండు బాం-
 ధవమాత్రుండగు భక్తి పుష్పితముగాఁ దద్భక్తుఁ డాత్మేశుఁడై
@@ -2160,32 +2004,29 @@
 నవికల్పస్థితి నంత భక్తుఁడును నీవై యుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వి', '|'), ('కిన్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('మం', 'U'), ('కు', '|'), ('రి', '|'), ('త', '|'), ('మై', 'U'), ('పా', 'U'), ('టి', 'U'), ('ల్ల', '|'), ('భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వ', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('గు', '|'), ('భ', 'U'), ('క్తి', '|'), ('పు', 'U'), ('ష్పి', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('ద', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డా', 'U'), ('త్మే', 'U'), ('శు', '|'), ('డై', 'U'), ('స', '|'), ('వి', '|'), ('శే', 'U'), ('ష', 'U'), ('స్థి', '|'), ('తి', '|'), ('దో', 'U'), ('చు', '|'), ('భ', 'U'), ('క్తి', '|'), ('స', '|'), ('ఫ', '|'), ('లో', 'U'), ('త్సా', 'U'), ('హం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('న', '|'), ('వి', '|'), ('క', 'U'), ('ల్ప', 'U'), ('స్థి', '|'), ('తి', '|'), ('నం', 'U'), ('త', '|'), ('భ', 'U'), ('క్తు', '|'), ('డు', '|'), ('ను', '|'), ('నీ', 'U'), ('వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>సుముఖుండై శివయోగి మోదము మదిన్ శోభిల్లఁ జేకొన్న భి-
 క్షము విప్రోత్తమకోటిభోజనసదృక్షంబన్న సౌభాగ్యయో-
@@ -2193,32 +2034,29 @@
 బమరం జేసిన పుణ్యమెట్లు గుఱిసేయ న్వచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ము', '|'), ('ఖుం', 'U'), ('డై', 'U'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గి', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('మ', '|'), ('దిన్', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('కొ', 'U'), ('న్న', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('వి', 'U'), ('ప్రో', 'U'), ('త్త', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('స', '|'), ('దృ', 'U'), ('క్షం', 'U'), ('బ', 'U'), ('న్న', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('నం', 'U'), ('దా', 'U'), ('ర', '|'), ('య', '|'), ('న', 'U'), ('మ్మ', '|'), ('హా', 'U'), ('మ', '|'), ('హు', '|'), ('డు', '|'), ('వే', 'U'), ('డ్కం', 'U'), ('గో', 'U'), ('రి', '|'), ('యా', 'U'), ('రో', 'U'), ('గి', '|'), ('ణం', 'U'), ('బ', '|'), ('మ', '|'), ('రం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మె', 'U'), ('ట్లు', '|'), ('గు', '|'), ('ఱి', '|'), ('సే', 'U'), ('య', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>ఎచ్చో నీ పదభక్తుఁ డుండు మది నింపెక్కం బ్రయత్నంబుతో
 నచ్చో నీ వనిశంబు నుండుదు త్వదీయధ్యానచిన్మూర్తులై
@@ -2226,32 +2064,29 @@
 యచ్చోఁ దీర్థములెల్ల నుండు నిది వేదార్థంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('చ్చో', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తు', '|'), ('డుం', 'U'), ('డు', '|'), ('మ', '|'), ('ది', '|'), ('నిం', 'U'), ('పె', 'U'), ('క్కం', 'U'), ('బ్ర', '|'), ('య', 'U'), ('త్నం', 'U'), ('బు', '|'), ('తో', 'U'), ('న', 'U'), ('చ్చో', 'U'), ('నీ', 'U'), ('వ', '|'), ('ని', '|'), ('శం', 'U'), ('బు', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', 'U'), ('త్వ', '|'), ('దీ', 'U'), ('య', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('చి', 'U'), ('న్మూ', 'U'), ('ర్తు', '|'), ('లై', 'U'), ('య', 'U'), ('చ్చో', 'U'), ('స', 'U'), ('న్ము', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('మం', 'U'), ('త్రాం', 'U'), ('గా', 'U'), ('క్ష', '|'), ('రా', 'U'), ('యు', 'U'), ('క్తు', '|'), ('లై', 'U'), ('య', 'U'), ('చ్చో', 'U'), ('దీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నుం', 'U'), ('డు', '|'), ('ని', '|'), ('ది', '|'), ('వే', 'U'), ('దా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>సత్యం బెప్పుడుఁ దప్పఁడేనియు దురాచారుండు గాఁడేని యౌ-
 చిత్యం బేమఱఁడేని దుర్జనుల గోష్ఠిం బొందఁడే భక్తసాం-
@@ -2259,32 +2094,29 @@
 భృత్యుం డాతఁడు మూఁడులోకములలోఁ బెంపొందు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('త్యం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ద', 'U'), ('ప్ప', '|'), ('డే', 'U'), ('ని', '|'), ('యు', '|'), ('దు', '|'), ('రా', 'U'), ('చా', 'U'), ('రుం', 'U'), ('డు', '|'), ('గా', 'U'), ('డే', 'U'), ('ని', '|'), ('యౌ', 'U'), ('చి', 'U'), ('త్యం', 'U'), ('బే', 'U'), ('మ', '|'), ('ఱ', '|'), ('డే', 'U'), ('ని', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('గో', 'U'), ('ష్ఠిం', 'U'), ('బొం', 'U'), ('ద', '|'), ('డే', 'U'), ('భ', 'U'), ('క్త', '|'), ('సాం', 'U'), ('గ', 'U'), ('త్యం', 'U'), ('బా', 'U'), ('ద', '|'), ('ట', '|'), ('బా', 'U'), ('య', '|'), ('డే', 'U'), ('ని', '|'), ('మ', '|'), ('ద', '|'), ('న', 'U'), ('గ్ర', 'U'), ('స్తుం', 'U'), ('డు', '|'), ('గా', 'U'), ('డే', 'U'), ('ని', '|'), ('నీ', 'U'), ('భృ', 'U'), ('త్యుం', 'U'), ('డా', 'U'), ('త', '|'), ('డు', '|'), ('మూ', 'U'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('బెం', 'U'), ('పొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>పెంపన్ దల్లి యగున్ రుజాపటలదుష్పీడావిధి క్షోభ వా-
 రింపన్ వైద్యుఁ డగుం గుమార్గవిధులం గ్రీడింపఁబోకుండ శి-
@@ -2292,32 +2124,29 @@
 సంపద్వృద్ధి యొనర్ప దాతయగు నీ సద్భక్తి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('పెం', 'U'), ('పన్', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('య', '|'), ('గున్', 'U'), ('రు', '|'), ('జా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('దు', 'U'), ('ష్పీ', 'U'), ('డా', 'U'), ('వి', '|'), ('ధి', 'U'), ('క్షో', 'U'), ('భ', '|'), ('వా', 'U'), ('రిం', 'U'), ('పన్', 'U'), ('వై', 'U'), ('ద్యు', '|'), ('డ', '|'), ('గుం', 'U'), ('గు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('వి', '|'), ('ధు', '|'), ('లం', 'U'), ('గ్రీ', 'U'), ('డిం', 'U'), ('ప', '|'), ('బో', 'U'), ('కుం', 'U'), ('డ', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('పన్', 'U'), ('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('య', '|'), ('గు', '|'), ('చున్', 'U'), ('శ్రీ', 'U'), ('మం', 'U'), ('తు', '|'), ('గా', 'U'), ('నెం', 'U'), ('త', '|'), ('యున్', 'U'), ('సం', 'U'), ('ప', 'U'), ('ద్వృ', 'U'), ('ద్ధి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('దా', 'U'), ('త', '|'), ('య', '|'), ('గు', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>ఉరుసంసారగజేంద్రదర్పదళన వ్యూఢప్రతాపోగ్రకే-
 సరి దుష్ప్రాపశరీధబంధవిపులక్ష్మాజవ్రజచ్ఛేదవి-
@@ -2325,32 +2154,29 @@
 స్తరసంఘాతవిఘాత మారుతము నీ సద్భక్తి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('రు', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('గ', '|'), ('జేం', 'U'), ('ద్ర', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ద', '|'), ('ళ', '|'), ('న', 'U'), ('వ్యూ', 'U'), ('ఢ', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('పో', 'U'), ('గ్ర', '|'), ('కే', 'U'), ('స', '|'), ('రి', '|'), ('దు', 'U'), ('ష్ప్రా', 'U'), ('ప', '|'), ('శ', '|'), ('రీ', 'U'), ('ధ', '|'), ('బం', 'U'), ('ధ', '|'), ('వి', '|'), ('పు', '|'), ('ల', 'U'), ('క్ష్మా', 'U'), ('జ', 'U'), ('వ్ర', '|'), ('జ', 'U'), ('చ్ఛే', 'U'), ('ద', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('రి', '|'), ('త', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('దు', '|'), ('రి', '|'), ('త', 'U'), ('ప్రో', 'U'), ('ద్భూ', 'U'), ('త', '|'), ('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('సం', 'U'), ('ఘా', 'U'), ('త', '|'), ('వి', '|'), ('ఘా', 'U'), ('త', '|'), ('మా', 'U'), ('రు', '|'), ('త', '|'), ('ము', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>అరివీరప్రకరంబు భీకరతరంబై తాఁకుచో సింహసిం-
 ధురశార్దూలమృగోరగాది భయము ల్దోతెంచుచో ఘోరదు-
@@ -2358,32 +2184,29 @@
 జరమై చేకొని తన్ను నెత్తుకొను నీ సద్భక్తి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('రి', '|'), ('వీ', 'U'), ('ర', 'U'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('త', '|'), ('రం', 'U'), ('బై', 'U'), ('తా', 'U'), ('కు', '|'), ('చో', 'U'), ('సిం', 'U'), ('హ', '|'), ('సిం', 'U'), ('ధు', '|'), ('ర', '|'), ('శా', 'U'), ('ర్దూ', 'U'), ('ల', '|'), ('మృ', '|'), ('గో', 'U'), ('ర', '|'), ('గా', 'U'), ('ది', '|'), ('భ', '|'), ('య', '|'), ('ము', 'U'), ('ల్దో', 'U'), ('తెం', 'U'), ('చు', '|'), ('చో', 'U'), ('ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('వే', 'U'), ('ద', '|'), ('న', '|'), ('లు', '|'), ('మీ', 'U'), ('దం', 'U'), ('బ', 'U'), ('ర్వు', '|'), ('చో', 'U'), ('వ', 'U'), ('జ్ర', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('మై', 'U'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('త', 'U'), ('న్ను', '|'), ('నె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ను', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>కమలాప్తుం డుదయింపఁగా ననలనక్షత్రక్షపాధీశతే-
 జములెల్లం బెడఁబాసిపోవు గతి నీ సద్భక్తిభావంబు చి-
@@ -2391,32 +2214,29 @@
 క్రమమాయాపటలంబు లన్నియును వీఁకం గ్రాఁగు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('లా', 'U'), ('ప్తుం', 'U'), ('డు', '|'), ('ద', '|'), ('యిం', 'U'), ('ప', '|'), ('గా', 'U'), ('న', '|'), ('న', '|'), ('ల', '|'), ('న', 'U'), ('క్ష', 'U'), ('త్ర', 'U'), ('క్ష', '|'), ('పా', 'U'), ('ధీ', 'U'), ('శ', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్లం', 'U'), ('బె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('పో', 'U'), ('వు', '|'), ('గ', '|'), ('తి', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('లో', 'U'), ('నం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('ని', '|'), ('త', '|'), ('ర', '|'), ('మం', 'U'), ('త్ర', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('త', 'U'), ('ద్దే', 'U'), ('వ', '|'), ('తా', 'U'), ('క్ర', '|'), ('మ', '|'), ('మా', 'U'), ('యా', 'U'), ('ప', '|'), ('ట', '|'), ('లం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('ను', '|'), ('వీ', 'U'), ('కం', 'U'), ('గ్రా', 'U'), ('గు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>చటులప్రాయగుణేంద్రియాత్ములకు వాంఛావృత్తి నీ భక్తి సం-
 స్ఫుటమై యుండదు భక్తితత్పరులకుం బొల్పొందఁగాఁ జిత్త ము-
@@ -2424,32 +2244,29 @@
 కటికిం దిగ్మమరీచికిం గలదె సాంగత్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('టు', '|'), ('ల', 'U'), ('ప్రా', 'U'), ('య', '|'), ('గు', '|'), ('ణేం', 'U'), ('ద్రి', '|'), ('యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కు', '|'), ('వాం', 'U'), ('ఛా', 'U'), ('వృ', 'U'), ('త్తి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('మై', 'U'), ('యుం', 'U'), ('డ', '|'), ('దు', '|'), ('భ', 'U'), ('క్తి', '|'), ('త', 'U'), ('త్ప', '|'), ('రు', '|'), ('ల', '|'), ('కుం', 'U'), ('బొ', 'U'), ('ల్పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', 'U'), ('త్క', '|'), ('ట', '|'), ('దు', 'U'), ('ష్టేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('వ', 'U'), ('ర్గ', '|'), ('తా', 'U'), ('మ', '|'), ('స', '|'), ('ప', '|'), ('రి', 'U'), ('గ్ర', 'U'), ('స్తం', 'U'), ('బు', '|'), ('గా', 'U'), ('దె', 'U'), ('ట్లు', '|'), ('చీ', 'U'), ('క', '|'), ('టి', '|'), ('కిం', 'U'), ('ది', 'U'), ('గ్మ', '|'), ('మ', '|'), ('రీ', 'U'), ('చి', '|'), ('కిం', 'U'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('సాం', 'U'), ('గ', 'U'), ('త్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>బలవంతుండును దుర్బలుండును మహాప్రౌఢుండు మూఢుండునుం
 గులజుండుం గులహీనజాతుఁడు ఘనక్రూరుండు శాంతాతిని-
@@ -2457,32 +2274,29 @@
 పల వర్ధిల్లిన మీఁద నేవిధమునన్ భావింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డు', '|'), ('ను', '|'), ('దు', 'U'), ('ర్బ', '|'), ('లుం', 'U'), ('డు', '|'), ('ను', '|'), ('మ', '|'), ('హా', 'U'), ('ప్రౌ', 'U'), ('ఢుం', 'U'), ('డు', '|'), ('మూ', 'U'), ('ఢుం', 'U'), ('డు', '|'), ('నుం', 'U'), ('గు', '|'), ('ల', '|'), ('జుం', 'U'), ('డుం', 'U'), ('గు', '|'), ('ల', '|'), ('హీ', 'U'), ('న', '|'), ('జా', 'U'), ('తు', '|'), ('డు', '|'), ('ఘ', '|'), ('న', 'U'), ('క్రూ', 'U'), ('రుం', 'U'), ('డు', '|'), ('శాం', 'U'), ('తా', 'U'), ('తి', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('చి', 'U'), ('త్తుం', 'U'), ('డు', '|'), ('ను', '|'), ('నొ', 'U'), ('క్క', '|'), ('రూ', 'U'), ('ప', '|'), ('మ', '|'), ('ది', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లి', '|'), ('న', '|'), ('మీ', 'U'), ('ద', '|'), ('నే', 'U'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('నన్', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>కామోద్రేకవిజృంభణంబును సమగ్రక్రోధమున్ లోభమున్
 వ్యామోహంబు మదంబు మచ్చరము దీవ్రంబైన పంచేంద్రియో-
@@ -2490,32 +2304,29 @@
 సామాన్యాత్ముల కేల నూలుకొను నీ సద్భక్తి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('మో', 'U'), ('ద్రే', 'U'), ('క', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('ణం', 'U'), ('బు', '|'), ('ను', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('మున్', 'U'), ('లో', 'U'), ('భ', '|'), ('మున్', 'U'), ('వ్యా', 'U'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('మ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ము', '|'), ('దీ', 'U'), ('వ్రం', 'U'), ('బై', 'U'), ('న', '|'), ('పం', 'U'), ('చేం', 'U'), ('ద్రి', '|'), ('యో', 'U'), ('ద్దా', 'U'), ('మా', 'U'), ('టో', 'U'), ('ప', '|'), ('ము', 'U'), ('గ్రా', 'U'), ('చి', '|'), ('పెం', 'U'), ('పె', '|'), ('స', '|'), ('గు', '|'), ('త', 'U'), ('త్త్వ', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('కిం', 'U'), ('గా', 'U'), ('క', '|'), ('తా', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('నూ', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>ఉరుపక్షంబులు వచ్చునంతకు నిరుద్యోగంబున న్వృక్షకో-
 టరమధ్యంబుననుండు పక్షిగతి నిష్ఠం గోరి నీ భక్తి వి-
@@ -2523,32 +2334,29 @@
 తరగేహంబున నుండి జీవుఁ డతివంతన్ బొందు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('రు', '|'), ('ప', 'U'), ('క్షం', 'U'), ('బు', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ని', '|'), ('రు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('న', 'U'), ('న్వృ', 'U'), ('క్ష', '|'), ('కో', 'U'), ('ట', '|'), ('ర', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('ప', 'U'), ('క్షి', '|'), ('గ', '|'), ('తి', '|'), ('ని', 'U'), ('ష్ఠం', 'U'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('మా', 'U'), ('త్మం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('కా', 'U'), ('రా', 'U'), ('గృ', '|'), ('హాం', 'U'), ('త', '|'), ('ర', '|'), ('గే', 'U'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('జీ', 'U'), ('వు', '|'), ('డ', '|'), ('తి', '|'), ('వం', 'U'), ('తన్', 'U'), ('బొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>లింగారాధన జంగమార్చనము లోలిన్ భక్తి కంగంబు ప్రా-
 ణాంగవ్యాప్తియునై స్ఫురించు నిది తత్త్వార్థంబగుం గాన నా
@@ -2556,32 +2364,29 @@
 శృంగారంబగు వాని భక్తి మదిఁ జర్చింపంగ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('లిం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ధ', '|'), ('న', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ము', '|'), ('లో', 'U'), ('లిన్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('కం', 'U'), ('గం', 'U'), ('బు', 'U'), ('ప్రా', 'U'), ('ణాం', 'U'), ('గ', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('యు', '|'), ('నై', 'U'), ('స్ఫు', '|'), ('రిం', 'U'), ('చు', '|'), ('ని', '|'), ('ది', '|'), ('త', 'U'), ('త్త్వా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('గుం', 'U'), ('గా', 'U'), ('న', '|'), ('నా', 'U'), ('యం', 'U'), ('గా', 'U'), ('భ్య', 'U'), ('ర్చ', '|'), ('న', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('హి', '|'), ('త', '|'), ('క', '|'), ('రుం', 'U'), ('డై', 'U'), ('చే', 'U'), ('సి', '|'), ('నం', 'U'), ('దా', 'U'), ('శ', '|'), ('వ', '|'), ('శృం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('మ', '|'), ('ది', '|'), ('జ', 'U'), ('ర్చిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>అరయన్ గర్మవిధావధానవిధివద్ధ్యానోత్తమజ్ఞానముల్
 వరుసన్ బేర్కొన నాల్గుయోగములు తత్త్వంబెందు నీ భక్తి వి-
@@ -2589,32 +2394,29 @@
 బరగం దక్కిన మూఁడుయోగములకుం బ్రాణంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('యన్', 'U'), ('గ', '|'), ('ర్మ', '|'), ('వి', '|'), ('ధా', 'U'), ('వ', '|'), ('ధా', 'U'), ('న', '|'), ('వి', '|'), ('ధి', '|'), ('వ', 'U'), ('ద్ధ్యా', 'U'), ('నో', 'U'), ('త్త', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ముల్', 'U'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('బే', 'U'), ('ర్కొ', '|'), ('న', '|'), ('నా', 'U'), ('ల్గు', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బెం', 'U'), ('దు', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('బా', 'U'), ('హ్య', 'U'), ('క్రి', '|'), ('య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బొ', 'U'), ('ల్లు', '|'), ('ల', '|'), ('గు', '|'), ('టం', 'U'), ('ద', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('తా', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('ద', 'U'), ('క్కి', '|'), ('న', '|'), ('మూ', 'U'), ('డు', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>అమరంగా ధనమిచ్చి కాతురు మహీయఃప్రీతిఁ బ్రాణంబుఁ బ్రా-
 ణము నర్థంబును నిచ్చి కాతు రభిమానంబు న్విశేషించి మా-
@@ -2622,32 +2424,29 @@
 త్తమచారిత్రులు భక్తిఁ గాతురు ప్రమోదంబంది సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రం', 'U'), ('గా', 'U'), ('ధ', '|'), ('న', '|'), ('మి', 'U'), ('చ్చి', '|'), ('కా', 'U'), ('తు', '|'), ('రు', '|'), ('మ', '|'), ('హీ', 'U'), ('యః', 'U'), ('ప్రీ', 'U'), ('తి', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('ను', '|'), ('ని', 'U'), ('చ్చి', '|'), ('కా', 'U'), ('తు', '|'), ('ర', '|'), ('భి', '|'), ('మా', 'U'), ('నం', 'U'), ('బు', 'U'), ('న్వి', '|'), ('శే', 'U'), ('షిం', 'U'), ('చి', '|'), ('మా', 'U'), ('న', '|'), ('ము', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('ని', 'U'), ('చ్చి', '|'), ('క', '|'), ('డు', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('మ', '|'), ('చా', 'U'), ('రి', 'U'), ('త్రు', '|'), ('లు', '|'), ('భ', 'U'), ('క్తి', '|'), ('గా', 'U'), ('తు', '|'), ('రు', 'U'), ('ప్ర', '|'), ('మో', 'U'), ('దం', 'U'), ('బం', 'U'), ('ది', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>అనుబంధేంద్రియభూతవర్గము యమాద్యష్టాంగమంత్రోరుసా-
 ధన నుచ్చాటన సేసి పాపి గురుసద్వాక్యప్రకాశోత్తమాం-
@@ -2655,32 +2454,29 @@
 కొను చిన్మూర్తికి గాని భక్తివిధి గీల్కోదెందు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('బం', 'U'), ('ధేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('భూ', 'U'), ('త', '|'), ('వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('య', '|'), ('మా', 'U'), ('ద్య', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('మం', 'U'), ('త్రో', 'U'), ('రు', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ను', 'U'), ('చ్చా', 'U'), ('ట', '|'), ('న', '|'), ('సే', 'U'), ('సి', '|'), ('పా', 'U'), ('పి', '|'), ('గు', '|'), ('రు', '|'), ('స', 'U'), ('ద్వా', 'U'), ('క్య', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శో', 'U'), ('త్త', '|'), ('మాం', 'U'), ('జ', '|'), ('న', '|'), ('దృ', 'U'), ('ష్టిం', 'U'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('యే', 'U'), ('ర్ప', '|'), ('ఱి', '|'), ('చి', '|'), ('వాం', 'U'), ('ఛం', 'U'), ('గో', 'U'), ('రి', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('చే', 'U'), ('కొ', '|'), ('ను', '|'), ('చి', 'U'), ('న్మూ', 'U'), ('ర్తి', '|'), ('కి', '|'), ('గా', 'U'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('వి', '|'), ('ధి', '|'), ('గీ', 'U'), ('ల్కో', 'U'), ('దెం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>కనకంబందు ఘనీభవించిన కళంకంబెల్ల సువ్యక్తిగా
 ననలాస్యంబునఁ దెఁగిపోవు గతి జీవాత్మం బ్రవేశించి చే-
@@ -2688,32 +2484,29 @@
 తను బాపంబడుఁ గాని యొండొకటి చేతం బోదు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('కం', 'U'), ('బం', 'U'), ('దు', '|'), ('ఘ', '|'), ('నీ', 'U'), ('భ', '|'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('క', '|'), ('ళం', 'U'), ('కం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('సు', 'U'), ('వ్య', 'U'), ('క్తి', '|'), ('గా', 'U'), ('న', '|'), ('న', '|'), ('లా', 'U'), ('స్యం', 'U'), ('బు', '|'), ('న', '|'), ('దె', '|'), ('గి', '|'), ('పో', 'U'), ('వు', '|'), ('గ', '|'), ('తి', '|'), ('జీ', 'U'), ('వా', 'U'), ('త్మం', 'U'), ('బ్ర', '|'), ('వే', 'U'), ('శిం', 'U'), ('చి', '|'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('న', '|'), ('దు', '|'), ('ర్మ', '|'), ('ల', 'U'), ('త్ర', '|'), ('య', '|'), ('ప', '|'), ('రి', 'U'), ('క్షో', 'U'), ('భం', 'U'), ('బు', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('బా', 'U'), ('పం', 'U'), ('బ', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('యొం', 'U'), ('డొ', '|'), ('క', '|'), ('టి', '|'), ('చే', 'U'), ('తం', 'U'), ('బో', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>అమరంగా గురుమంత్రకార్ముకమునం దాత్మాస్త్రమష్టాంగయో-
 గమహాముష్టి వివేకి యేయుటయుఁ దత్కాండం బజాండాది త-
@@ -2721,32 +2514,29 @@
 క్ష్యమునం దద్భుతశక్తితోడఁ గమియంగా నాఁటు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రం', 'U'), ('గా', 'U'), ('గు', '|'), ('రు', '|'), ('మం', 'U'), ('త్ర', '|'), ('కా', 'U'), ('ర్ము', '|'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దా', 'U'), ('త్మా', 'U'), ('స్త్ర', '|'), ('మ', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('యో', 'U'), ('గ', '|'), ('మ', '|'), ('హా', 'U'), ('ము', 'U'), ('ష్టి', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('యే', 'U'), ('యు', '|'), ('ట', '|'), ('యు', '|'), ('ద', 'U'), ('త్కాం', 'U'), ('డం', 'U'), ('బ', '|'), ('జాం', 'U'), ('డా', 'U'), ('ది', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('న్వ', '|'), ('డి', '|'), ('ను', 'U'), ('చ్చి', '|'), ('పా', 'U'), ('ఱి', '|'), ('భ', '|'), ('వ', '|'), ('దు', 'U'), ('ద్య', 'U'), ('త్సూ', 'U'), ('క్ష్మ', '|'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ల', 'U'), ('క్ష్య', '|'), ('ము', '|'), ('నం', 'U'), ('ద', 'U'), ('ద్భు', '|'), ('త', '|'), ('శ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('గ', '|'), ('మి', '|'), ('యం', 'U'), ('గా', 'U'), ('నా', 'U'), ('టు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>తనరం గాయవహిత్రమందు హృదయస్తంభాభిసంస్థానమై
 చను నీ ధ్యానపటంబు నూల్కొలిపి భాస్వద్భక్తివాతాహతి-
@@ -2754,32 +2544,29 @@
 ఘనసంసారమహార్ణవంబుఁ గడుపంగాఁ బాఱు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('రం', 'U'), ('గా', 'U'), ('య', '|'), ('వ', '|'), ('హి', 'U'), ('త్ర', '|'), ('మం', 'U'), ('దు', '|'), ('హృ', '|'), ('ద', '|'), ('య', 'U'), ('స్తం', 'U'), ('భా', 'U'), ('భి', '|'), ('సం', 'U'), ('స్థా', 'U'), ('న', '|'), ('మై', 'U'), ('చ', '|'), ('ను', '|'), ('నీ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ప', '|'), ('టం', 'U'), ('బు', '|'), ('నూ', 'U'), ('ల్కొ', '|'), ('లి', '|'), ('పి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('వా', 'U'), ('తా', 'U'), ('హ', '|'), ('తి', 'U'), ('న్వి', '|'), ('ను', '|'), ('త', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('స', '|'), ('ము', 'U'), ('ద్వే', 'U'), ('గం', 'U'), ('బు', '|'), ('మై', 'U'), ('జీ', 'U'), ('వు', '|'), ('డీ', 'U'), ('ఘ', '|'), ('న', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మ', '|'), ('హా', 'U'), ('ర్ణ', '|'), ('వం', 'U'), ('బు', '|'), ('గ', '|'), ('డు', '|'), ('పం', 'U'), ('గా', 'U'), ('బా', 'U'), ('ఱు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>అకలంకస్థిరభక్తి మున్సొగయ నిన్నశ్రాంతముం జూచి పా-
 యక పూజించు మహామహుండు భవదభ్యర్చ్యుం డగుంగాక దా
@@ -2787,32 +2574,29 @@
 బకవేషార్చనలేల నిన్ను సొగయింపం జాలు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('క', '|'), ('లం', 'U'), ('క', 'U'), ('స్థి', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('ము', 'U'), ('న్సొ', '|'), ('గ', '|'), ('య', '|'), ('ని', 'U'), ('న్న', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('ముం', 'U'), ('జూ', 'U'), ('చి', '|'), ('పా', 'U'), ('య', '|'), ('క', '|'), ('పూ', 'U'), ('జిం', 'U'), ('చు', '|'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హుం', 'U'), ('డు', '|'), ('భ', '|'), ('వ', '|'), ('ద', 'U'), ('భ్య', 'U'), ('ర్చ్యుం', 'U'), ('డ', '|'), ('గుం', 'U'), ('గా', 'U'), ('క', '|'), ('దా', 'U'), ('స', '|'), ('క', '|'), ('లే', 'U'), ('చ్ఛా', 'U'), ('వి', '|'), ('ష', '|'), ('యం', 'U'), ('బు', '|'), ('లం', 'U'), ('బొ', '|'), ('గ', '|'), ('యు', '|'), ('చుం', 'U'), ('జా', 'U'), ('ప', 'U'), ('ల్య', '|'), ('తం', 'U'), ('జే', 'U'), ('యు', '|'), ('నా', 'U'), ('బ', '|'), ('క', '|'), ('వే', 'U'), ('షా', 'U'), ('ర్చ', '|'), ('న', '|'), ('లే', 'U'), ('ల', '|'), ('ని', 'U'), ('న్ను', '|'), ('సొ', '|'), ('గ', '|'), ('యిం', 'U'), ('పం', 'U'), ('జా', 'U'), ('లు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>సమదోత్సాహసుఖాభిలాషలును నీ సంసారమాయావినో-
 దములు న్స్వర్గఫలాపవర్గఫలచిత్తభ్రాంతులుం బూజ్యరా-
@@ -2820,32 +2604,29 @@
 యములై మాటికిమాటి కడ్డుపడుఁ గార్యశ్రేణి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('మ', '|'), ('దో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('సు', '|'), ('ఖా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('లు', '|'), ('ను', '|'), ('నీ', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మా', 'U'), ('యా', 'U'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ము', '|'), ('లు', 'U'), ('న్స్వ', 'U'), ('ర్గ', '|'), ('ఫ', '|'), ('లా', 'U'), ('ప', '|'), ('వ', 'U'), ('ర్గ', '|'), ('ఫ', '|'), ('ల', '|'), ('చి', 'U'), ('త్త', 'U'), ('భ్రాం', 'U'), ('తు', '|'), ('లుం', 'U'), ('బూ', 'U'), ('జ్య', '|'), ('రా', 'U'), ('జ్య', '|'), ('మ', '|'), ('హా', 'U'), ('కాం', 'U'), ('క్ష', '|'), ('లు', '|'), ('నె', 'U'), ('న్ని', '|'), ('చూ', 'U'), ('డ', '|'), ('ని', '|'), ('వి', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('క', 'U'), ('త్యం', 'U'), ('త', '|'), ('రా', 'U'), ('య', '|'), ('ము', '|'), ('లై', 'U'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('మా', 'U'), ('టి', '|'), ('క', 'U'), ('డ్డు', '|'), ('ప', '|'), ('డు', '|'), ('గా', 'U'), ('ర్య', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>మోహధ్వాంతములో మునింగిన మహామూఢుం డతిభ్రష్టుఁడై
 సోహంబంచుఁ దొడంగి నీకుఁ గడు దూరాత్ముం డగుంగాని దు-
@@ -2853,32 +2634,29 @@
 సోహంబన్న భవత్పదార్చకుఁడు నీవై యుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('మో', 'U'), ('హ', 'U'), ('ధ్వాం', 'U'), ('త', '|'), ('ము', '|'), ('లో', 'U'), ('ము', '|'), ('నిం', 'U'), ('గి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('మూ', 'U'), ('ఢుం', 'U'), ('డ', '|'), ('తి', 'U'), ('భ్ర', 'U'), ('ష్టు', '|'), ('డై', 'U'), ('సో', 'U'), ('హం', 'U'), ('బం', 'U'), ('చు', '|'), ('దొ', '|'), ('డం', 'U'), ('గి', '|'), ('నీ', 'U'), ('కు', '|'), ('గ', '|'), ('డు', '|'), ('దూ', 'U'), ('రా', 'U'), ('త్ముం', 'U'), ('డ', '|'), ('గుం', 'U'), ('గా', 'U'), ('ని', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('మా', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('సొం', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('దా', 'U'), ('సో', 'U'), ('హం', 'U'), ('బ', 'U'), ('న్న', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప', '|'), ('దా', 'U'), ('ర్చ', '|'), ('కు', '|'), ('డు', '|'), ('నీ', 'U'), ('వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>చావంబుట్టుచుఁ బుట్టఁజచ్చుచు మహాచండాలసంసారపా-
 రావారంబునఁ గూలి తాఁ జెడుటకుం బ్రవ్యక్తిగా నాత్మలో-
@@ -2886,32 +2664,29 @@
 దేవా యిట్టి కుతర్కముం గలదే చింతింపంగ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('వం', 'U'), ('బు', 'U'), ('ట్టు', '|'), ('చు', '|'), ('బు', 'U'), ('ట్ట', '|'), ('జ', 'U'), ('చ్చు', '|'), ('చు', '|'), ('మ', '|'), ('హా', 'U'), ('చం', 'U'), ('డా', 'U'), ('ల', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('పా', 'U'), ('రా', 'U'), ('వా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('గూ', 'U'), ('లి', '|'), ('తా', 'U'), ('జె', '|'), ('డు', '|'), ('ట', '|'), ('కుం', 'U'), ('బ్ర', 'U'), ('వ్య', 'U'), ('క్తి', '|'), ('గా', 'U'), ('నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('నే', 'U'), ('వం', 'U'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('యే', 'U'), ('ను', '|'), ('నీ', 'U'), ('వ', '|'), ('ను', '|'), ('ట', '|'), ('తా', 'U'), ('నే', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మో', 'U'), ('శ్రీ', 'U'), ('మ', '|'), ('హా', 'U'), ('దే', 'U'), ('వా', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('కు', '|'), ('త', 'U'), ('ర్క', '|'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('చిం', 'U'), ('తిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>రసికుండై భవదంఘ్రిపద్మయుగ మారాధించుచో దుర్మద-
 వ్యసనాటోపము చిక్కులం బొరలుచు న్వర్తించుచున్నట్టి పా-
@@ -2919,32 +2694,29 @@
 గసవుం బెంచిన చేనుఁ బోలుఁ దలఁపంగా మీఁద సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('సి', '|'), ('కుం', 'U'), ('డై', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గ', '|'), ('మా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('చు', '|'), ('చో', 'U'), ('దు', '|'), ('ర్మ', '|'), ('ద', 'U'), ('వ్య', '|'), ('స', '|'), ('నా', 'U'), ('టో', 'U'), ('ప', '|'), ('ము', '|'), ('చి', 'U'), ('క్కు', '|'), ('లం', 'U'), ('బొ', '|'), ('ర', '|'), ('లు', '|'), ('చు', 'U'), ('న్వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ల', '|'), ('సు', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బ', '|'), ('దొ', 'U'), ('ప్పు', '|'), ('నె', '|'), ('భు', '|'), ('విన్', 'U'), ('ల', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నా', 'U'), ('రం', 'U'), ('భ', '|'), ('ముం', 'U'), ('గ', '|'), ('స', '|'), ('వుం', 'U'), ('బెం', 'U'), ('చి', '|'), ('న', '|'), ('చే', 'U'), ('ను', '|'), ('బో', 'U'), ('లు', '|'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('గా', 'U'), ('మీ', 'U'), ('ద', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>అమితోత్సాహమునంది నీకుఁ దన సర్వార్థంబులుం గూర్చి నే-
 మముతో నిచ్చుటకంటె శౌర్యగుణసామర్థ్యంబునం జేసి ప్రా-
@@ -2952,32 +2724,29 @@
 త్తము నీ కిచ్చుట పెక్కుభంగుల మహౌదార్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మి', '|'), ('తో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('ము', '|'), ('నం', 'U'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('ద', '|'), ('న', '|'), ('స', 'U'), ('ర్వా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లుం', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('నే', 'U'), ('మ', '|'), ('ము', '|'), ('తో', 'U'), ('ని', 'U'), ('చ్చు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('గు', '|'), ('ణ', '|'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్యం', 'U'), ('బు', '|'), ('నం', 'U'), ('జే', 'U'), ('సి', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('భ', '|'), ('వో', 'U'), ('న్మా', 'U'), ('దం', 'U'), ('బు', '|'), ('మ', '|'), ('ర్దిం', 'U'), ('చి', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('పె', 'U'), ('క్కు', '|'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('మ', '|'), ('హౌ', 'U'), ('దా', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>ఘనవైరిప్రకరంబు ధాటి ననిలో ఖండించు కంటెన్ మృగేం-
 ద్రుని జేపట్టుటకంటె వారినిధిలోఁ దోగాడుకంటెన్ మహా-
@@ -2985,32 +2754,29 @@
 జనతోఁ జిత్తము శిక్షసేయుట మహాశౌర్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('వై', 'U'), ('రి', 'U'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ధా', 'U'), ('టి', '|'), ('న', '|'), ('ని', '|'), ('లో', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చు', '|'), ('కం', 'U'), ('టెన్', 'U'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('వా', 'U'), ('రి', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('దో', 'U'), ('గా', 'U'), ('డు', '|'), ('కం', 'U'), ('టెన్', 'U'), ('మ', '|'), ('హా', 'U'), ('శ', '|'), ('ని', '|'), ('దా', 'U'), ('వ్రే', 'U'), ('యు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('ఘో', 'U'), ('ర', '|'), ('భ', '|'), ('వ', '|'), ('దు', 'U'), ('శ్చా', 'U'), ('రి', 'U'), ('త్ర', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('తో', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('శి', 'U'), ('క్ష', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('మ', '|'), ('హా', 'U'), ('శౌ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>అమితామోదనవప్రసూనముల నిన్నర్చించుచో గద్యప-
 ద్యము లూహించి నుతించుచో వివిధగీతవ్రాతము ల్పాడుచో
@@ -3018,32 +2784,29 @@
 త్తము సద్భక్తియె నీవు చేకొను పదార్థంబెల్ల సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మి', '|'), ('తా', 'U'), ('మో', 'U'), ('ద', '|'), ('న', '|'), ('వ', 'U'), ('ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('చు', '|'), ('చో', 'U'), ('గ', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', '|'), ('లూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('ను', '|'), ('తిం', 'U'), ('చు', '|'), ('చో', 'U'), ('వి', '|'), ('వి', '|'), ('ధ', '|'), ('గీ', 'U'), ('త', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ము', 'U'), ('ల్పా', 'U'), ('డు', '|'), ('చో', 'U'), ('న', '|'), ('మృ', '|'), ('తా', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('ని', '|'), ('పు', '|'), ('ణు', '|'), ('డై', 'U'), ('యా', 'U'), ('టా', 'U'), ('డు', '|'), ('చో', 'U'), ('నం', 'U'), ('దు', '|'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('యె', '|'), ('నీ', 'U'), ('వు', '|'), ('చే', 'U'), ('కొ', '|'), ('ను', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>కడుఁ జిత్రంబుగఁ జేయఁగా నొఱ సురంగంబయ్యెనే ఖడ్గమం-
 దిడకున్నం జెడురూపదేమి గొఱ? దానిం బెక్కు పాటింపఁగా
@@ -3051,32 +2814,29 @@
 నిడకున్నం జనురూపు నేమికొఱ తా నీక్షింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('జి', 'U'), ('త్రం', 'U'), ('బు', '|'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('నొ', '|'), ('ఱ', '|'), ('సు', '|'), ('రం', 'U'), ('గం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('నే', 'U'), ('ఖ', 'U'), ('డ్గ', '|'), ('మం', 'U'), ('ది', '|'), ('డ', '|'), ('కు', 'U'), ('న్నం', 'U'), ('జె', '|'), ('డు', '|'), ('రూ', 'U'), ('ప', '|'), ('దే', 'U'), ('మి', '|'), ('గొ', '|'), ('ఱ', '|'), ('దా', 'U'), ('నిం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('పా', 'U'), ('టిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నొ', '|'), ('డ', '|'), ('లె', 'U'), ('బ్భం', 'U'), ('గు', '|'), ('ల', '|'), ('నో', 'U'), ('పు', '|'), ('నే', 'U'), ('ని', '|'), ('య', '|'), ('తి', '|'), ('తో', 'U'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ని', '|'), ('డ', '|'), ('కు', 'U'), ('న్నం', 'U'), ('జ', '|'), ('ను', '|'), ('రూ', 'U'), ('పు', '|'), ('నే', 'U'), ('మి', '|'), ('కొ', '|'), ('ఱ', '|'), ('తా', 'U'), ('నీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>జ్వరసంతాపవిశోషితాంగుఁడు సుధాసంకాశదివ్యాన్నపా-
 నరసశ్రేణి భుజింప రోయుగతి నున్మాదేంద్రియధ్వాంతదు-
@@ -3084,32 +2844,29 @@
 చరణారాధనయందు బుద్ధిఁ జొనుపం జాలండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('జ్వ', '|'), ('ర', '|'), ('సం', 'U'), ('తా', 'U'), ('ప', '|'), ('వి', '|'), ('శో', 'U'), ('షి', '|'), ('తాం', 'U'), ('గు', '|'), ('డు', '|'), ('సు', '|'), ('ధా', 'U'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('న్న', '|'), ('పా', 'U'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('రో', 'U'), ('యు', '|'), ('గ', '|'), ('తి', '|'), ('ను', 'U'), ('న్మా', 'U'), ('దేం', 'U'), ('ద్రి', '|'), ('య', 'U'), ('ధ్వాం', 'U'), ('త', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మ', '|'), ('ద', 'U'), ('ప్ర', '|'), ('మ', 'U'), ('త్తు', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('సౌ', 'U'), ('ఖ్యో', 'U'), ('త్స', '|'), ('వం', 'U'), ('బై', 'U'), ('న', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('రా', 'U'), ('ధ', '|'), ('న', '|'), ('యం', 'U'), ('దు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జొ', '|'), ('ను', '|'), ('పం', 'U'), ('జా', 'U'), ('లం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>కలయం గాష్ఠయుగంబుఁ గూర్చి తరువంగా బుట్టి తత్సాధనం-
 బుల రెంటిన్ దహియించు వహ్నిగతిఁ దాఁ బొల్పొందఁ గాయంబు సం-
@@ -3117,32 +2874,29 @@
 జ్జ్వలమై కాయముఁ గర్మముం జెఱుచుఁ దత్త్వంబెన్న సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('ష్ఠ', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('త', '|'), ('రు', '|'), ('వం', 'U'), ('గా', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('త', 'U'), ('త్సా', 'U'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('రెం', 'U'), ('టిన్', 'U'), ('ద', '|'), ('హి', '|'), ('యిం', 'U'), ('చు', '|'), ('వ', 'U'), ('హ్ని', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('బొ', 'U'), ('ల్పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('యం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధి', '|'), ('ల', '|'), ('స', 'U'), ('త్క', '|'), ('ర్మ', '|'), ('ము', '|'), ('తో', 'U'), ('మ', '|'), ('థిం', 'U'), ('ప', '|'), ('గ', '|'), ('భ', '|'), ('వ', 'U'), ('చ్చి', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ద్వ', 'U'), ('హ్ని', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('మై', 'U'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('ర్మ', '|'), ('ముం', 'U'), ('జె', '|'), ('ఱు', '|'), ('చు', '|'), ('ద', 'U'), ('త్త్వం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>స్థిరబుద్ధిం దన సొమ్ము భక్తవరసుక్షేత్రంబులన్ బీజమై
 పరగంగా వెదపెట్టి మీఁద నతిసంపన్నుండగుం గాక దా-
@@ -3150,32 +2904,29 @@
 వ్వరి వేఁడం జనువాఁడొకో విషయదుర్వ్యాపారి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('స్థి', '|'), ('ర', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('ద', '|'), ('న', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('ర', '|'), ('సు', 'U'), ('క్షే', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బీ', 'U'), ('జ', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('గా', 'U'), ('వె', '|'), ('ద', '|'), ('పె', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('ద', '|'), ('న', '|'), ('తి', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నుం', 'U'), ('డ', '|'), ('గుం', 'U'), ('గా', 'U'), ('క', '|'), ('దా', 'U'), ('న', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('పా', 'U'), ('లు', '|'), ('సే', 'U'), ('సి', '|'), ('భ', '|'), ('వ', '|'), ('మా', 'U'), ('యా', 'U'), ('గ్ర', 'U'), ('స్తు', '|'), ('డై', 'U'), ('యి', 'U'), ('చ్చ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('వే', 'U'), ('డం', 'U'), ('జ', '|'), ('ను', '|'), ('వా', 'U'), ('డొ', '|'), ('కో', 'U'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('రి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>కాయంబన్నది వారిబుద్బుదసదృక్షం బందు రూపింప లేఁ-
 బ్రాయంబన్నది శారదాంబుదతటిత్ప్రఖ్యంబగుం దత్సుఖ-
@@ -3183,32 +2934,29 @@
 స్థాయీభావనఁ బొందఁ డేమిటి కయో సంసారి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('యం', 'U'), ('బ', 'U'), ('న్న', '|'), ('ది', '|'), ('వా', 'U'), ('రి', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('స', '|'), ('దృ', 'U'), ('క్షం', 'U'), ('బం', 'U'), ('దు', '|'), ('రూ', 'U'), ('పిం', 'U'), ('ప', '|'), ('లే', 'U'), ('బ్రా', 'U'), ('యం', 'U'), ('బ', 'U'), ('న్న', '|'), ('ది', '|'), ('శా', 'U'), ('ర', '|'), ('దాం', 'U'), ('బు', '|'), ('ద', '|'), ('త', '|'), ('టి', 'U'), ('త్ప్ర', 'U'), ('ఖ్యం', 'U'), ('బ', '|'), ('గుం', 'U'), ('ద', 'U'), ('త్సు', '|'), ('ఖ', 'U'), ('శ్రే', 'U'), ('యం', 'U'), ('బ', 'U'), ('న్న', '|'), ('ది', '|'), ('మా', 'U'), ('య', '|'), ('యి', 'U'), ('ట్లె', '|'), ('ఱి', '|'), ('గి', '|'), ('యు', '|'), ('శీ', 'U'), ('ఘ్రం', 'U'), ('బ', '|'), ('నీ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('సం', 'U'), ('స్థా', 'U'), ('యీ', 'U'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('బొం', 'U'), ('ద', '|'), ('డే', 'U'), ('మి', '|'), ('టి', '|'), ('క', '|'), ('యో', 'U'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>భవదీయస్థిరభక్తి లబ్ధియు భవద్భక్తైకగోష్ఠీమహో-
 త్సవలీలావిభవంబు నీ యనుదినధ్యానానుమోదంబులౌ-
@@ -3216,32 +2964,29 @@
 త్సవభోగస్థితులెల్ల మిథ్యలవి తత్త్వంబెన్న సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', 'U'), ('స్థి', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('ల', 'U'), ('బ్ధి', '|'), ('యు', '|'), ('భ', '|'), ('వ', 'U'), ('ద్భ', 'U'), ('క్తై', 'U'), ('క', '|'), ('గో', 'U'), ('ష్ఠీ', 'U'), ('మ', '|'), ('హో', 'U'), ('త్స', '|'), ('వ', '|'), ('లీ', 'U'), ('లా', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('య', '|'), ('ను', '|'), ('ది', '|'), ('న', 'U'), ('ధ్యా', 'U'), ('నా', 'U'), ('ను', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('లౌ', 'U'), ('ని', '|'), ('వి', '|'), ('ని', 'U'), ('త్య', 'U'), ('స్థి', '|'), ('తు', '|'), ('లా', 'U'), ('ర', '|'), ('యం', 'U'), ('గ', '|'), ('వి', '|'), ('ధి', '|'), ('దే', 'U'), ('వేం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('భూ', 'U'), ('తా', 'U'), ('ఖి', '|'), ('లో', 'U'), ('త్స', '|'), ('వ', '|'), ('భో', 'U'), ('గ', 'U'), ('స్థి', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మి', 'U'), ('థ్య', '|'), ('ల', '|'), ('వి', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>తన యుక్తి న్భవదంఘ్రిసేవగల సద్భక్తుండు పాపంబు చే-
 సినఁ బుణ్యంబగు భక్తిహీనుఁడు శ్రుతు ల్చేపట్టి పుణ్యంబు చే-
@@ -3249,32 +2994,29 @@
 డును దక్షుండును సాక్షులెన్న నగరాట్కోదండ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యు', 'U'), ('క్తి', 'U'), ('న్భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('సే', 'U'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('పా', 'U'), ('పం', 'U'), ('బు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('బు', 'U'), ('ణ్యం', 'U'), ('బ', '|'), ('గు', '|'), ('భ', 'U'), ('క్తి', '|'), ('హీ', 'U'), ('ను', '|'), ('డు', 'U'), ('శ్రు', '|'), ('తు', 'U'), ('ల్చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('బా', 'U'), ('పం', 'U'), ('బ', '|'), ('గు', '|'), ('దీ', 'U'), ('ని', '|'), ('కం', 'U'), ('త', '|'), ('టి', '|'), ('కి', '|'), ('జ', 'U'), ('ర్చిం', 'U'), ('పం', 'U'), ('గ', '|'), ('జం', 'U'), ('డే', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డు', '|'), ('ను', '|'), ('ద', 'U'), ('క్షుం', 'U'), ('డు', '|'), ('ను', '|'), ('సా', 'U'), ('క్షు', '|'), ('లె', 'U'), ('న్న', '|'), ('న', '|'), ('గ', '|'), ('రా', 'U'), ('ట్కో', 'U'), ('దం', 'U'), ('డ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>ప్రారంభించి చకోరపోతము మహీయజ్యోత్స్నయం దుత్సవ-
 శ్రీ రంజిల్లుచు వేడ్కనుండు గతి నా చిత్తంబు నీ దివ్యశృం-
@@ -3282,32 +3024,29 @@
 గౌరీలోచననర్తకీనటనరంగస్థాన సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('ప్రా', 'U'), ('రం', 'U'), ('భిం', 'U'), ('చి', '|'), ('చ', '|'), ('కో', 'U'), ('ర', '|'), ('పో', 'U'), ('త', '|'), ('ము', '|'), ('మ', '|'), ('హీ', 'U'), ('య', 'U'), ('జ్యో', 'U'), ('త్స్న', '|'), ('యం', 'U'), ('దు', 'U'), ('త్స', '|'), ('వ', 'U'), ('శ్రీ', 'U'), ('రం', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('చు', '|'), ('వే', 'U'), ('డ్క', '|'), ('నుం', 'U'), ('డు', '|'), ('గ', '|'), ('తి', '|'), ('నా', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('హ', 'U'), ('ర్ని', '|'), ('శ', '|'), ('ము', '|'), ('జొ', 'U'), ('క్కం', 'U'), ('జే', 'U'), ('య', '|'), ('వే', 'U'), ('దే', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('గౌ', 'U'), ('రీ', 'U'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('న', 'U'), ('ర్త', '|'), ('కీ', 'U'), ('న', '|'), ('ట', '|'), ('న', '|'), ('రం', 'U'), ('గ', 'U'), ('స్థా', 'U'), ('న', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>తరులం బువ్వులు పిందెలై యొదవి తత్తజ్జాతితోఁ బండ్లగున్
 హర మీ పాదపయోజపూజితములై యత్యద్భుతం బవ్విరుల్
@@ -3315,32 +3054,29 @@
 దరుణీరత్నములౌఁ బటీరతరులౌఁ దథ్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('లం', 'U'), ('బు', 'U'), ('వ్వు', '|'), ('లు', '|'), ('పిం', 'U'), ('దె', '|'), ('లై', 'U'), ('యొ', '|'), ('ద', '|'), ('వి', '|'), ('త', 'U'), ('త్త', 'U'), ('జ్జా', 'U'), ('తి', '|'), ('తో', 'U'), ('బం', 'U'), ('డ్ల', '|'), ('గున్', 'U'), ('హ', '|'), ('ర', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ప', '|'), ('యో', 'U'), ('జ', '|'), ('పూ', 'U'), ('జి', '|'), ('త', '|'), ('ము', '|'), ('లై', 'U'), ('య', 'U'), ('త్య', 'U'), ('ద్భు', '|'), ('తం', 'U'), ('బ', 'U'), ('వ్వి', '|'), ('రుల్', 'U'), ('క', '|'), ('రు', '|'), ('లౌ', 'U'), ('న', 'U'), ('శ్వ', '|'), ('ము', '|'), ('లౌ', 'U'), ('న', '|'), ('న', 'U'), ('ర్హ', '|'), ('మ', '|'), ('ణు', '|'), ('లౌ', 'U'), ('గ', 'U'), ('ర్పూ', 'U'), ('ర', '|'), ('మౌ', 'U'), ('హా', 'U'), ('ర', '|'), ('మౌ', 'U'), ('ద', '|'), ('రు', '|'), ('ణీ', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('లౌ', 'U'), ('బ', '|'), ('టీ', 'U'), ('ర', '|'), ('త', '|'), ('రు', '|'), ('లౌ', 'U'), ('ద', 'U'), ('థ్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>ఒకపుష్పంబు భవత్పదద్వయముపై నొప్పంగ సద్భక్తిరం-
 జకుఁడై పెట్టిన పుణ్యమూర్తికిఁ బునర్జన్మంబు లేదన్నఁ బా-
@@ -3348,32 +3084,29 @@
 ష్ఠికుఁడై యుండెడువాఁడు నీవగుట దాఁ జిత్రంబె సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బు', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప', '|'), ('ద', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('పై', 'U'), ('నొ', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('రం', 'U'), ('జ', '|'), ('కు', '|'), ('డై', 'U'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('కి', '|'), ('బు', '|'), ('న', 'U'), ('ర్జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('లే', 'U'), ('ద', 'U'), ('న్న', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('కా', 'U'), ('ల', 'U'), ('త్రి', '|'), ('త', '|'), ('యో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('చు', '|'), ('చో', 'U'), ('బె', 'U'), ('ద్ద', '|'), ('నై', 'U'), ('ష్ఠి', '|'), ('కు', '|'), ('డై', 'U'), ('యుం', 'U'), ('డె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('వ', '|'), ('గు', '|'), ('ట', '|'), ('దా', 'U'), ('జి', 'U'), ('త్రం', 'U'), ('బె', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>ఆనందంబును బొందునప్పుడును నత్యాశ్చర్యకార్యార్థభా-
 వానీకంబులు దోఁచునప్పుడును రోగాపాయదుఃఖాతుర-
@@ -3381,32 +3114,29 @@
 ధ్యానంబం దుదయింపుమయ్య దివిజేంద్రస్తుత్య సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('ను', '|'), ('బొం', 'U'), ('దు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', '|'), ('న', 'U'), ('త్యా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('కా', 'U'), ('ర్యా', 'U'), ('ర్థ', '|'), ('భా', 'U'), ('వా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('దో', 'U'), ('చు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', '|'), ('రో', 'U'), ('గా', 'U'), ('పా', 'U'), ('య', '|'), ('దుః', 'U'), ('ఖా', 'U'), ('తు', '|'), ('ర', 'U'), ('గ్లా', 'U'), ('నిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('న', 'U'), ('న్నీ', 'U'), ('వు', '|'), ('నా', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బం', 'U'), ('దు', '|'), ('ద', '|'), ('యిం', 'U'), ('పు', '|'), ('మ', 'U'), ('య్య', '|'), ('ది', '|'), ('వి', '|'), ('జేం', 'U'), ('ద్ర', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>నానాశాస్త్రసముచ్చయాగమపురాణప్రౌఢులై తత్త్వవి-
 జ్ఞానధ్యానసమాధివిద్య లతివిస్పష్టంబుగా నేర్చి రే
@@ -3414,32 +3144,29 @@
 ధానప్రస్ఫుటశక్తి నీ కరుణచేతం గాని సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('నా', 'U'), ('శా', 'U'), ('స్త్ర', '|'), ('స', '|'), ('ము', 'U'), ('చ్చ', '|'), ('యా', 'U'), ('గ', '|'), ('మ', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', 'U'), ('ప్రౌ', 'U'), ('ఢు', '|'), ('లై', 'U'), ('త', 'U'), ('త్త్వ', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('స', '|'), ('మా', 'U'), ('ధి', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('తి', '|'), ('వి', 'U'), ('స్ప', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('నే', 'U'), ('ర్చి', '|'), ('రే', 'U'), ('దా', 'U'), ('న', 'U'), ('న్నే', 'U'), ('ర్ప', '|'), ('రు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ర', '|'), ('రు', '|'), ('భ', '|'), ('వ', 'U'), ('త్స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('స', '|'), ('మా', 'U'), ('ధా', 'U'), ('న', 'U'), ('ప్ర', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('శ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('చే', 'U'), ('తం', 'U'), ('గా', 'U'), ('ని', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>ప్రకటింపంగ మదీయచిత్త మది దాఁ బంచేంద్రియోద్వృత్తమై
 ప్రకటప్రాప్తిని సోలుఁగాని మఱి నీ పాదాబ్జసంసేవనం-
@@ -3447,32 +3174,29 @@
 గకు దుర్గంధము గాక సహ్యమగునే కస్తూరి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('క', '|'), ('టిం', 'U'), ('పం', 'U'), ('గ', '|'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('చి', 'U'), ('త్త', '|'), ('మ', '|'), ('ది', '|'), ('దా', 'U'), ('బం', 'U'), ('చేం', 'U'), ('ద్రి', '|'), ('యో', 'U'), ('ద్వృ', 'U'), ('త్త', '|'), ('మై', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', 'U'), ('ప్రా', 'U'), ('ప్తి', '|'), ('ని', '|'), ('సో', 'U'), ('లు', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ఱి', '|'), ('నీ', 'U'), ('పా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('సం', 'U'), ('సే', 'U'), ('వ', '|'), ('నం', 'U'), ('బొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('భ', '|'), ('జి', '|'), ('యిం', 'U'), ('ప', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('దు', '|'), ('ని', '|'), ('జం', 'U'), ('బూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('గా', 'U'), ('న', 'U'), ('ట్ల', '|'), ('యీ', 'U'), ('గ', '|'), ('కు', '|'), ('దు', 'U'), ('ర్గం', 'U'), ('ధ', '|'), ('ము', '|'), ('గా', 'U'), ('క', '|'), ('స', 'U'), ('హ్య', '|'), ('మ', '|'), ('గు', '|'), ('నే', 'U'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>మలినాంగుం డగుటేమి కష్టము మనోమార్గంబు నీ భక్తిని-
 ర్మలసౌభాగ్యనిధానదీపశిఖయై రంజిల్లదే భూషణో-
@@ -3480,32 +3204,29 @@
 చలదుష్పంకముఁ బొంది పీడఁ బడఁగాఁ జర్చింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('లి', '|'), ('నాం', 'U'), ('గుం', 'U'), ('డ', '|'), ('గు', '|'), ('టే', 'U'), ('మి', '|'), ('క', 'U'), ('ష్ట', '|'), ('ము', '|'), ('మ', '|'), ('నో', 'U'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('దీ', 'U'), ('ప', '|'), ('శి', '|'), ('ఖ', '|'), ('యై', 'U'), ('రం', 'U'), ('జి', 'U'), ('ల్ల', '|'), ('దే', 'U'), ('భూ', 'U'), ('ష', '|'), ('ణో', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('దే', 'U'), ('హుం', 'U'), ('డ', '|'), ('గు', '|'), ('టే', 'U'), ('మి', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('మ', '|'), ('నో', 'U'), ('వ్యా', 'U'), ('వృ', 'U'), ('త్తి', '|'), ('దు', '|'), ('ర్మో', 'U'), ('హ', '|'), ('సం', 'U'), ('చ', '|'), ('ల', '|'), ('దు', 'U'), ('ష్పం', 'U'), ('క', '|'), ('ము', '|'), ('బొం', 'U'), ('ది', '|'), ('పీ', 'U'), ('డ', '|'), ('బ', '|'), ('డ', '|'), ('గా', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>ఇల నా చిత్తము యోగసాధనలయం దీదాడఁగాఁ గొంతని-
 శ్చలతం జేరఁగవచ్చు లేక తన వాంఛావృత్తిఁ బోనిచ్చినం
@@ -3513,32 +3234,29 @@
 వలసంబోధననేల నిల్చు ఋజువై వర్తింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('నా', 'U'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('యో', 'U'), ('గ', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ల', '|'), ('యం', 'U'), ('దీ', 'U'), ('దా', 'U'), ('డ', '|'), ('గా', 'U'), ('గొం', 'U'), ('త', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('తం', 'U'), ('జే', 'U'), ('ర', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('లే', 'U'), ('క', '|'), ('త', '|'), ('న', '|'), ('వాం', 'U'), ('ఛా', 'U'), ('వృ', 'U'), ('త్తి', '|'), ('బో', 'U'), ('ని', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('బొ', '|'), ('లు', '|'), ('పై', 'U'), ('నీ', 'U'), ('దె', '|'), ('స', '|'), ('జే', 'U'), ('ర', '|'), ('ద', 'U'), ('ట్టి', '|'), ('ద', '|'), ('క', '|'), ('టా', 'U'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('నం', 'U'), ('గా', 'U'), ('క', '|'), ('కే', 'U'), ('వ', '|'), ('ల', '|'), ('సం', 'U'), ('బో', 'U'), ('ధ', '|'), ('న', '|'), ('నే', 'U'), ('ల', '|'), ('ని', 'U'), ('ల్చు', '|'), ('ఋ', '|'), ('జు', '|'), ('వై', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>ఉదకం బింకిన లావు మాలి కడుమై యష్ణింపఁగా రొంపిలోఁ
 గదలం జాలని మీను వాన గురియం గ్రమ్మెక్కి పెన్నీటిలోఁ
@@ -3546,32 +3264,29 @@
 హృదయాబ్జంబున నిన్నుఁ గొల్వఁగనునే యింపొంద సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ద', '|'), ('కం', 'U'), ('బిం', 'U'), ('కి', '|'), ('న', '|'), ('లా', 'U'), ('వు', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('డు', '|'), ('మై', 'U'), ('య', 'U'), ('ష్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('రొం', 'U'), ('పి', '|'), ('లో', 'U'), ('గ', '|'), ('ద', '|'), ('లం', 'U'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('మీ', 'U'), ('ను', '|'), ('వా', 'U'), ('న', '|'), ('గు', '|'), ('రి', '|'), ('యం', 'U'), ('గ్ర', 'U'), ('మ్మె', 'U'), ('క్కి', '|'), ('పె', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('బొ', '|'), ('ద', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('నన్', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('బో', 'U'), ('రా', 'U'), ('డు', '|'), ('మ', 'U'), ('ర్త్యుం', 'U'), ('డు', '|'), ('దా', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('ను', '|'), ('నే', 'U'), ('యిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>భవదీయార్చన సేయుచోఁ బ్రథమపుష్పంబెన్న సత్యంబు రెం-
 డవ పుష్పంబు దయాగుణంబును విశిష్టం బేకనిష్ఠాసమో-
@@ -3579,32 +3294,29 @@
 గవిధానం బవిలేని పూజలు మదిం గైకోవు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('ర్చ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('చో', 'U'), ('బ్ర', '|'), ('థ', '|'), ('మ', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('రెం', 'U'), ('డ', '|'), ('వ', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బు', '|'), ('ద', '|'), ('యా', 'U'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('ను', '|'), ('వి', '|'), ('శి', 'U'), ('ష్టం', 'U'), ('బే', 'U'), ('క', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('స', '|'), ('మో', 'U'), ('త్స', '|'), ('వ', '|'), ('సం', 'U'), ('ప', 'U'), ('త్తి', '|'), ('తృ', '|'), ('తీ', 'U'), ('య', '|'), ('పు', 'U'), ('ష్ప', '|'), ('మ', '|'), ('ది', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తి', '|'), ('యో', 'U'), ('గ', '|'), ('వి', '|'), ('ధా', 'U'), ('నం', 'U'), ('బ', '|'), ('వి', '|'), ('లే', 'U'), ('ని', '|'), ('పూ', 'U'), ('జ', '|'), ('లు', '|'), ('మ', '|'), ('దిం', 'U'), ('గై', 'U'), ('కో', 'U'), ('వు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>అమరేంద్రాద్రి శరాసనంబు హరి దివ్యాస్త్రంబు భూమండలం-
 బమరంగా రథ మర్కచంద్రులు తదీయాంగంబులై యొప్పుఁ జి-
@@ -3612,32 +3324,29 @@
 ర్యములందైనను దా మహాఘనము నీ యత్నంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్రా', 'U'), ('ద్రి', '|'), ('శ', '|'), ('రా', 'U'), ('స', '|'), ('నం', 'U'), ('బు', '|'), ('హ', '|'), ('రి', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('భూ', 'U'), ('మం', 'U'), ('డ', '|'), ('లం', 'U'), ('బ', '|'), ('మ', '|'), ('రం', 'U'), ('గా', 'U'), ('ర', '|'), ('థ', '|'), ('మ', 'U'), ('ర్క', '|'), ('చం', 'U'), ('ద్రు', '|'), ('లు', '|'), ('త', '|'), ('దీ', 'U'), ('యాం', 'U'), ('గం', 'U'), ('బు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('జి', 'U'), ('త్ర', '|'), ('ము', '|'), ('నీ', 'U'), ('కుం', 'U'), ('బు', '|'), ('ర', '|'), ('ల', 'U'), ('క్ష్య', '|'), ('మే', 'U'), ('యు', '|'), ('నె', '|'), ('డ', '|'), ('ను', 'U'), ('ద్య', 'U'), ('ద్భా', 'U'), ('తి', '|'), ('న', 'U'), ('త్య', 'U'), ('ల్ప', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లం', 'U'), ('దై', 'U'), ('న', '|'), ('ను', '|'), ('దా', 'U'), ('మ', '|'), ('హా', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('నీ', 'U'), ('య', 'U'), ('త్నం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>దివిజేంద్రత్వముఁ బద్మజత్వము జగత్సేవ్యస్థిరానర్గళో-
 త్సవరూపంబగు కేశవత్వమును నీ సద్భక్తి సంవృద్ధిలో
@@ -3645,32 +3354,29 @@
 ర్జవసౌభాగ్యము మాన మెవ్వరికిఁ జెప్ప న్వచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('ది', '|'), ('వి', '|'), ('జేం', 'U'), ('ద్ర', 'U'), ('త్వ', '|'), ('ము', '|'), ('బ', 'U'), ('ద్మ', '|'), ('జ', 'U'), ('త్వ', '|'), ('ము', '|'), ('జ', '|'), ('గ', 'U'), ('త్సే', 'U'), ('వ్య', 'U'), ('స్థి', '|'), ('రా', 'U'), ('న', 'U'), ('ర్గ', '|'), ('ళో', 'U'), ('త్స', '|'), ('వ', '|'), ('రూ', 'U'), ('పం', 'U'), ('బ', '|'), ('గు', '|'), ('కే', 'U'), ('శ', '|'), ('వ', 'U'), ('త్వ', '|'), ('ము', '|'), ('ను', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('వృ', 'U'), ('ద్ధి', '|'), ('లో', 'U'), ('ల', '|'), ('వ', '|'), ('మా', 'U'), ('త్ర', 'U'), ('స్థి', '|'), ('తు', '|'), ('లె', 'U'), ('న్న', '|'), ('భ', 'U'), ('క్తి', '|'), ('జ', '|'), ('ని', '|'), ('తో', 'U'), ('ల్లా', 'U'), ('సా', 'U'), ('వ', '|'), ('నో', 'U'), ('ద్య', 'U'), ('త్సు', '|'), ('ఖా', 'U'), ('ర్జ', '|'), ('వ', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('జె', 'U'), ('ప్ప', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>పరమార్థంబుగ నా మనంబున భవద్భక్తిప్రభావంబు వి-
 స్తరమై పుట్టదు పుట్టినం బ్రబల దంతం గొంత వర్ధిల్లెనే
@@ -3678,32 +3384,29 @@
 స్థిరుఁడం గాన జడుండఁ గాన బకవేషిం గాన సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గ', '|'), ('నా', 'U'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('ద్భ', 'U'), ('క్తి', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('మై', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('దు', '|'), ('పు', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('బ్ర', '|'), ('బ', '|'), ('ల', '|'), ('దం', 'U'), ('తం', 'U'), ('గొం', 'U'), ('త', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లె', '|'), ('నే', 'U'), ('వి', '|'), ('ర', '|'), ('సం', 'U'), ('బై', 'U'), ('య', '|'), ('ట', '|'), ('మీ', 'U'), ('ద', '|'), ('జి', 'U'), ('క్కు', '|'), ('వ', '|'), ('డు', '|'), ('భా', 'U'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('నె', 'U'), ('ట్ల', 'U'), ('న్న', '|'), ('న', 'U'), ('స్థి', '|'), ('రు', '|'), ('డం', 'U'), ('గా', 'U'), ('న', '|'), ('జ', '|'), ('డుం', 'U'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('క', '|'), ('వే', 'U'), ('షిం', 'U'), ('గా', 'U'), ('న', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>శ్రీకంఠాయ నమోనమో నతసురజ్యేష్ఠాయ రుద్రాయ లిం-
 గాకారాయ నమోనమో విగతసంసారాయ శాంతాయ చం-
@@ -3711,32 +3414,29 @@
 న్నాకాంక్షం బ్రణుతించు మానవుఁడు నీవై యుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('కం', 'U'), ('ఠా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('త', '|'), ('సు', '|'), ('ర', 'U'), ('జ్యే', 'U'), ('ష్ఠా', 'U'), ('య', '|'), ('రు', '|'), ('ద్రా', 'U'), ('య', '|'), ('లిం', 'U'), ('గా', 'U'), ('కా', 'U'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('వి', '|'), ('గ', '|'), ('త', '|'), ('సం', 'U'), ('సా', 'U'), ('రా', 'U'), ('య', '|'), ('శాం', 'U'), ('తా', 'U'), ('య', '|'), ('చం', 'U'), ('ద్రా', 'U'), ('క', 'U'), ('ల్పా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('సం', 'U'), ('హా', 'U'), ('రా', 'U'), ('య', '|'), ('తే', 'U'), ('యం', 'U'), ('చు', '|'), ('ని', 'U'), ('న్నా', 'U'), ('కాం', 'U'), ('క్షం', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('నీ', 'U'), ('వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>భువనోత్పత్తి విధించుచో భవుఁడవై పొల్పొందఁగా దాని ను-
 త్సవలీలం బ్రభవించుచో మృడుఁడవై సర్వంబుఁ గల్పాంతభై-
@@ -3744,32 +3444,29 @@
 శివనామాంకముఁ దాల్చు నీ మహిమ దాఁ జిత్రంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('వ', '|'), ('నో', 'U'), ('త్ప', 'U'), ('త్తి', '|'), ('వి', '|'), ('ధిం', 'U'), ('చు', '|'), ('చో', 'U'), ('భ', '|'), ('వు', '|'), ('డ', '|'), ('వై', 'U'), ('పొ', 'U'), ('ల్పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('దా', 'U'), ('ని', '|'), ('ను', 'U'), ('త్స', '|'), ('వ', '|'), ('లీ', 'U'), ('లం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('చో', 'U'), ('మృ', '|'), ('డు', '|'), ('డ', '|'), ('వై', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్పాం', 'U'), ('త', '|'), ('భై', 'U'), ('ర', '|'), ('వ', '|'), ('సం', 'U'), ('క్షో', 'U'), ('భ', '|'), ('న', '|'), ('టిం', 'U'), ('చు', '|'), ('చో', 'U'), ('హ', '|'), ('రు', '|'), ('డ', '|'), ('వై', 'U'), ('త్రై', 'U'), ('గు', 'U'), ('ణ్య', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('దు', '|'), ('దిన్', 'U'), ('శి', '|'), ('వ', '|'), ('నా', 'U'), ('మాం', 'U'), ('క', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చు', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('దా', 'U'), ('జి', 'U'), ('త్రం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>కులశైలంబులు పాదు పెల్లగిలి దిక్కూలంబునం గూలినం
 జలజాతప్రియశీతభానులు యథాసంచారము ల్దప్పినం
@@ -3777,32 +3474,29 @@
 దలఁకం డుబ్బఁడు చొప్పుఁ దప్పఁడు భవద్భక్తుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('పా', 'U'), ('దు', '|'), ('పె', 'U'), ('ల్ల', '|'), ('గి', '|'), ('లి', '|'), ('ది', 'U'), ('క్కూ', 'U'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('గూ', 'U'), ('లి', '|'), ('నం', 'U'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', 'U'), ('ప్రి', '|'), ('య', '|'), ('శీ', 'U'), ('త', '|'), ('భా', 'U'), ('ను', '|'), ('లు', '|'), ('య', '|'), ('థా', 'U'), ('సం', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్ద', 'U'), ('ప్పి', '|'), ('నం', 'U'), ('జ', '|'), ('ల', '|'), ('ధు', 'U'), ('ల్మే', 'U'), ('ర', '|'), ('ల', '|'), ('నా', 'U'), ('క్ర', '|'), ('మిం', 'U'), ('చి', '|'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్భం', 'U'), ('గి', '|'), ('ను', 'U'), ('ప్పొం', 'U'), ('గి', '|'), ('నన్', 'U'), ('ద', '|'), ('ల', '|'), ('కం', 'U'), ('డు', 'U'), ('బ్బ', '|'), ('డు', '|'), ('చొ', 'U'), ('ప్పు', '|'), ('ద', 'U'), ('ప్ప', '|'), ('డు', '|'), ('భ', '|'), ('వ', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>శూలస్థాపితుఁడైన మానవునకున్ శూలంబు దుర్వారవా-
 త్యాలిం గంపము నొందకుండుట సుఖంబై తోఁచు మాడ్కిన్ భవా-
@@ -3810,32 +3504,29 @@
 స్త్రాలంకారము లించుకించుక సుఖంబై తోఁచు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('శూ', 'U'), ('ల', 'U'), ('స్థా', 'U'), ('పి', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('శూ', 'U'), ('లం', 'U'), ('బు', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('వా', 'U'), ('త్యా', 'U'), ('లిం', 'U'), ('గం', 'U'), ('ప', '|'), ('ము', '|'), ('నొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('సు', '|'), ('ఖం', 'U'), ('బై', 'U'), ('తో', 'U'), ('చు', '|'), ('మా', 'U'), ('డ్కిన్', 'U'), ('భ', '|'), ('వా', 'U'), ('భీ', 'U'), ('ల', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('ల', 'U'), ('గ్రా', 'U'), ('గు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('బిం', 'U'), ('బా', 'U'), ('ధ', '|'), ('రల్', 'U'), ('హా', 'U'), ('ర', '|'), ('వ', 'U'), ('స్త్రా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('లిం', 'U'), ('చు', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('సు', '|'), ('ఖం', 'U'), ('బై', 'U'), ('తో', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>ఆకాశానలచంద్రసూర్యపవమానాత్మాంబువిశ్వంభరా-
 ప్రాకామ్యాంచితమూర్తి భేదముల నీ బ్రహ్మాండనానాఘటా-
@@ -3843,32 +3534,29 @@
 స్తోకశ్రీకరమూర్తియై వెలుఁగు నీ స్థూలంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('కా', 'U'), ('శా', 'U'), ('న', '|'), ('ల', '|'), ('చం', 'U'), ('ద్ర', '|'), ('సూ', 'U'), ('ర్య', '|'), ('ప', '|'), ('వ', '|'), ('మా', 'U'), ('నా', 'U'), ('త్మాం', 'U'), ('బు', '|'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('రా', 'U'), ('ప్రా', 'U'), ('కా', 'U'), ('మ్యాం', 'U'), ('చి', '|'), ('త', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('నా', 'U'), ('నా', 'U'), ('ఘ', '|'), ('టా', 'U'), ('నీ', 'U'), ('క', 'U'), ('ప్రా', 'U'), ('క', '|'), ('ట', '|'), ('జీ', 'U'), ('వ', '|'), ('భా', 'U'), ('వ', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('న్ని', '|'), ('ర్మా', 'U'), ('ణ', '|'), ('క', '|'), ('ర్మా', 'U'), ('ద్భు', '|'), ('తా', 'U'), ('స్తో', 'U'), ('క', 'U'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('వె', '|'), ('లు', '|'), ('గు', '|'), ('నీ', 'U'), ('స్థూ', 'U'), ('లం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>అతివాగ్జాలమునై యజాండనిలయంబై యాదిమధ్యాంతవ-
 ర్జితమై నిర్గుణనిష్కలంకపదమై సిద్ధాంతమధ్యాత్మసం-
@@ -3876,32 +3564,29 @@
 స్తుతమై యెంచ నచింత్యమై వెలుఁగు నీ సూక్ష్మంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('వా', 'U'), ('గ్జా', 'U'), ('ల', '|'), ('ము', '|'), ('నై', 'U'), ('య', '|'), ('జాం', 'U'), ('డ', '|'), ('ని', '|'), ('ల', '|'), ('యం', 'U'), ('బై', 'U'), ('యా', 'U'), ('ది', '|'), ('మ', 'U'), ('ధ్యాం', 'U'), ('త', '|'), ('వ', 'U'), ('ర్జి', '|'), ('త', '|'), ('మై', 'U'), ('ని', 'U'), ('ర్గు', '|'), ('ణ', '|'), ('ని', 'U'), ('ష్క', '|'), ('లం', 'U'), ('క', '|'), ('ప', '|'), ('ద', '|'), ('మై', 'U'), ('సి', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('మ', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('సం', 'U'), ('యు', '|'), ('త', '|'), ('మై', 'U'), ('కో', 'U'), ('టి', '|'), ('ర', '|'), ('వి', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శ', '|'), ('యు', '|'), ('త', '|'), ('మై', 'U'), ('యోం', 'U'), ('కా', 'U'), ('ర', '|'), ('మం', 'U'), ('త్రా', 'U'), ('ది', '|'), ('సం', 'U'), ('స్తు', '|'), ('త', '|'), ('మై', 'U'), ('యెం', 'U'), ('చ', '|'), ('న', '|'), ('చిం', 'U'), ('త్య', '|'), ('మై', 'U'), ('వె', '|'), ('లు', '|'), ('గు', '|'), ('నీ', 'U'), ('సూ', 'U'), ('క్ష్మం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>అజుఁడై సృష్టి యొనర్చు రాజసముచే నందంబుగాఁ దా నధో-
 క్షజుఁడై వర్ధిలఁజేయు సాత్త్వికము సంప్రవ్యక్తిగా గోపతి-
@@ -3909,32 +3594,29 @@
 నిజవిస్ఫూర్తి వెలుంగుఁ దుర్యమగుచున్ నీ యాజ్ఞ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('జు', '|'), ('డై', 'U'), ('సృ', 'U'), ('ష్టి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('దా', 'U'), ('న', '|'), ('ధో', 'U'), ('క్ష', '|'), ('జు', '|'), ('డై', 'U'), ('వ', 'U'), ('ర్ధి', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('క', '|'), ('ము', '|'), ('సం', 'U'), ('ప్ర', 'U'), ('వ్య', 'U'), ('క్తి', '|'), ('గా', 'U'), ('గో', 'U'), ('ప', '|'), ('తి', 'U'), ('ధ్వ', '|'), ('జు', '|'), ('డై', 'U'), ('సం', 'U'), ('హృ', '|'), ('తి', '|'), ('సే', 'U'), ('యు', '|'), ('దా', 'U'), ('మ', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('ద', 'U'), ('త్స', 'U'), ('ర్వ', '|'), ('ముం', 'U'), ('గూ', 'U'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('జ', '|'), ('వి', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('దు', 'U'), ('ర్య', '|'), ('మ', '|'), ('గు', '|'), ('చున్', 'U'), ('నీ', 'U'), ('యా', 'U'), ('జ్ఞ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>సకలాధీశ్వరపట్టభద్రుఁడవు భిక్షాగామి వత్యంతశాం-
 తకళాత్ముండవు రౌద్రమూర్తి వతిసౌందర్యాంబికాసంగమా-
@@ -3942,32 +3624,29 @@
 రికిఁ దా శక్యమే నీ నిజం బరసి వర్ణింపంగ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('లా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('ప', 'U'), ('ట్ట', '|'), ('భ', '|'), ('ద్రు', '|'), ('డ', '|'), ('వు', '|'), ('భి', 'U'), ('క్షా', 'U'), ('గా', 'U'), ('మి', '|'), ('వ', 'U'), ('త్యం', 'U'), ('త', '|'), ('శాం', 'U'), ('త', '|'), ('క', '|'), ('ళా', 'U'), ('త్ముం', 'U'), ('డ', '|'), ('వు', '|'), ('రౌ', 'U'), ('ద్ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('తి', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్యాం', 'U'), ('బి', '|'), ('కా', 'U'), ('సం', 'U'), ('గ', '|'), ('మా', 'U'), ('ధి', '|'), ('క', '|'), ('లో', 'U'), ('లుం', 'U'), ('డ', '|'), ('వు', '|'), ('ది', 'U'), ('వ్య', '|'), ('యో', 'U'), ('గి', '|'), ('వి', '|'), ('మ', '|'), ('దిం', 'U'), ('దె', 'U'), ('ల్లం', 'U'), ('బు', '|'), ('గా', 'U'), ('నె', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('దా', 'U'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('నీ', 'U'), ('ని', '|'), ('జం', 'U'), ('బ', '|'), ('ర', '|'), ('సి', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>భవదుఃఖార్ణవయానపాత్రము పరబ్రహ్మంబు యోగీంద్రహృ-
 ద్భవనప్రస్ఫురితప్రదీపము నఘధ్వాంతార్కబింబం బతి-
@@ -3975,32 +3654,29 @@
 శివనామాంకము భక్తపుంగవ సదా సేవ్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దుః', 'U'), ('ఖా', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('యా', 'U'), ('న', '|'), ('పా', 'U'), ('త్ర', '|'), ('ము', '|'), ('ప', '|'), ('ర', 'U'), ('బ్ర', 'U'), ('హ్మం', 'U'), ('బు', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('హృ', 'U'), ('ద్భ', '|'), ('వ', '|'), ('న', 'U'), ('ప్ర', 'U'), ('స్ఫు', '|'), ('రి', '|'), ('త', 'U'), ('ప్ర', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('ఘ', 'U'), ('ధ్వాం', 'U'), ('తా', 'U'), ('ర్క', '|'), ('బిం', 'U'), ('బం', 'U'), ('బ', '|'), ('తి', 'U'), ('శ్ర', '|'), ('వ', '|'), ('ణా', 'U'), ('నం', 'U'), ('ద', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('గ', '|'), ('ణ', 'U'), ('స్వా', 'U'), ('ధ్యా', 'U'), ('య', '|'), ('పా', 'U'), ('ఠం', 'U'), ('బు', '|'), ('మీ', 'U'), ('శి', '|'), ('వ', '|'), ('నా', 'U'), ('మాం', 'U'), ('క', '|'), ('ము', '|'), ('భ', 'U'), ('క్త', '|'), ('పుం', 'U'), ('గ', '|'), ('వ', '|'), ('స', '|'), ('దా', 'U'), ('సే', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>అణిమాద్యష్టగుణప్రసిద్ధులు త్రిలోకారాధ్యు లుద్యద్వచో-
 మణికోటిప్రతిమప్రభాపటలు లున్మాదేంద్రియధ్వాంతభీ-
@@ -4008,32 +3684,29 @@
 క్షణదక్తుల్ వినుతింప నీ ప్రమథసంఘాతంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ణి', '|'), ('మా', 'U'), ('ద్య', 'U'), ('ష్ట', '|'), ('గు', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('లు', 'U'), ('త్రి', '|'), ('లో', 'U'), ('కా', 'U'), ('రా', 'U'), ('ధ్యు', '|'), ('లు', 'U'), ('ద్య', 'U'), ('ద్వ', '|'), ('చో', 'U'), ('మ', '|'), ('ణి', '|'), ('కో', 'U'), ('టి', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('ప', '|'), ('ట', '|'), ('లు', '|'), ('లు', 'U'), ('న్మా', 'U'), ('దేం', 'U'), ('ద్రి', '|'), ('య', 'U'), ('ధ్వాం', 'U'), ('త', '|'), ('భీ', 'U'), ('ష', '|'), ('ణ', '|'), ('దై', 'U'), ('త్యేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మ', '|'), ('హా', 'U'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తు', 'U'), ('ల్లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ద', '|'), ('క్తుల్', 'U'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థ', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>సకలాధీశ్వరులై గణాధిపతులై సర్వజ్ఞులై నిత్యులై
 యకలంకాత్మకులై మహామహిములై యంభోజగర్భాండర-
@@ -4041,32 +3714,29 @@
 ధికలీలావిధి నంతరంగముల వర్తింపంగ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('లా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లై', 'U'), ('గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('ప', '|'), ('తు', '|'), ('లై', 'U'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞు', '|'), ('లై', 'U'), ('ని', 'U'), ('త్యు', '|'), ('లై', 'U'), ('య', '|'), ('క', '|'), ('లం', 'U'), ('కా', 'U'), ('త్మ', '|'), ('కు', '|'), ('లై', 'U'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('ము', '|'), ('లై', 'U'), ('యం', 'U'), ('భో', 'U'), ('జ', '|'), ('గ', 'U'), ('ర్భాం', 'U'), ('డ', '|'), ('ర', 'U'), ('క్ష', '|'), ('కు', '|'), ('లై', 'U'), ('యుం', 'U'), ('డు', '|'), ('దు', '|'), ('రె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('రు', '|'), ('ను', '|'), ('భ', '|'), ('వ', 'U'), ('త్స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('నా', 'U'), ('నా', 'U'), ('గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('క', '|'), ('లీ', 'U'), ('లా', 'U'), ('వి', '|'), ('ధి', '|'), ('నం', 'U'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
         <is>
           <t>అమరేంద్రాబ్జభవాచ్యుతాదులకు నీ యాజ్ఞాప్రభావం బలం-
 ఘ్యము నీకు భవదీయభక్తమహదాజ్ఞాపంబు నుద్యత్ప్రభా-
@@ -4074,32 +3744,29 @@
 త్త్వముకంటెం గడుఁ జెల్లు భక్తుల మహత్త్వంబెన్న సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్రా', 'U'), ('బ్జ', '|'), ('భ', '|'), ('వా', 'U'), ('చ్యు', '|'), ('తా', 'U'), ('దు', '|'), ('ల', '|'), ('కు', '|'), ('నీ', 'U'), ('యా', 'U'), ('జ్ఞా', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బ', '|'), ('లం', 'U'), ('ఘ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('భ', 'U'), ('క్త', '|'), ('మ', '|'), ('హ', '|'), ('దా', 'U'), ('జ్ఞా', 'U'), ('పం', 'U'), ('బు', '|'), ('ను', 'U'), ('ద్య', 'U'), ('త్ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('లం', 'U'), ('ఘ్య', '|'), ('మ', '|'), ('గు', '|'), ('ట', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('కం', 'U'), ('టెం', 'U'), ('గ', '|'), ('డు', '|'), ('జె', 'U'), ('ల్లు', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>శివసాహిత్యుల సత్కరస్థలము కాశీక్షేత్రమా హస్తదే-
 శవిశాలోన్నతశాఖ లారయఁగఁ బంచక్రోశమా పాణిసం-
@@ -4107,32 +3774,29 @@
 శివలింగం బల విశ్వనాథుఁ డరయన్ సిద్ధంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('శి', '|'), ('వ', '|'), ('సా', 'U'), ('హి', 'U'), ('త్యు', '|'), ('ల', '|'), ('స', 'U'), ('త్క', '|'), ('ర', 'U'), ('స్థ', '|'), ('ల', '|'), ('ము', '|'), ('కా', 'U'), ('శీ', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('మా', 'U'), ('హ', 'U'), ('స్త', '|'), ('దే', 'U'), ('శ', '|'), ('వి', '|'), ('శా', 'U'), ('లో', 'U'), ('న్న', '|'), ('త', '|'), ('శా', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('బం', 'U'), ('చ', 'U'), ('క్రో', 'U'), ('శ', '|'), ('మా', 'U'), ('పా', 'U'), ('ణి', '|'), ('సం', 'U'), ('భ', '|'), ('వ', '|'), ('శో', 'U'), ('భా', 'U'), ('న్వి', '|'), ('త', '|'), ('చి', 'U'), ('త్ర', '|'), ('రే', 'U'), ('ఖ', '|'), ('లు', '|'), ('మ', '|'), ('హా', 'U'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('తీ', 'U'), ('ర్థ', '|'), ('ముల్', 'U'), ('శి', '|'), ('వ', '|'), ('లిం', 'U'), ('గం', 'U'), ('బ', '|'), ('ల', '|'), ('వి', 'U'), ('శ్వ', '|'), ('నా', 'U'), ('థు', '|'), ('డ', '|'), ('ర', '|'), ('యన్', 'U'), ('సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
         <is>
           <t>వరుసం బైకొనివచ్చు కర్మములు మున్వారించి మాయామల-
 జ్వరము ల్గూల్చి యపారఘోరతరసంసారాబ్ధి లంఘించి భీ-
@@ -4140,32 +3804,29 @@
 బరమవ్యోమము సొచ్చు నీ యచలసద్భక్తుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('రు', '|'), ('సం', 'U'), ('బై', 'U'), ('కొ', '|'), ('ని', '|'), ('వ', 'U'), ('చ్చు', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('న్వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('మా', 'U'), ('యా', 'U'), ('మ', '|'), ('ల', 'U'), ('జ్వ', '|'), ('ర', '|'), ('ము', 'U'), ('ల్గూ', 'U'), ('ల్చి', '|'), ('య', '|'), ('పా', 'U'), ('ర', '|'), ('ఘో', 'U'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('సం', 'U'), ('సా', 'U'), ('రా', 'U'), ('బ్ధి', '|'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('సూ', 'U'), ('క్ష్మాం', 'U'), ('గ', '|'), ('వి', '|'), ('చి', 'U'), ('త్ర', '|'), ('కం', 'U'), ('చు', '|'), ('క', '|'), ('ము', '|'), ('వీ', 'U'), ('కం', 'U'), ('బు', 'U'), ('చ్చి', '|'), ('పో', 'U'), ('వై', 'U'), ('చి', '|'), ('తా', 'U'), ('బ', '|'), ('ర', '|'), ('మ', 'U'), ('వ్యో', 'U'), ('మ', '|'), ('ము', '|'), ('సొ', 'U'), ('చ్చు', '|'), ('నీ', 'U'), ('య', '|'), ('చ', '|'), ('ల', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>పరమార్థంబగు తత్త్వమార్గమున నీ పాదాబబ్జసద్భక్తుఁ డొ-
 క్కరుఁడుం దక్క సరోజజాద్యమరసంఘాతంబులోనెల్లఁ దా
@@ -4173,32 +3834,29 @@
 స్ఫురణం గాలుఁడు దన్ను వేచి వడిఁ గొంపోనుండ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('గు', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('నీ', 'U'), ('పా', 'U'), ('దా', 'U'), ('బ', 'U'), ('బ్జ', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డొ', 'U'), ('క్క', '|'), ('రు', '|'), ('డుం', 'U'), ('ద', 'U'), ('క్క', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('జా', 'U'), ('ద్య', '|'), ('మ', '|'), ('ర', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బు', '|'), ('లో', 'U'), ('నె', 'U'), ('ల్ల', '|'), ('దా', 'U'), ('నె', '|'), ('ర', '|'), ('యం', 'U'), ('గా', 'U'), ('చి', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('రు', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్భీ', 'U'), ('తు', '|'), ('డున్', 'U'), ('లే', 'U'), ('డ', '|'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణం', 'U'), ('గా', 'U'), ('లు', '|'), ('డు', '|'), ('ద', 'U'), ('న్ను', '|'), ('వే', 'U'), ('చి', '|'), ('వ', '|'), ('డి', '|'), ('గొం', 'U'), ('పో', 'U'), ('నుం', 'U'), ('డ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
         <is>
           <t>తన చారిత్రమె సన్నుతించు గురుభక్తశ్రేణి వర్ణింపఁగాఁ
 దన చిత్తంబు భవత్పదస్మరణచేత న్నిన్ను మెప్పింపఁగా
@@ -4206,32 +3864,29 @@
 న్వినుతిం బొందిన తజ్ఞుఁ డీజగములో నీ మెచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('చా', 'U'), ('రి', 'U'), ('త్ర', '|'), ('మె', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('చు', '|'), ('గు', '|'), ('రు', '|'), ('భ', 'U'), ('క్త', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ద', '|'), ('న', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప', '|'), ('ద', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('చే', 'U'), ('త', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('న', '|'), ('ను', '|'), ('కూ', 'U'), ('ల', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', 'U'), ('త్వ', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('న', 'U'), ('భ్యం', 'U'), ('త', '|'), ('రాం', 'U'), ('గ', 'U'), ('స్థి', '|'), ('తి', 'U'), ('న్వి', '|'), ('ను', '|'), ('తిం', 'U'), ('బొం', 'U'), ('ది', '|'), ('న', '|'), ('త', 'U'), ('జ్ఞు', '|'), ('డీ', 'U'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('నీ', 'U'), ('మె', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>క్షితి నత్యుగ్రతపంబునందు జఠరాగ్నిం గాలఁగానేల మి-
 మ్మతిభక్తిస్థితిఁ బూజసేయు మహనీయ త్వంబు తాఁ జాలదే
@@ -4239,32 +3894,29 @@
 ద్భుతసౌఖ్యంబులుఁ బెంప దివ్యసుఖముం బొందింస సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('క్షి', '|'), ('తి', '|'), ('న', 'U'), ('త్యు', 'U'), ('గ్ర', '|'), ('త', '|'), ('పం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('జ', '|'), ('ఠ', '|'), ('రా', 'U'), ('గ్నిం', 'U'), ('గా', 'U'), ('ల', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('మి', 'U'), ('మ్మ', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', 'U'), ('స్థి', '|'), ('తి', '|'), ('బూ', 'U'), ('జ', '|'), ('సే', 'U'), ('యు', '|'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('య', 'U'), ('త్వం', 'U'), ('బు', '|'), ('తా', 'U'), ('జా', 'U'), ('ల', '|'), ('దే', 'U'), ('ప్ర', '|'), ('తి', '|'), ('ప', 'U'), ('క్షా', 'U'), ('లి', '|'), ('న', '|'), ('డం', 'U'), ('ప', '|'), ('రో', 'U'), ('గ', '|'), ('భ', '|'), ('య', '|'), ('దు', 'U'), ('ర్భా', 'U'), ('రం', 'U'), ('బు', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('న', 'U'), ('ద్భు', '|'), ('త', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('బెం', 'U'), ('ప', '|'), ('ది', 'U'), ('వ్య', '|'), ('సు', '|'), ('ఖ', '|'), ('ముం', 'U'), ('బొం', 'U'), ('దిం', 'U'), ('స', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
         <is>
           <t>శివవాక్యస్ఫురితాక్షరద్వయ సకృజ్జిహ్వాప్రదేశాత్ముఁడై
 భవదుఃఖాంబుధి దాఁటజూచు తఱిఁ దత్పంచాక్షరీమంత్ర ము-
@@ -4272,32 +3924,29 @@
 ర్ణవసౌభాగ్యము మానమెవ్వరికిఁ గాన న్వచ్చు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('శి', '|'), ('వ', '|'), ('వా', 'U'), ('క్య', 'U'), ('స్ఫు', '|'), ('రి', '|'), ('తా', 'U'), ('క్ష', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('స', '|'), ('కృ', 'U'), ('జ్జి', 'U'), ('హ్వా', 'U'), ('ప్ర', '|'), ('దే', 'U'), ('శా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('భ', '|'), ('వ', '|'), ('దుః', 'U'), ('ఖాం', 'U'), ('బు', '|'), ('ధి', '|'), ('దా', 'U'), ('ట', '|'), ('జూ', 'U'), ('చు', '|'), ('త', '|'), ('ఱి', '|'), ('ద', 'U'), ('త్పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('ము', 'U'), ('త్స', '|'), ('వ', '|'), ('లీ', 'U'), ('లం', 'U'), ('గ', '|'), ('డు', '|'), ('శు', 'U'), ('ద్ధు', '|'), ('డై', 'U'), ('జ', '|'), ('ప', '|'), ('ము', '|'), ('వాం', 'U'), ('ఛం', 'U'), ('జే', 'U'), ('యు', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్గు', '|'), ('ణా', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('గా', 'U'), ('న', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>ఏదేశంబున నేదిశాముఖమునం దేయూర నేవాడ మీ
 పాదాభ్యర్చన సేయు నిర్మలుఁడు సద్భక్తుం డొకండుండె నా-
@@ -4305,32 +3954,29 @@
 గాదిస్నాన నదీప్రవాహఫలదంబై యొప్పు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('ది', '|'), ('శా', 'U'), ('ము', '|'), ('ఖ', '|'), ('ము', '|'), ('నం', 'U'), ('దే', 'U'), ('యూ', 'U'), ('ర', '|'), ('నే', 'U'), ('వా', 'U'), ('డ', '|'), ('మీ', 'U'), ('పా', 'U'), ('దా', 'U'), ('భ్య', 'U'), ('ర్చ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('ని', '|'), ('ర్మ', '|'), ('లు', '|'), ('డు', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డొ', '|'), ('కం', 'U'), ('డుం', 'U'), ('డె', '|'), ('నా', 'U'), ('యా', 'U'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('ను', '|'), ('నా', 'U'), ('ది', '|'), ('శా', 'U'), ('ము', '|'), ('ఖ', '|'), ('ము', '|'), ('ను', 'U'), ('న్నా', 'U'), ('యూ', 'U'), ('రు', '|'), ('నా', 'U'), ('వా', 'U'), ('డ', '|'), ('గం', 'U'), ('గా', 'U'), ('ది', 'U'), ('స్నా', 'U'), ('న', '|'), ('న', '|'), ('దీ', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('ఫ', '|'), ('ల', '|'), ('దం', 'U'), ('బై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
         <is>
           <t>ఒనరం జిత్తము శుద్ధిలేని నరుఁ డుద్యోగంబునం గోరి చే-
 సిన పూజావిభవంబు సువ్రతములున్ శీలంబులు న్మంత్రసా-
@@ -4338,32 +3984,29 @@
 చిన శస్త్రాస్త్రకళానిభంబులగుఁ జర్చింపంగ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('న', '|'), ('రం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('లే', 'U'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('డు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('నం', 'U'), ('గో', 'U'), ('రి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('సు', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('లున్', 'U'), ('శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్మం', 'U'), ('త్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ముల్', 'U'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లుం', 'U'), ('ద', '|'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('మీ', 'U'), ('దం', 'U'), ('జె', 'U'), ('ట్ట', '|'), ('వా', 'U'), ('డ', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('శ', 'U'), ('స్త్రా', 'U'), ('స్త్ర', '|'), ('క', '|'), ('ళా', 'U'), ('ని', '|'), ('భం', 'U'), ('బు', '|'), ('ల', '|'), ('గు', '|'), ('జ', 'U'), ('ర్చిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>క్రమసంయుక్తి మనంబు బుద్ధియు నహంకారంబుఁ జిత్తంబు నా
 యమలాంతఃకరణంబు నక్షరచతుష్కావాప్తిఁ గావించి పం-
@@ -4371,32 +4014,29 @@
 సుమహామంత్రముతోడ నైక్యపదవిన్ శోభిల్లు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('క్ర', '|'), ('మ', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('యు', '|'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('జి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('య', '|'), ('మ', '|'), ('లాం', 'U'), ('తః', 'U'), ('క', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('న', 'U'), ('క్ష', '|'), ('ర', '|'), ('చ', '|'), ('తు', 'U'), ('ష్కా', 'U'), ('వా', 'U'), ('ప్తి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('పం', 'U'), ('చ', '|'), ('మ', '|'), ('వ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గ', '|'), ('నా', 'U'), ('త్మ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('క', '|'), ('డు', '|'), ('వాం', 'U'), ('ఛన్', 'U'), ('యో', 'U'), ('గి', '|'), ('పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('సు', '|'), ('మ', '|'), ('హా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నై', 'U'), ('క్య', '|'), ('ప', '|'), ('ద', '|'), ('విన్', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్లు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
         <is>
           <t>భవదీయాననపంచకంబువలనం బంచాక్షరీమంత్ర ము-
 ద్భవమై తత్పదవర్ణపద్ధతుల శుంభత్పంచభూతంబు లు-
@@ -4404,32 +4044,29 @@
 భువనాండంబులం దల్లియై సఫలతం బొందించు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('న', '|'), ('న', '|'), ('పం', 'U'), ('చ', '|'), ('కం', 'U'), ('బు', '|'), ('వ', '|'), ('ల', '|'), ('నం', 'U'), ('బం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ద్భ', '|'), ('వ', '|'), ('మై', 'U'), ('త', 'U'), ('త్ప', '|'), ('ద', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తు', '|'), ('ల', '|'), ('శుం', 'U'), ('భ', 'U'), ('త్పం', 'U'), ('చ', '|'), ('భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('లు', 'U'), ('ద్భ', '|'), ('వ', '|'), ('నం', 'U'), ('బై', 'U'), ('య', '|'), ('ఖి', '|'), ('లం', 'U'), ('బు', '|'), ('బు', 'U'), ('ట్టె', '|'), ('ను', '|'), ('ల', '|'), ('స', 'U'), ('త్పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మీ', 'U'), ('భు', '|'), ('వ', '|'), ('నాం', 'U'), ('డం', 'U'), ('బు', '|'), ('లం', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('యై', 'U'), ('స', '|'), ('ఫ', '|'), ('ల', '|'), ('తం', 'U'), ('బొం', 'U'), ('దిం', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
         <is>
           <t>పటుశాస్త్రాగమదృష్టి నివ్విధమునన్ భావించి వీక్షించి యు-
 ద్భటవృత్తిన్ భవదీయభక్తినికరబ్రహ్మాండకుండైన నా-
@@ -4437,32 +4074,29 @@
 స్ఫుటకోపానలమూర్తియై యముఁడు గొంపోకుండ సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('టు', '|'), ('శా', 'U'), ('స్త్రా', 'U'), ('గ', '|'), ('మ', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('ని', 'U'), ('వ్వి', '|'), ('ధ', '|'), ('ము', '|'), ('నన్', 'U'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('యు', 'U'), ('ద్భ', '|'), ('ట', '|'), ('వృ', '|'), ('త్తిన్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('క', '|'), ('ర', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('కుం', 'U'), ('డై', 'U'), ('న', '|'), ('నా', 'U'), ('ద', '|'), ('ట', '|'), ('లో', 'U'), ('గా', 'U'), ('చు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వి', '|'), ('ది', '|'), ('తో', 'U'), ('ద్దం', 'U'), ('డ', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('పో', 'U'), ('త్క', '|'), ('ట', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('య', '|'), ('ము', '|'), ('డు', '|'), ('గొం', 'U'), ('పో', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
         <is>
           <t>కలవారై మతిమంతులై రసికులై గంభీరులై ధీరులై
 లలనామన్మథులై సముజ్జ్వలవచోలాలిత్యులై నిత్యులై
@@ -4470,32 +4104,29 @@
 తొలిజన్మంబుల మిముఁ గొల్చిన మహాత్ముల్ వారు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('వా', 'U'), ('రై', 'U'), ('మ', '|'), ('తి', '|'), ('మం', 'U'), ('తు', '|'), ('లై', 'U'), ('ర', '|'), ('సి', '|'), ('కు', '|'), ('లై', 'U'), ('గం', 'U'), ('భీ', 'U'), ('రు', '|'), ('లై', 'U'), ('ధీ', 'U'), ('రు', '|'), ('లై', 'U'), ('ల', '|'), ('ల', '|'), ('నా', 'U'), ('మ', 'U'), ('న్మ', '|'), ('థు', '|'), ('లై', 'U'), ('స', '|'), ('ము', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('వ', '|'), ('చో', 'U'), ('లా', 'U'), ('లి', 'U'), ('త్యు', '|'), ('లై', 'U'), ('ని', 'U'), ('త్యు', '|'), ('లై', 'U'), ('బ', '|'), ('ల', '|'), ('వి', 'U'), ('భ్రా', 'U'), ('జి', '|'), ('తు', '|'), ('లై', 'U'), ('య', '|'), ('శో', 'U'), ('భ', '|'), ('రి', '|'), ('తు', '|'), ('లై', 'U'), ('భా', 'U'), ('సి', 'U'), ('ల్లు', '|'), ('భా', 'U'), ('గ్యో', 'U'), ('ద', '|'), ('యుల్', 'U'), ('తొ', '|'), ('లి', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('మి', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ముల్', 'U'), ('వా', 'U'), ('రు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
         <is>
           <t>ఖలులై యాచకులై విరుద్ధవికటాకారాంగులై పంగులై
 బలహీనాతురులై రుజాపటలతాపచ్ఛన్నులై ఖిన్నులై
@@ -4503,32 +4134,29 @@
 తొలిజన్మంబున మిమ్ముఁ గొల్వని దురాత్ముల్ వారు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
           <t>[('ఖ', '|'), ('లు', '|'), ('లై', 'U'), ('యా', 'U'), ('చ', '|'), ('కు', '|'), ('లై', 'U'), ('వి', '|'), ('రు', 'U'), ('ద్ధ', '|'), ('వి', '|'), ('క', '|'), ('టా', 'U'), ('కా', 'U'), ('రాం', 'U'), ('గు', '|'), ('లై', 'U'), ('పం', 'U'), ('గు', '|'), ('లై', 'U'), ('బ', '|'), ('ల', '|'), ('హీ', 'U'), ('నా', 'U'), ('తు', '|'), ('రు', '|'), ('లై', 'U'), ('రు', '|'), ('జా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('తా', 'U'), ('ప', 'U'), ('చ్ఛ', 'U'), ('న్ను', '|'), ('లై', 'U'), ('ఖి', 'U'), ('న్ను', '|'), ('లై', 'U'), ('చ', '|'), ('ల', '|'), ('నాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('త', '|'), ('చి', 'U'), ('త్తు', '|'), ('లై', 'U'), ('మ', '|'), ('లి', '|'), ('ను', '|'), ('లై', 'U'), ('జా', 'U'), ('త్యం', 'U'), ('ధు', '|'), ('లై', 'U'), ('మం', 'U'), ('దు', '|'), ('లై', 'U'), ('తొ', '|'), ('లి', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('దు', '|'), ('రా', 'U'), ('త్ముల్', 'U'), ('వా', 'U'), ('రు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
         <is>
           <t>ఏయేవేళల నేవయస్సున నరుం డేభూమి నేయూరిలో
 నేయేకర్మము నాచరించు నశుభంబేని న్శుభంబేని దా
@@ -4536,32 +4164,29 @@
 నాయాకర్మములెల్లఁ దాఁ గుడుచుఁ దథ్యంబింత సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('యే', 'U'), ('వే', 'U'), ('ళ', '|'), ('ల', '|'), ('నే', 'U'), ('వ', '|'), ('య', 'U'), ('స్సు', '|'), ('న', '|'), ('న', '|'), ('రుం', 'U'), ('డే', 'U'), ('భూ', 'U'), ('మి', '|'), ('నే', 'U'), ('యూ', 'U'), ('రి', '|'), ('లో', 'U'), ('నే', 'U'), ('యే', 'U'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('నా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('న', '|'), ('శు', '|'), ('భం', 'U'), ('బే', 'U'), ('ని', 'U'), ('న్శు', '|'), ('భం', 'U'), ('బే', 'U'), ('ని', '|'), ('దా', 'U'), ('నా', 'U'), ('యా', 'U'), ('వే', 'U'), ('ళ', '|'), ('ల', '|'), ('నా', 'U'), ('వ', '|'), ('య', 'U'), ('స్సు', '|'), ('న', '|'), ('న', '|'), ('రుం', 'U'), ('డా', 'U'), ('భూ', 'U'), ('మి', '|'), ('నా', 'U'), ('యూ', 'U'), ('రి', '|'), ('లో', 'U'), ('నా', 'U'), ('యా', 'U'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('దా', 'U'), ('గు', '|'), ('డు', '|'), ('చు', '|'), ('ద', 'U'), ('థ్యం', 'U'), ('బిం', 'U'), ('త', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
         <is>
           <t>ఆడంబోయినచోట బాలురు వినోదార్థంబు పాషాణముల్
 గూడంబెట్టి శివాలయంబనుచుఁ బేర్కొన్నంతటం జేసి వా-
@@ -4569,32 +4194,29 @@
 క్రీడాశైలవిహారులౌదురు మిముం గీర్తింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('డం', 'U'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('చో', 'U'), ('ట', '|'), ('బా', 'U'), ('లు', '|'), ('రు', '|'), ('వి', '|'), ('నో', 'U'), ('దా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('పా', 'U'), ('షా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('గూ', 'U'), ('డం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('శి', '|'), ('వా', 'U'), ('ల', '|'), ('యం', 'U'), ('బ', '|'), ('ను', '|'), ('చు', '|'), ('బే', 'U'), ('ర్కొ', 'U'), ('న్నం', 'U'), ('త', '|'), ('టం', 'U'), ('జే', 'U'), ('సి', '|'), ('వా', 'U'), ('రా', 'U'), ('డం', 'U'), ('బో', 'U'), ('యి', '|'), ('సు', '|'), ('రాం', 'U'), ('గ', '|'), ('నా', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('రా', 'U'), ('మ', '|'), ('చిం', 'U'), ('తా', 'U'), ('మ', '|'), ('ణి', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('శై', 'U'), ('ల', '|'), ('వి', '|'), ('హా', 'U'), ('రు', '|'), ('లౌ', 'U'), ('దు', '|'), ('రు', '|'), ('మి', '|'), ('ముం', 'U'), ('గీ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
         <is>
           <t>సమయోద్దిష్టసహస్రపంకరుహపూజాపూరణార్థంబు నే-
 త్రము విష్ణుండు సుభక్తి యేర్పడ భవత్పాదంబు లర్చించి చ-
@@ -4602,32 +4224,29 @@
 క్షమతాసేవ సమస్తదేవతలకు న్సత్త్వంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('మ', '|'), ('యో', 'U'), ('ద్ది', 'U'), ('ష్ట', '|'), ('స', '|'), ('హ', 'U'), ('స్ర', '|'), ('పం', 'U'), ('క', '|'), ('రు', '|'), ('హ', '|'), ('పూ', 'U'), ('జా', 'U'), ('పూ', 'U'), ('ర', '|'), ('ణా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('నే', 'U'), ('త్ర', '|'), ('ము', '|'), ('వి', 'U'), ('ష్ణుం', 'U'), ('డు', '|'), ('సు', '|'), ('భ', 'U'), ('క్తి', '|'), ('యే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('భ', '|'), ('వ', 'U'), ('త్పా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', 'U'), ('ర్చిం', 'U'), ('చి', '|'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('దా', 'U'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('దై', 'U'), ('త్య', '|'), ('కో', 'U'), ('టి', '|'), ('న', '|'), ('ని', '|'), ('లో', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చె', '|'), ('దా', 'U'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('క్ష', '|'), ('మ', '|'), ('తా', 'U'), ('సే', 'U'), ('వ', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('కు', 'U'), ('న్స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
         <is>
           <t>అమర న్వేదపురాణశాస్త్రములు మున్నాకాంక్షఁ దత్త్వప్రభే-
 దము రూపింపఁగ నేరవన్న మఱి యా తత్త్వంబులెట్లన్న ను-
@@ -4635,32 +4254,29 @@
 త్తమపూజారతి నేర్చునే నతఁడు తత్త్వజ్ఞుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('ర', 'U'), ('న్వే', 'U'), ('ద', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('న్నా', 'U'), ('కాం', 'U'), ('క్ష', '|'), ('ద', 'U'), ('త్త్వ', 'U'), ('ప్ర', '|'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('రూ', 'U'), ('పిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('వ', 'U'), ('న్న', '|'), ('మ', '|'), ('ఱి', '|'), ('యా', 'U'), ('త', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('లె', 'U'), ('ట్ల', 'U'), ('న్న', '|'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మె', '|'), ('కో', 'U'), ('రు', '|'), ('న', 'U'), ('న్న', '|'), ('న', '|'), ('రు', '|'), ('డు', 'U'), ('త్సా', 'U'), ('హిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్త', '|'), ('స', 'U'), ('త్త', '|'), ('మ', '|'), ('పూ', 'U'), ('జా', 'U'), ('ర', '|'), ('తి', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('న', '|'), ('త', '|'), ('డు', '|'), ('త', 'U'), ('త్త్వ', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
         <is>
           <t>అమితోద్యద్భవదీయతత్త్వము మహీయస్తోత్రవాణీవిలా-
 సములై యొప్పు సమస్తవేదములు శాస్త్రశ్రేణియున్ దివ్యవి-
@@ -4668,32 +4284,29 @@
 వములైయుండు సమస్తలక్షణముల న్వర్ణింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మి', '|'), ('తో', 'U'), ('ద్య', 'U'), ('ద్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('మ', '|'), ('హీ', 'U'), ('య', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('వా', 'U'), ('ణీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('శా', 'U'), ('స్త్ర', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('యున్', 'U'), ('ది', 'U'), ('వ్య', '|'), ('వి', 'U'), ('భ్ర', '|'), ('మ', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('నె', 'U'), ('న్ని', '|'), ('చూ', 'U'), ('డ', '|'), ('ని', '|'), ('వి', '|'), ('నీ', 'U'), ('పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('లై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('ల', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
         <is>
           <t>సంకీర్ణాకలితాక్షరత్రయము భాస్వన్నాదబిందుక్రమా-
 లంకారద్వితయంబుతోఁ గలిసి లీలన్ దివ్యయోగీంద్రహృ-
@@ -4701,32 +4314,29 @@
 య్యోంకారాత్మకమౌ లసన్మునిగణం బూహింప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('కీ', 'U'), ('ర్ణా', 'U'), ('క', '|'), ('లి', '|'), ('తా', 'U'), ('క్ష', '|'), ('ర', 'U'), ('త్ర', '|'), ('య', '|'), ('ము', '|'), ('భా', 'U'), ('స్వ', 'U'), ('న్నా', 'U'), ('ద', '|'), ('బిం', 'U'), ('దు', 'U'), ('క్ర', '|'), ('మా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', 'U'), ('ద్వి', '|'), ('త', '|'), ('యం', 'U'), ('బు', '|'), ('తో', 'U'), ('గ', '|'), ('లి', '|'), ('సి', '|'), ('లీ', 'U'), ('లన్', 'U'), ('ది', 'U'), ('వ్య', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('హృ', 'U'), ('త్పం', 'U'), ('కో', 'U'), ('ద్భూ', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('రూ', 'U'), ('ఢ', '|'), ('మ', '|'), ('గు', '|'), ('చుం', 'U'), ('బం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మ', 'U'), ('య్యోం', 'U'), ('కా', 'U'), ('రా', 'U'), ('త్మ', '|'), ('క', '|'), ('మౌ', 'U'), ('ల', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('గ', '|'), ('ణం', 'U'), ('బూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
         <is>
           <t>అమలజ్ఞానవిభాసభాసురత నయ్యష్టాంగపూజావిధి
 క్రమయోగంబుల నిన్ను నెల్లపుడు జోకం గొల్వగానేల ని-
@@ -4734,32 +4344,29 @@
 ఖములెల్లం బెడవాప నిన్ను వెలయంగాఁ జూప సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('ల', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', '|'), ('భా', 'U'), ('స', '|'), ('భా', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('న', 'U'), ('య్య', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('ధి', 'U'), ('క్ర', '|'), ('మ', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', 'U'), ('న్ను', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('జో', 'U'), ('కం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('చా', 'U'), ('లు', '|'), ('గ', '|'), ('డు', '|'), ('వీ', 'U'), ('కన్', 'U'), ('ఘో', 'U'), ('ర', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్లం', 'U'), ('బె', '|'), ('డ', '|'), ('వా', 'U'), ('ప', '|'), ('ని', 'U'), ('న్ను', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('జూ', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
         <is>
           <t>పరమార్థంబుగఁ దత్త్వము న్నెఱుఁగ నొప్పందీర్చి డెందంబు నీ
 కరుణాస్థానముఁ జేర్పలేక తన వంకం బోవఁగానిచ్చిరే
@@ -4767,32 +4374,29 @@
 బరయం జిత్తము శూకలాశ్వము విభంబై యుండు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గ', '|'), ('ద', 'U'), ('త్త్వ', '|'), ('ము', 'U'), ('న్నె', '|'), ('ఱు', '|'), ('గ', '|'), ('నొ', 'U'), ('ప్పం', 'U'), ('దీ', 'U'), ('ర్చి', '|'), ('డెం', 'U'), ('దం', 'U'), ('బు', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('ర్ప', '|'), ('లే', 'U'), ('క', '|'), ('త', '|'), ('న', '|'), ('వం', 'U'), ('కం', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('ని', 'U'), ('చ్చి', '|'), ('రే', 'U'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('బ్ధిం', 'U'), ('బ', '|'), ('డ', '|'), ('వై', 'U'), ('చు', '|'), ('ద', 'U'), ('త్క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('లో', 'U'), ('నం', 'U'), ('గా', 'U'), ('న', '|'), ('ద', 'U'), ('త్త్వ', 'U'), ('క్ష', '|'), ('మం', 'U'), ('బ', '|'), ('ర', '|'), ('యం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('శూ', 'U'), ('క', '|'), ('లా', 'U'), ('శ్వ', '|'), ('ము', '|'), ('వి', '|'), ('భం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
         <is>
           <t>భవదంఘ్రిద్వితయార్చనంబును బవత్ప్రఖ్యాతసద్భక్తపుం-
 గవగోష్ఠీవిభవంబులు న్విమలసూక్ష్మధ్యానయోగంబు నా
@@ -4800,32 +4404,29 @@
 త్సవసంబంధములెల్ల దుఃస్థితులు తథ్యంబెన్న సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', 'U'), ('ద్వి', '|'), ('త', '|'), ('యా', 'U'), ('ర్చ', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('బ', '|'), ('వ', 'U'), ('త్ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('పుం', 'U'), ('గ', '|'), ('వ', '|'), ('గో', 'U'), ('ష్ఠీ', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్వి', '|'), ('మ', '|'), ('ల', '|'), ('సూ', 'U'), ('క్ష్మ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('నా', 'U'), ('ని', '|'), ('వి', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('లె', 'U'), ('న్న', '|'), ('మ', '|'), ('ఱి', '|'), ('దే', 'U'), ('వేం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('భో', 'U'), ('గం', 'U'), ('బు', '|'), ('లు', 'U'), ('త్స', '|'), ('వ', '|'), ('సం', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('దుః', 'U'), ('స్థి', '|'), ('తు', '|'), ('లు', '|'), ('త', 'U'), ('థ్యం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
         <is>
           <t>తమ లింగార్చనకంటె జంగమము సౌందర్యంబుగాఁ గొల్చు టు-
 త్తమభక్తిస్థితి లింగజంగమల సత్సామ్యంబుగాఁ జేఁత మ-
@@ -4833,32 +4434,29 @@
 క్షముఁడై యుండుట భక్తియం దది కనిష్ఠత్వంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మ', '|'), ('లిం', 'U'), ('గా', 'U'), ('ర్చ', '|'), ('న', '|'), ('కం', 'U'), ('టె', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('ము', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('గొ', 'U'), ('ల్చు', '|'), ('టు', 'U'), ('త్త', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', 'U'), ('స్థి', '|'), ('తి', '|'), ('లిం', 'U'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('స', 'U'), ('త్సా', 'U'), ('మ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('త', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', 'U'), ('స్థి', '|'), ('తి', '|'), ('లిం', 'U'), ('గ', '|'), ('పూ', 'U'), ('జ', '|'), ('న', '|'), ('ధి', '|'), ('కుం', 'U'), ('డై', 'U'), ('జం', 'U'), ('గ', '|'), ('మో', 'U'), ('పా', 'U'), ('స', '|'), ('నా', 'U'), ('క్ష', '|'), ('ము', '|'), ('డై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ట', '|'), ('భ', 'U'), ('క్తి', '|'), ('యం', 'U'), ('ద', '|'), ('ది', '|'), ('క', '|'), ('ని', 'U'), ('ష్ఠ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
         <is>
           <t>కరఢక్కారవవాద్య మింపొదవ గంగాతుంగరంగత్తరం-
 గరవప్రస్ఫుటతాళసమ్మిళిత తత్కంజాతపుంజస్ఫుర-
@@ -4866,32 +4464,29 @@
 బిరవై యుండఁగ నీదు తాండవమహం బేపారు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('ఢ', 'U'), ('క్కా', 'U'), ('ర', '|'), ('వ', '|'), ('వా', 'U'), ('ద్య', '|'), ('మిం', 'U'), ('పొ', '|'), ('ద', '|'), ('వ', '|'), ('గం', 'U'), ('గా', 'U'), ('తుం', 'U'), ('గ', '|'), ('రం', 'U'), ('గ', 'U'), ('త్త', '|'), ('రం', 'U'), ('గ', '|'), ('ర', '|'), ('వ', 'U'), ('ప్ర', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('తా', 'U'), ('ళ', '|'), ('స', 'U'), ('మ్మి', '|'), ('ళి', '|'), ('త', '|'), ('త', 'U'), ('త్కం', 'U'), ('జా', 'U'), ('త', '|'), ('పుం', 'U'), ('జ', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ద్వ', '|'), ('ర', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('ధ', '|'), ('య', '|'), ('మం', 'U'), ('ద', '|'), ('ర', 'U'), ('ధ్వ', '|'), ('ను', '|'), ('లు', '|'), ('గీ', 'U'), ('తం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('తౌ', 'U'), ('ర్య', 'U'), ('త్రి', '|'), ('కం', 'U'), ('బి', '|'), ('ర', '|'), ('వై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('నీ', 'U'), ('దు', '|'), ('తాం', 'U'), ('డ', '|'), ('వ', '|'), ('మ', '|'), ('హం', 'U'), ('బే', 'U'), ('పా', 'U'), ('రు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
         <is>
           <t>అజరుద్రాదులు మిమ్మెఱింగి నుతిసేయన్లేరు నేనెంతవాఁ-
 డ జగద్రక్షణదక్ష నిన్నుఁ గొనియాడ న్నీస్వభావంబు దా-
@@ -4899,32 +4494,29 @@
 ద జడుండంచు నిరాకరింపకఁ బ్రసన్నంబౌట సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('జ', '|'), ('రు', '|'), ('ద్రా', 'U'), ('దు', '|'), ('లు', '|'), ('మి', 'U'), ('మ్మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('ను', '|'), ('తి', '|'), ('సే', 'U'), ('య', 'U'), ('న్లే', 'U'), ('రు', '|'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('డ', '|'), ('జ', '|'), ('గ', '|'), ('ద్ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ద', 'U'), ('క్ష', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', 'U'), ('న్నీ', 'U'), ('స్వ', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('దా', 'U'), ('స', '|'), ('జ', '|'), ('నా', 'U'), ('ను', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ని', 'U'), ('శ్చి', '|'), ('తం', 'U'), ('బ', '|'), ('గు', '|'), ('ట', '|'), ('నా', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('సా', 'U'), ('ఫ', 'U'), ('ల్య', '|'), ('మం', 'U'), ('ద', '|'), ('జ', '|'), ('డుం', 'U'), ('డం', 'U'), ('చు', '|'), ('ని', '|'), ('రా', 'U'), ('క', '|'), ('రిం', 'U'), ('ప', '|'), ('క', 'U'), ('బ్ర', '|'), ('స', 'U'), ('న్నం', 'U'), ('బౌ', 'U'), ('ట', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
         <is>
           <t>బాలుం డాడెడు మాటలెల్ల నుపమింపం దండ్రికి బ్రౌఢభా-
 వాలాపంబులకంటె మించుగతి నే నజ్ఞానభావంబునం-
@@ -4932,32 +4524,29 @@
 లాలిత్యస్తుతికంటెఁ గైకొనుఁగదా శ్లాఘ్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('లుం', 'U'), ('డా', 'U'), ('డె', '|'), ('డు', '|'), ('మా', 'U'), ('ట', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('ప', '|'), ('మిం', 'U'), ('పం', 'U'), ('దం', 'U'), ('డ్రి', '|'), ('కి', 'U'), ('బ్రౌ', 'U'), ('ఢ', '|'), ('భా', 'U'), ('వా', 'U'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('కం', 'U'), ('టె', '|'), ('మిం', 'U'), ('చు', '|'), ('గ', '|'), ('తి', '|'), ('నే', 'U'), ('న', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నం', 'U'), ('దా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('చి', '|'), ('ర', '|'), ('చిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('కృ', '|'), ('తి', '|'), ('యిం', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('లా', 'U'), ('లి', 'U'), ('త్య', 'U'), ('స్తు', '|'), ('తి', '|'), ('కం', 'U'), ('టె', '|'), ('గై', 'U'), ('కొ', '|'), ('ను', '|'), ('గ', '|'), ('దా', 'U'), ('శ్లా', 'U'), ('ఘ్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
         <is>
           <t>అభిరమ్యంబుగ దూదికొండ మహనీయారాధ్య సోమేశ్వర-
 ప్రభు కారుణ్యవసంతసంజనిత మద్వాక్యప్రసూనావళి-
@@ -4965,32 +4554,29 @@
 ప్రభవంబైన భవత్పదద్వయము నారాధింతు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('భి', '|'), ('ర', 'U'), ('మ్యం', 'U'), ('బు', '|'), ('గ', '|'), ('దూ', 'U'), ('ది', '|'), ('కొం', 'U'), ('డ', '|'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('యా', 'U'), ('రా', 'U'), ('ధ్య', '|'), ('సో', 'U'), ('మే', 'U'), ('శ్వ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('భు', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('సం', 'U'), ('జ', '|'), ('ని', '|'), ('త', '|'), ('మ', 'U'), ('ద్వా', 'U'), ('క్య', 'U'), ('ప్ర', '|'), ('సూ', 'U'), ('నా', 'U'), ('వ', '|'), ('ళి', 'U'), ('న్వి', '|'), ('భ', '|'), ('వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('యెం', 'U'), ('త', '|'), ('యు', '|'), ('ల', '|'), ('స', 'U'), ('ద్వి', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('సం', 'U'), ('ప', 'U'), ('త్సు', '|'), ('ఖ', 'U'), ('ప్ర', '|'), ('భ', '|'), ('వం', 'U'), ('బై', 'U'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప', '|'), ('ద', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('తు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
         <is>
           <t>ధాత్రి న్భక్తజనానురంజనముగాఁ దత్త్వప్రకాశంబుగాఁ
 జిత్రార్థాంచితశబ్దబంధురముగా సేవ్యంబుగా సజ్జన-
@@ -4998,32 +4584,29 @@
 స్తోత్రం బన్నయ చెప్పె నిజ్జగములో శోభిల్ల సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
           <t>[('ధా', 'U'), ('త్రి', 'U'), ('న్భ', 'U'), ('క్త', '|'), ('జ', '|'), ('నా', 'U'), ('ను', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('ద', 'U'), ('త్త్వ', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('జి', 'U'), ('త్రా', 'U'), ('ర్థాం', 'U'), ('చి', '|'), ('త', '|'), ('శ', 'U'), ('బ్ద', '|'), ('బం', 'U'), ('ధు', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('సే', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('స', 'U'), ('జ్జ', '|'), ('న', 'U'), ('శ్రో', 'U'), ('త్రా', 'U'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('గా', 'U'), ('శు', '|'), ('భాం', 'U'), ('చి', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('ర', 'U'), ('స్తో', 'U'), ('త్రం', 'U'), ('బ', 'U'), ('న్న', '|'), ('య', '|'), ('చె', 'U'), ('ప్పె', '|'), ('ని', 'U'), ('జ్జ', '|'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
         <is>
           <t>శాకాబ్దంబులు వార్ధిషట్కపురజిత్సంఖ్యం బ్రవర్తింప సు-
 శ్లోకానందకరంబుగా మహిమతో శోభిల్ల సర్వేశ్వర-
@@ -5031,32 +4614,29 @@
 శ్రీకంఠార్పితమై వసుంధరపయిం జెన్నొంద సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
           <t>[('శా', 'U'), ('కా', 'U'), ('బ్దం', 'U'), ('బు', '|'), ('లు', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('ష', 'U'), ('ట్క', '|'), ('పు', '|'), ('ర', '|'), ('జి', 'U'), ('త్సం', 'U'), ('ఖ్యం', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('సు', 'U'), ('శ్లో', 'U'), ('కా', 'U'), ('నం', 'U'), ('ద', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('తో', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('ర', 'U'), ('ప్రా', 'U'), ('కా', 'U'), ('మ్య', 'U'), ('స్త', '|'), ('వ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('జె', 'U'), ('ప్పె', '|'), ('శు', '|'), ('భ', '|'), ('కృ', 'U'), ('త్ప్ర', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('వ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('నన్', 'U'), ('శ్రీ', 'U'), ('కం', 'U'), ('ఠా', 'U'), ('ర్పి', '|'), ('త', '|'), ('మై', 'U'), ('వ', '|'), ('సుం', 'U'), ('ధ', '|'), ('ర', '|'), ('ప', '|'), ('యిం', 'U'), ('జె', 'U'), ('న్నొం', 'U'), ('ద', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
         <is>
           <t>అరిషడ్వర్గబలంబులో మలసి మాయావృత్తి నాయం దతి-
 స్ఫురణం జేసినవాఁడు మోహుఁ డతనిన్ బోఁద్రోచి నీ భక్తితో
@@ -5064,32 +4644,29 @@
 శ్వరుఁడై యుండఁగదయ్య రౌప్యకుధరవ్యాపార సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('మ', '|'), ('ల', '|'), ('సి', '|'), ('మా', 'U'), ('యా', 'U'), ('వృ', 'U'), ('త్తి', '|'), ('నా', 'U'), ('యం', 'U'), ('ద', '|'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('మో', 'U'), ('హు', '|'), ('డ', '|'), ('త', '|'), ('నిన్', 'U'), ('బో', 'U'), ('ద్రో', 'U'), ('చి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('జే', 'U'), ('సి', '|'), ('నె', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('చి', '|'), ('నా', 'U'), ('యం', 'U'), ('ద', '|'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('రౌ', 'U'), ('ప్య', '|'), ('కు', '|'), ('ధ', '|'), ('ర', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
         <is>
           <t>అమలామ్నాయవిధిప్రబోధము లసంఖ్యాతంబులై యుండు నా-
 గమమార్గోత్తమమంత్రతంత్రము లసంఖ్యాతంబులై యుండుఁ ద-
@@ -5097,32 +4674,29 @@
 గమునం గొల్చి జయింపఁ జేయు మిదె మత్కామ్యంబు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('లా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('వి', '|'), ('ధి', 'U'), ('ప్ర', '|'), ('బో', 'U'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్యా', 'U'), ('తం', 'U'), ('బు', '|'), ('లై', 'U'), ('యుం', 'U'), ('డు', '|'), ('నా', 'U'), ('గ', '|'), ('మ', '|'), ('మా', 'U'), ('ర్గో', 'U'), ('త్త', '|'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్యా', 'U'), ('తం', 'U'), ('బు', '|'), ('లై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ద', 'U'), ('త్క్ర', '|'), ('మ', '|'), ('ము', 'U'), ('ల్నా', 'U'), ('క', '|'), ('వి', '|'), ('యే', 'U'), ('ల', '|'), ('నీ', 'U'), ('వు', '|'), ('మె', '|'), ('ఱ', '|'), ('యం', 'U'), ('గా', 'U'), ('ని', 'U'), ('న్ను', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('నం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('జ', '|'), ('యిం', 'U'), ('ప', '|'), ('జే', 'U'), ('యు', '|'), ('మి', '|'), ('దె', '|'), ('మ', 'U'), ('త్కా', 'U'), ('మ్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
         <is>
           <t>కానీ దారసమన్వితుండు మిగులం గానీఁడు కందర్పునిన్
 గోనీ మానవకోటిలో మరులు పైకోనీఁడు మోహంబునున్
@@ -5130,32 +4704,29 @@
 లో నీవైన మహాత్ముఁ డన్యమునకున్ బోనీఁడు సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('నీ', 'U'), ('దా', 'U'), ('ర', '|'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('తుం', 'U'), ('డు', '|'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('గా', 'U'), ('నీ', 'U'), ('డు', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్పు', '|'), ('నిన్', 'U'), ('గో', 'U'), ('నీ', 'U'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('కో', 'U'), ('టి', '|'), ('లో', 'U'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('పై', 'U'), ('కో', 'U'), ('నీ', 'U'), ('డు', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('నున్', 'U'), ('రా', 'U'), ('నీ', 'U'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('రా', 'U'), ('జ్య', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('పై', 'U'), ('రా', 'U'), ('నీ', 'U'), ('డు', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నున్', 'U'), ('లో', 'U'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('బో', 'U'), ('నీ', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
         <is>
           <t>ఏ నిన్నే శరణందు బాంధవులు గానీ యెల్లవారుం బగే
 కానీ మృత్యువు తలక్రిందువడనీ కాలుండు గీవెట్టనీ
@@ -5163,32 +4734,29 @@
 తే నీ చాటున దాఁగియున్నపుడు బీతే యింక సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('ని', 'U'), ('న్నే', 'U'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('దు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వు', '|'), ('లు', '|'), ('గా', 'U'), ('నీ', 'U'), ('యె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('రుం', 'U'), ('బ', '|'), ('గే', 'U'), ('కా', 'U'), ('నీ', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('త', '|'), ('ల', 'U'), ('క్రిం', 'U'), ('దు', '|'), ('వ', '|'), ('డ', '|'), ('నీ', 'U'), ('కా', 'U'), ('లుం', 'U'), ('డు', '|'), ('గీ', 'U'), ('వె', 'U'), ('ట్ట', '|'), ('నీ', 'U'), ('నా', 'U'), ('నా', 'U'), ('క', '|'), ('ర్మ', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('గిం', 'U'), ('జు', '|'), ('కొ', '|'), ('న', '|'), ('నీ', 'U'), ('నా', 'U'), ('కే', 'U'), ('మి', '|'), ('నే', 'U'), ('రా', 'U'), ('జ', '|'), ('నిం', 'U'), ('తే', 'U'), ('నీ', 'U'), ('చా', 'U'), ('టు', '|'), ('న', '|'), ('దా', 'U'), ('గి', '|'), ('యు', 'U'), ('న్న', '|'), ('పు', '|'), ('డు', '|'), ('బీ', 'U'), ('తే', 'U'), ('యిం', 'U'), ('క', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
         <is>
           <t>జయశక్తిన్ రవిచంద్రతారకముగాఁ జల్పెన్ యథావాక్కులా-
 న్వయసంజాతుఁడు నన్నమార్యుఁ డవని న్వర్ణించి నీ సత్కథా-
@@ -5196,17 +4764,17 @@
 భయవిభ్రాంతులు లేక యీ శతకముం బ్రఖ్యాతి సర్వేశ్వరా!</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sarveswara</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
-        <is>
-          <t>sarveswara</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
         <is>
           <t>[('జ', '|'), ('య', '|'), ('శ', '|'), ('క్తిన్', 'U'), ('ర', '|'), ('వి', '|'), ('చం', 'U'), ('ద్ర', '|'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('ల్పెన్', 'U'), ('య', '|'), ('థా', 'U'), ('వా', 'U'), ('క్కు', '|'), ('లా', 'U'), ('న్వ', '|'), ('య', '|'), ('సం', 'U'), ('జా', 'U'), ('తు', '|'), ('డు', '|'), ('న', 'U'), ('న్న', '|'), ('మా', 'U'), ('ర్యు', '|'), ('డ', '|'), ('వ', '|'), ('ని', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క్రి', '|'), ('య', '|'), ('సం', 'U'), ('బో', 'U'), ('ధ', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్ణీ', 'U'), ('త', '|'), ('వి', 'U'), ('శ్రాం', 'U'), ('తి', '|'), ('గా', 'U'), ('భ', '|'), ('య', '|'), ('వి', 'U'), ('భ్రాం', 'U'), ('తు', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('యీ', 'U'), ('శ', '|'), ('త', '|'), ('క', '|'), ('ముం', 'U'), ('బ్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>

--- a/dataset/lg/sarveswara.xlsx
+++ b/dataset/lg/sarveswara.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('న', '|'), ('వి', 'U'), ('ఘ్నే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('మా', 'U'), ('తృ', '|'), ('కా', 'U'), ('ద్రు', '|'), ('హి', '|'), ('ణ', '|'), ('బ్రా', 'U'), ('హ్మీ', 'U'), ('స్కం', 'U'), ('ద', '|'), ('దు', 'U'), ('ర్గా', 'U'), ('ర', '|'), ('మా', 'U'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('భై', 'U'), ('ర', '|'), ('వుల్', 'U'), ('బ', '|'), ('లి', '|'), ('సి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('క', '|'), ('ని', '|'), ('శం', 'U'), ('బుం', 'U'), ('బ', '|'), ('రి', '|'), ('వా', 'U'), ('ర', '|'), ('భృ', 'U'), ('త్య', '|'), ('ని', '|'), ('క', '|'), ('రం', 'U'), ('బై', 'U'), ('ర', 'U'), ('న్న', '|'), ('ని', 'U'), ('న్నిం', 'U'), ('కం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('వా', 'U'), ('రె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('జాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఇ', '|'), ('న', '|'), ('వి', 'U'), ('ఘ్నే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('మా', 'U'), ('తృ', '|'), ('కా', 'U'), ('ద్రు', '|'), ('హి', '|'), ('ణ', '|'), ('బ్రా', 'U'), ('హ్మీ', 'U'), ('స్కం', 'U'), ('ద', '|'), ('దు', 'U'), ('ర్గా', 'U'), ('ర', '|'), ('మా', 'U'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('భై', 'U'), ('ర', '|'), ('వు', 'U'), ('ల్బ', '|'), ('లి', '|'), ('సి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('క', '|'), ('ని', '|'), ('శం', 'U'), ('బుం', 'U'), ('బ', '|'), ('రి', '|'), ('వా', 'U'), ('ర', '|'), ('భృ', 'U'), ('త్య', '|'), ('ని', '|'), ('క', '|'), ('రం', 'U'), ('బై', 'U'), ('ర', 'U'), ('న్న', '|'), ('ని', 'U'), ('న్నిం', 'U'), ('కం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('వా', 'U'), ('రె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('జాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('జ్ఞా', 'U'), ('న', 'U'), ('జ్యో', 'U'), ('తి', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('మా', 'U'), ('ణ', '|'), ('ము', '|'), ('గ', '|'), ('నో', 'U'), ('జన్', 'U'), ('వి', 'U'), ('ష్ణు', '|'), ('వి', 'U'), ('ధ్యా', 'U'), ('ది', '|'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('కా', 'U'), ('త్మ', '|'), ('ద', '|'), ('శా', 'U'), ('వ', '|'), ('ళిం', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('నీ', 'U'), ('వా', 'U'), ('రం', 'U'), ('గ', '|'), ('వా', 'U'), ('రిం', 'U'), ('గ', '|'), ('ళా', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ప్రౌ', 'U'), ('ఢు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('టన్', 'U'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('గా', 'U'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞ', '|'), ('శ', 'U'), ('బ్దం', 'U'), ('బు', '|'), ('దా', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మాం', 'U'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('వి', '|'), ('ధిం', 'U'), ('చు', '|'), ('ని', '|'), ('గ', '|'), ('మా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('జ్ఞా', 'U'), ('న', 'U'), ('జ్యో', 'U'), ('తి', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('మా', 'U'), ('ణ', '|'), ('ము', '|'), ('గ', '|'), ('నో', 'U'), ('జ', 'U'), ('న్వి', 'U'), ('ష్ణు', '|'), ('వి', 'U'), ('ధ్యా', 'U'), ('ది', '|'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('కా', 'U'), ('త్మ', '|'), ('ద', '|'), ('శా', 'U'), ('వ', '|'), ('ళిం', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('నీ', 'U'), ('వా', 'U'), ('రం', 'U'), ('గ', '|'), ('వా', 'U'), ('రిం', 'U'), ('గ', '|'), ('ళా', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ప్రౌ', 'U'), ('ఢు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('ట', 'U'), ('న్వె', '|'), ('ల', '|'), ('య', '|'), ('గా', 'U'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞ', '|'), ('శ', 'U'), ('బ్దం', 'U'), ('బు', '|'), ('దా', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మాం', 'U'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('వి', '|'), ('ధిం', 'U'), ('చు', '|'), ('ని', '|'), ('గ', '|'), ('మా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('ర', '|'), ('ల', 'U'), ('న్మ', 'U'), ('ర్త్య', '|'), ('స', '|'), ('మూ', 'U'), ('హి', '|'), ('గా', 'U'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('లన్', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్లు', '|'), ('బృం', 'U'), ('దా', 'U'), ('ర', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ముం', 'U'), ('గా', 'U'), ('ఘ', '|'), ('ను', '|'), ('న', 'U'), ('ల్పు', '|'), ('న', 'U'), ('ల్పు', '|'), ('ని', '|'), ('ఘ', '|'), ('నుం', 'U'), ('గా', 'U'), ('బు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('పా', 'U'), ('లి', '|'), ('చే', 'U'), ('ది', '|'), ('రు', '|'), ('గ', 'U'), ('న్వై', 'U'), ('చు', '|'), ('చు', '|'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ప్రీ', 'U'), ('తిం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('జుం', 'U'), ('డం', 'U'), ('బు', '|'), ('నం', 'U'), ('ద', '|'), ('ర', '|'), ('యన్', 'U'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('నిం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('నా', 'U'), ('డిం', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('సు', '|'), ('ర', '|'), ('ల', 'U'), ('న్మ', 'U'), ('ర్త్య', '|'), ('స', '|'), ('మూ', 'U'), ('హి', '|'), ('గా', 'U'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ల', 'U'), ('న్శో', 'U'), ('భి', 'U'), ('ల్లు', '|'), ('బృం', 'U'), ('దా', 'U'), ('ర', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('ముం', 'U'), ('గా', 'U'), ('ఘ', '|'), ('ను', '|'), ('న', 'U'), ('ల్పు', '|'), ('న', 'U'), ('ల్పు', '|'), ('ని', '|'), ('ఘ', '|'), ('నుం', 'U'), ('గా', 'U'), ('బు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('పా', 'U'), ('లి', '|'), ('చే', 'U'), ('ది', '|'), ('రు', '|'), ('గ', 'U'), ('న్వై', 'U'), ('చు', '|'), ('చు', '|'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ప్రీ', 'U'), ('తిం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('జుం', 'U'), ('డం', 'U'), ('బు', '|'), ('నం', 'U'), ('ద', '|'), ('ర', '|'), ('య', 'U'), ('న్జీ', 'U'), ('వు', '|'), ('ల', '|'), ('నిం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('నా', 'U'), ('డిం', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('లు', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('గూ', 'U'), ('డ', '|'), ('బ', 'U'), ('డ్డ', '|'), ('భ', '|'), ('వ', '|'), ('శుం', 'U'), ('భ', 'U'), ('ద్ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ష్క', 'U'), ('ర్మ', '|'), ('రా', 'U'), ('సు', '|'), ('లు', '|'), ('పై', 'U'), ('గూ', 'U'), ('లి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('జీ', 'U'), ('వు', '|'), ('లు', '|'), ('వె', '|'), ('సన్', 'U'), ('శో', 'U'), ('షిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్బె', 'U'), ('ద్ద', '|'), ('దు', 'U'), ('ర్బ', '|'), ('లు', '|'), ('రై', 'U'), ('చి', 'U'), ('క్కి', '|'), ('న', '|'), ('ద', 'U'), ('ద్భ', '|'), ('వా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్థం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బ', 'U'), ('ద్మో', 'U'), ('ద్భ', '|'), ('వ', '|'), ('ప్ర', '|'), ('ళ', '|'), ('యం', 'U'), ('బొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('మా', 'U'), ('టు', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('తు', '|'), ('దిన్', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('లు', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('గూ', 'U'), ('డ', '|'), ('బ', 'U'), ('డ్డ', '|'), ('భ', '|'), ('వ', '|'), ('శుం', 'U'), ('భ', 'U'), ('ద్ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ష్క', 'U'), ('ర్మ', '|'), ('రా', 'U'), ('సు', '|'), ('లు', '|'), ('పై', 'U'), ('గూ', 'U'), ('లి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('జీ', 'U'), ('వు', '|'), ('లు', '|'), ('వె', '|'), ('స', 'U'), ('న్శో', 'U'), ('షిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్బె', 'U'), ('ద్ద', '|'), ('దు', 'U'), ('ర్బ', '|'), ('లు', '|'), ('రై', 'U'), ('చి', 'U'), ('క్కి', '|'), ('న', '|'), ('ద', 'U'), ('ద్భ', '|'), ('వా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్థం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బ', 'U'), ('ద్మో', 'U'), ('ద్భ', '|'), ('వ', '|'), ('ప్ర', '|'), ('ళ', '|'), ('యం', 'U'), ('బొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('మా', 'U'), ('టు', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('తు', '|'), ('ది', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రం', 'U'), ('గా', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('భ', 'U'), ('క్తి', '|'), ('నా', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('భా', 'U'), ('షాం', 'U'), ('గ', '|'), ('క్రి', '|'), ('యాం', 'U'), ('గా', 'U'), ('భి', '|'), ('ర', 'U'), ('మ్య', '|'), ('ము', '|'), ('గా', 'U'), ('జూ', 'U'), ('పి', '|'), ('న', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మీ', 'U'), ('రి', '|'), ('ల', '|'), ('బ', '|'), ('లే', 'U'), ('య', 'U'), ('న్నం', 'U'), ('త', '|'), ('కున్', 'U'), ('యో', 'U'), ('ని', '|'), ('గే', 'U'), ('హ', '|'), ('ము', '|'), ('లన్', 'U'), ('రూ', 'U'), ('పు', '|'), ('లు', '|'), ('వ', 'U'), ('న్ను', '|'), ('కొం', 'U'), ('చు', '|'), ('ను', '|'), ('న', '|'), ('టుం', 'U'), ('డై', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('నం', 'U'), ('బ', '|'), ('హు', '|'), ('రూ', 'U'), ('ప', '|'), ('మా', 'U'), ('డు', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('జీ', 'U'), ('వి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రం', 'U'), ('గా', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('భ', 'U'), ('క్తి', '|'), ('నా', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('భా', 'U'), ('షాం', 'U'), ('గ', '|'), ('క్రి', '|'), ('యాం', 'U'), ('గా', 'U'), ('భి', '|'), ('ర', 'U'), ('మ్య', '|'), ('ము', '|'), ('గా', 'U'), ('జూ', 'U'), ('పి', '|'), ('న', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మీ', 'U'), ('రి', '|'), ('ల', '|'), ('బ', '|'), ('లే', 'U'), ('య', 'U'), ('న్నం', 'U'), ('త', '|'), ('కు', 'U'), ('న్యో', 'U'), ('ని', '|'), ('గే', 'U'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('న్రూ', 'U'), ('పు', '|'), ('లు', '|'), ('వ', 'U'), ('న్ను', '|'), ('కొం', 'U'), ('చు', '|'), ('ను', '|'), ('న', '|'), ('టుం', 'U'), ('డై', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('నం', 'U'), ('బ', '|'), ('హు', '|'), ('రూ', 'U'), ('ప', '|'), ('మా', 'U'), ('డు', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('జీ', 'U'), ('వి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ల', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('పా', 'U'), ('ద', '|'), ('ధూ', 'U'), ('ళి', '|'), ('ప', '|'), ('ట', '|'), ('లం', 'U'), ('బే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('ఫా', 'U'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('జి', '|'), ('లు', '|'), ('కు', 'U'), ('న్వా', 'U'), ('డ', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', '|'), ('నా', 'U'), ('థు', '|'), ('డ', '|'), ('ని', '|'), ('నన్', 'U'), ('సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('వా', 'U'), ('రి', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('హ', 'U'), ('స్తా', 'U'), ('ర్పి', '|'), ('త', '|'), ('భూ', 'U'), ('తి', '|'), ('బ్రీ', 'U'), ('తి', '|'), ('నొ', '|'), ('స', '|'), ('లా', 'U'), ('రం', 'U'), ('బూ', 'U'), ('యు', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సి', '|'), ('కిన్', 'U'), ('ఫ', '|'), ('ల', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('వి', '|'), ('ధిం', 'U'), ('చి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('జె', 'U'), ('ప్ప', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఇ', '|'), ('ల', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('పా', 'U'), ('ద', '|'), ('ధూ', 'U'), ('ళి', '|'), ('ప', '|'), ('ట', '|'), ('లం', 'U'), ('బే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('ఫా', 'U'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('జి', '|'), ('లు', '|'), ('కు', 'U'), ('న్వా', 'U'), ('డ', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', '|'), ('నా', 'U'), ('థు', '|'), ('డ', '|'), ('ని', '|'), ('న', 'U'), ('న్సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('వా', 'U'), ('రి', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('హ', 'U'), ('స్తా', 'U'), ('ర్పి', '|'), ('త', '|'), ('భూ', 'U'), ('తి', '|'), ('బ్రీ', 'U'), ('తి', '|'), ('నొ', '|'), ('స', '|'), ('లా', 'U'), ('రం', 'U'), ('బూ', 'U'), ('యు', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సి', '|'), ('కిన్', 'U'), ('ఫ', '|'), ('ల', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('వి', '|'), ('ధిం', 'U'), ('చి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('జె', 'U'), ('ప్ప', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('లు', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('ల', '|'), ('గ్రుం', 'U'), ('కు', '|'), ('కం', 'U'), ('టె', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('భ', 'U'), ('క్తాం', 'U'), ('ఘ్రి', '|'), ('పా', 'U'), ('నీ', 'U'), ('య', '|'), ('ముల్', 'U'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('దం', 'U'), ('జి', '|'), ('లి', '|'), ('కిం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('శు', '|'), ('చి', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బా', 'U'), ('డ', '|'), ('భా', 'U'), ('రం', 'U'), ('బు', '|'), ('త', 'U'), ('త్ఫ', '|'), ('ల', '|'), ('మ', 'U'), ('త్య', 'U'), ('ల్ప', '|'), ('ము', '|'), ('భ', 'U'), ('క్త', '|'), ('పా', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళాం', 'U'), ('భః', 'U'), ('స్ప', 'U'), ('ర్శ', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('ర', '|'), ('మై', 'U'), ('య', '|'), ('ల', '|'), ('రున్', 'U'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('భు', 'U'), ('క్తి', '|'), ('ము', 'U'), ('క్తి', '|'), ('ఫ', '|'), ('ల', '|'), ('దం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('లు', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('ల', '|'), ('గ్రుం', 'U'), ('కు', '|'), ('కం', 'U'), ('టె', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('భ', 'U'), ('క్తాం', 'U'), ('ఘ్రి', '|'), ('పా', 'U'), ('నీ', 'U'), ('య', '|'), ('ముల్', 'U'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('దం', 'U'), ('జి', '|'), ('లి', '|'), ('కిం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('శు', '|'), ('చి', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బా', 'U'), ('డ', '|'), ('భా', 'U'), ('రం', 'U'), ('బు', '|'), ('త', 'U'), ('త్ఫ', '|'), ('ల', '|'), ('మ', 'U'), ('త్య', 'U'), ('ల్ప', '|'), ('ము', '|'), ('భ', 'U'), ('క్త', '|'), ('పా', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళాం', 'U'), ('భః', 'U'), ('స్ప', 'U'), ('ర్శ', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('ర', '|'), ('మై', 'U'), ('య', '|'), ('ల', '|'), ('రు', 'U'), ('న్శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('భు', 'U'), ('క్తి', '|'), ('ము', 'U'), ('క్తి', '|'), ('ఫ', '|'), ('ల', '|'), ('దం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('మ', '|'), ('ణన్', 'U'), ('భ', 'U'), ('క్త', '|'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('ము', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('త', 'U'), ('ద్గో', 'U'), ('ష్ఠి', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('త', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ము', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('ని', 'U'), ('ట్టి', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('తీ', 'U'), ('ర్థాం', 'U'), ('బు', '|'), ('ధి', '|'), ('నో', 'U'), ('ల', '|'), ('లా', 'U'), ('డ', '|'), ('క', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('భ్ర', 'U'), ('ష్టు', '|'), ('లై', 'U'), ('పో', 'U'), ('యి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లో', 'U'), ('దీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నే', 'U'), ('ఱు', '|'), ('లు', '|'), ('సొ', '|'), ('జం', 'U'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ర', '|'), ('మ', '|'), ('ణ', 'U'), ('న్భ', 'U'), ('క్త', '|'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('ము', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('త', 'U'), ('ద్గో', 'U'), ('ష్ఠి', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('త', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ము', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('ని', 'U'), ('ట్టి', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('తీ', 'U'), ('ర్థాం', 'U'), ('బు', '|'), ('ధి', '|'), ('నో', 'U'), ('ల', '|'), ('లా', 'U'), ('డ', '|'), ('క', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('భ్ర', 'U'), ('ష్టు', '|'), ('లై', 'U'), ('పో', 'U'), ('యి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లో', 'U'), ('దీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నే', 'U'), ('ఱు', '|'), ('లు', '|'), ('సొ', '|'), ('జం', 'U'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ని', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కం', 'U'), ('త', '|'), ('నం', 'U'), ('త', '|'), ('గ', '|'), ('డు', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('హృ', 'U'), ('త్ప్ర', '|'), ('ణా', 'U'), ('మం', 'U'), ('బు', '|'), ('సే', 'U'), ('సి', '|'), ('న', '|'), ('మా', 'U'), ('త్రం', 'U'), ('జె', '|'), ('డు', '|'), ('స', 'U'), ('ర్వ', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('త', 'U'), ('చ్ఛ్రీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్ము', 'U'), ('ట్టి', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('స', 'U'), ('ర్వాం', 'U'), ('గ', '|'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('య', '|'), ('గు', '|'), ('భ', 'U'), ('క్తిన్', 'U'), ('వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('ద్వ', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ఘ', '|'), ('న', '|'), ('శ్రీ', 'U'), ('లొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క', '|'), ('ని', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కం', 'U'), ('త', '|'), ('నం', 'U'), ('త', '|'), ('గ', '|'), ('డు', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్హృ', 'U'), ('త్ప్ర', '|'), ('ణా', 'U'), ('మం', 'U'), ('బు', '|'), ('సే', 'U'), ('సి', '|'), ('న', '|'), ('మా', 'U'), ('త్రం', 'U'), ('జె', '|'), ('డు', '|'), ('స', 'U'), ('ర్వ', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('త', 'U'), ('చ్ఛ్రీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్ము', 'U'), ('ట్టి', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('స', 'U'), ('ర్వాం', 'U'), ('గ', '|'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('య', '|'), ('గు', '|'), ('భ', 'U'), ('క్తి', 'U'), ('న్వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('ద్వ', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ఘ', '|'), ('న', '|'), ('శ్రీ', 'U'), ('లొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రన్', 'U'), ('భ', 'U'), ('క్త', '|'), ('గ', '|'), ('ణా', 'U'), ('త్మ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('ము', '|'), ('లిం', 'U'), ('గా', 'U'), ('వా', 'U'), ('స', '|'), ('మీ', 'U'), ('లిం', 'U'), ('గ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('ముం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ని', '|'), ('ల', '|'), ('యం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ట', '|'), ('భ', 'U'), ('క్త', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('మ', '|'), ('హా', 'U'), ('లిం', 'U'), ('గ', '|'), ('ము', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('యై', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ను', 'U'), ('ద్దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('ద', 'U'), ('ల్లిం', 'U'), ('గ', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('ను', '|'), ('దృ', 'U'), ('ప్తిం', 'U'), ('బొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('ర', 'U'), ('న్భ', 'U'), ('క్త', '|'), ('గ', '|'), ('ణా', 'U'), ('త్మ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('ము', '|'), ('లిం', 'U'), ('గా', 'U'), ('వా', 'U'), ('స', '|'), ('మీ', 'U'), ('లిం', 'U'), ('గ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('ముం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ని', '|'), ('ల', '|'), ('యం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ట', '|'), ('భ', 'U'), ('క్త', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('మ', '|'), ('హా', 'U'), ('లిం', 'U'), ('గ', '|'), ('ము', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('యై', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ను', 'U'), ('ద్దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('ద', 'U'), ('ల్లిం', 'U'), ('గ', '|'), ('తృ', 'U'), ('ప్తి', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('ను', '|'), ('దృ', 'U'), ('ప్తిం', 'U'), ('బొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ను', '|'), ('రా', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('యన్', 'U'), ('జొ', 'U'), ('క్కు', '|'), ('గాం', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('సే', 'U'), ('యం', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('చు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('వి', '|'), ('రి', '|'), ('యన్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('శో', 'U'), ('షిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('దన్', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చు', '|'), ('ద', 'U'), ('న్ను', '|'), ('మ', '|'), ('ఱ', '|'), ('చుం', 'U'), ('దా', 'U'), ('నీ', 'U'), ('ద', '|'), ('శా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('లం', 'U'), ('ద', '|'), ('న', '|'), ('రం', 'U'), ('గా', 'U'), ('మ', '|'), ('ది', '|'), ('ని', 'U'), ('న్ను', '|'), ('డ', 'U'), ('క్క', '|'), ('గొ', '|'), ('ను', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('ను', '|'), ('రా', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', 'U'), ('న్జొ', 'U'), ('క్కు', '|'), ('గాం', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('సే', 'U'), ('యం', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('చు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('వి', '|'), ('రి', '|'), ('య', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('శో', 'U'), ('షిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('ద', 'U'), ('న్ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చు', '|'), ('ద', 'U'), ('న్ను', '|'), ('మ', '|'), ('ఱ', '|'), ('చుం', 'U'), ('దా', 'U'), ('నీ', 'U'), ('ద', '|'), ('శా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('లం', 'U'), ('ద', '|'), ('న', '|'), ('రం', 'U'), ('గా', 'U'), ('మ', '|'), ('ది', '|'), ('ని', 'U'), ('న్ను', '|'), ('డ', 'U'), ('క్క', '|'), ('గొ', '|'), ('ను', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('ఎ', '|'), ('ల', '|'), ('మిన్', 'U'), ('భ', 'U'), ('క్తు', '|'), ('డు', '|'), ('వ', '|'), ('క్రు', '|'), ('డై', 'U'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('నే', 'U'), ('నే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('దా', 'U'), ('ని', '|'), ('కిం', 'U'), ('గ', '|'), ('లు', '|'), ('షిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ల', '|'), ('హిం', 'U'), ('ప', '|'), ('గిం', 'U'), ('కి', '|'), ('రి', '|'), ('ప', '|'), ('డం', 'U'), ('గా', 'U'), ('దె', 'U'), ('ట్టి', '|'), ('చో', 'U'), ('నై', 'U'), ('న', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('గం', 'U'), ('గా', 'U'), ('పృ', '|'), ('థు', '|'), ('ల', '|'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('మ', '|'), ('ర', '|'), ('యం', 'U'), ('బ్ర', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('దా', 'U'), ('నె', 'U'), ('న్ని', '|'), ('వం', 'U'), ('క', '|'), ('లు', '|'), ('గా', 'U'), ('బా', 'U'), ('ఱి', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('నొం', 'U'), ('డు', '|'), ('వ', '|'), ('లు', '|'), ('కం', 'U'), ('గా', 'U'), ('జ', 'U'), ('న్నె', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఎ', '|'), ('ల', '|'), ('మి', 'U'), ('న్భ', 'U'), ('క్తు', '|'), ('డు', '|'), ('వ', '|'), ('క్రు', '|'), ('డై', 'U'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('నే', 'U'), ('నే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('దా', 'U'), ('ని', '|'), ('కిం', 'U'), ('గ', '|'), ('లు', '|'), ('షిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ల', '|'), ('హిం', 'U'), ('ప', '|'), ('గిం', 'U'), ('కి', '|'), ('రి', '|'), ('ప', '|'), ('డం', 'U'), ('గా', 'U'), ('దె', 'U'), ('ట్టి', '|'), ('చో', 'U'), ('నై', 'U'), ('న', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('గం', 'U'), ('గా', 'U'), ('పృ', '|'), ('థు', '|'), ('ల', '|'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('మ', '|'), ('ర', '|'), ('యం', 'U'), ('బ్ర', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('దా', 'U'), ('నె', 'U'), ('న్ని', '|'), ('వం', 'U'), ('క', '|'), ('లు', '|'), ('గా', 'U'), ('బా', 'U'), ('ఱి', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('నొం', 'U'), ('డు', '|'), ('వ', '|'), ('లు', '|'), ('కం', 'U'), ('గా', 'U'), ('జ', 'U'), ('న్నె', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('భ', '|'), ('వ', '|'), ('ద', 'U'), ('భ్య', 'U'), ('ర్చ', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('లన్', 'U'), ('భ', '|'), ('వు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', 'U'), ('ద్భ్రాం', 'U'), ('తు', '|'), ('లన్', 'U'), ('దీ', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లన్', 'U'), ('వి', 'U'), ('ద్వి', '|'), ('షు', '|'), ('లన్', 'U'), ('భ', '|'), ('వా', 'U'), ('తు', '|'), ('రు', '|'), ('ల', '|'), ('స', 'U'), ('న్మా', 'U'), ('నిం', 'U'), ('చు', '|'), ('టల్', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('వి', '|'), ('హా', 'U'), ('రే', 'U'), ('చ్ఛ', '|'), ('లు', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చు', '|'), ('చో', 'U'), ('భు', '|'), ('వి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('వి', '|'), ('ర', '|'), ('స', '|'), ('ము', 'U'), ('ల్వు', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('భ', '|'), ('వ', '|'), ('ద', 'U'), ('భ్య', 'U'), ('ర్చ', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('ల', 'U'), ('న్భ', '|'), ('వు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', 'U'), ('ద్భ్రాం', 'U'), ('తు', '|'), ('ల', 'U'), ('న్దీ', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', 'U'), ('న్వి', 'U'), ('ద్వి', '|'), ('షు', '|'), ('ల', 'U'), ('న్భ', '|'), ('వా', 'U'), ('తు', '|'), ('రు', '|'), ('ల', '|'), ('స', 'U'), ('న్మా', 'U'), ('నిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ల్సౌ', 'U'), ('ఖ్య', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('వి', '|'), ('హా', 'U'), ('రే', 'U'), ('చ్ఛ', '|'), ('లు', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మూ', 'U'), ('హిం', 'U'), ('చు', '|'), ('చో', 'U'), ('భు', '|'), ('వి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('వి', '|'), ('ర', '|'), ('స', '|'), ('ము', 'U'), ('ల్వు', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('రు', '|'), ('ణం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('రే', 'U'), ('ని', '|'), ('రౌ', 'U'), ('ర', '|'), ('వ', '|'), ('ప', '|'), ('ద', '|'), ('గ్ర', 'U'), ('స్తా', 'U'), ('త్తు', '|'), ('దే', 'U'), ('వేం', 'U'), ('ద్రు', '|'), ('గా', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('జే', 'U'), ('యు', '|'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('న', '|'), ('లి', '|'), ('గి', '|'), ('రే', 'U'), ('బ', 'U'), ('ర్జ', 'U'), ('న్యు', '|'), ('నా', 'U'), ('రౌ', 'U'), ('ర', '|'), ('వో', 'U'), ('త్క', '|'), ('ర', '|'), ('పం', 'U'), ('క', '|'), ('ప్ర', '|'), ('వి', '|'), ('లీ', 'U'), ('న', '|'), ('కీ', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('చో', 'U'), ('న', '|'), ('ర', '|'), ('యన్', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('శ', 'U'), ('క్తి', '|'), ('యె', 'U'), ('ట్లు', '|'), ('గు', '|'), ('ఱి', '|'), ('సే', 'U'), ('య', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క', '|'), ('రు', '|'), ('ణం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('రే', 'U'), ('ని', '|'), ('రౌ', 'U'), ('ర', '|'), ('వ', '|'), ('ప', '|'), ('ద', '|'), ('గ్ర', 'U'), ('స్తా', 'U'), ('త్తు', '|'), ('దే', 'U'), ('వేం', 'U'), ('ద్రు', '|'), ('గా', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('జే', 'U'), ('యు', '|'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('న', '|'), ('లి', '|'), ('గి', '|'), ('రే', 'U'), ('బ', 'U'), ('ర్జ', 'U'), ('న్యు', '|'), ('నా', 'U'), ('రౌ', 'U'), ('ర', '|'), ('వో', 'U'), ('త్క', '|'), ('ర', '|'), ('పం', 'U'), ('క', '|'), ('ప్ర', '|'), ('వి', '|'), ('లీ', 'U'), ('న', '|'), ('కీ', 'U'), ('ట', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('తు', '|'), ('ర', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('చో', 'U'), ('న', '|'), ('ర', '|'), ('య', 'U'), ('న్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('శ', 'U'), ('క్తి', '|'), ('యె', 'U'), ('ట్లు', '|'), ('గు', '|'), ('ఱి', '|'), ('సే', 'U'), ('య', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('మ', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('దృ', '|'), ('ణీ', 'U'), ('క', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్తే', 'U'), ('జు', '|'), ('లై', 'U'), ('మీ', 'U'), ('ది', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లం', 'U'), ('దున్', 'U'), ('జ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('య', '|'), ('చ', '|'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('లం', 'U'), ('జూ', 'U'), ('చి', '|'), ('నె', 'U'), ('య్య', '|'), ('ము', '|'), ('నం', 'U'), ('దా', 'U'), ('రు', '|'), ('ను', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('ము', '|'), ('నం', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('గ', '|'), ('వాం', 'U'), ('ఛ', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('ర', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('త', '|'), ('మ', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('దృ', '|'), ('ణీ', 'U'), ('క', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్తే', 'U'), ('జు', '|'), ('లై', 'U'), ('మీ', 'U'), ('ది', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లం', 'U'), ('దు', 'U'), ('న్జ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('య', '|'), ('చ', '|'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('లం', 'U'), ('జూ', 'U'), ('చి', '|'), ('నె', 'U'), ('య్య', '|'), ('ము', '|'), ('నం', 'U'), ('దా', 'U'), ('రు', '|'), ('ను', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('ము', '|'), ('నం', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('గ', '|'), ('వాం', 'U'), ('ఛ', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('ర', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రన్', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('వ', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ట', 'U'), ('న్వా', 'U'), ('రి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('వా', 'U'), ('రి', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('యు', '|'), ('స', '|'), ('మ', '|'), ('గ్రం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('కూ', 'U'), ('ర్మి', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('రౌ', 'U'), ('ద్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('దా', 'U'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('వా', 'U'), ('క్య', '|'), ('ని', 'U'), ('ర్ణ', '|'), ('య', '|'), ('ము', '|'), ('నీ', 'U'), ('వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('ర', 'U'), ('న్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('వ', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ట', 'U'), ('న్వా', 'U'), ('రి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('వా', 'U'), ('రి', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('యు', '|'), ('స', '|'), ('మ', '|'), ('గ్రం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('కూ', 'U'), ('ర్మి', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('రౌ', 'U'), ('ద్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('దా', 'U'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('వా', 'U'), ('క్య', '|'), ('ని', 'U'), ('ర్ణ', '|'), ('య', '|'), ('ము', '|'), ('నీ', 'U'), ('వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('ర', '|'), ('శ్రే', 'U'), ('ణు', '|'), ('ల', '|'), ('కు', 'U'), ('న్సు', '|'), ('ధా', 'U'), ('మ', '|'), ('య', '|'), ('క', '|'), ('ళౌ', 'U'), ('ఘా', 'U'), ('త్మీ', 'U'), ('య', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('ర', 'U'), ('గ్య', '|'), ('ము', '|'), ('గా', 'U'), ('గ్రో', 'U'), ('ల', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('నొ', '|'), ('క', '|'), ('క', '|'), ('ళా', 'U'), ('మా', 'U'), ('త్రాం', 'U'), ('గు', '|'), ('డై', 'U'), ('యు', 'U'), ('న్న', '|'), ('చం', 'U'), ('ద్ర', '|'), ('ము', '|'), ('నిం', 'U'), ('జూ', 'U'), ('చి', '|'), ('జ', '|'), ('గ', 'U'), ('మ్ము', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('గ', '|'), ('తి', '|'), ('నా', 'U'), ('రన్', 'U'), ('భ', 'U'), ('క్త', '|'), ('పూ', 'U'), ('జా', 'U'), ('ని', '|'), ('ధి', '|'), ('క్ర', '|'), ('మ', '|'), ('భా', 'U'), ('రా', 'U'), ('కృ', '|'), ('శు', '|'), ('జూ', 'U'), ('చి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('లో', 'U'), ('కం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('ర', '|'), ('శ్రే', 'U'), ('ణు', '|'), ('ల', '|'), ('కు', 'U'), ('న్సు', '|'), ('ధా', 'U'), ('మ', '|'), ('య', '|'), ('క', '|'), ('ళౌ', 'U'), ('ఘా', 'U'), ('త్మీ', 'U'), ('య', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('ర', 'U'), ('గ్య', '|'), ('ము', '|'), ('గా', 'U'), ('గ్రో', 'U'), ('ల', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('నొ', '|'), ('క', '|'), ('క', '|'), ('ళా', 'U'), ('మా', 'U'), ('త్రాం', 'U'), ('గు', '|'), ('డై', 'U'), ('యు', 'U'), ('న్న', '|'), ('చం', 'U'), ('ద్ర', '|'), ('ము', '|'), ('నిం', 'U'), ('జూ', 'U'), ('చి', '|'), ('జ', '|'), ('గ', 'U'), ('మ్ము', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('గ', '|'), ('తి', '|'), ('నా', 'U'), ('ర', 'U'), ('న్భ', 'U'), ('క్త', '|'), ('పూ', 'U'), ('జా', 'U'), ('ని', '|'), ('ధి', '|'), ('క్ర', '|'), ('మ', '|'), ('భా', 'U'), ('రా', 'U'), ('కృ', '|'), ('శు', '|'), ('జూ', 'U'), ('చి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('లో', 'U'), ('కం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('ద', '|'), ('రం', 'U'), ('బా', 'U'), ('ఱు', '|'), ('ద', '|'), ('శ', '|'), ('ప్ర', '|'), ('భం', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('లన్', 'U'), ('శి', 'U'), ('క్షన్', 'U'), ('సు', '|'), ('షు', 'U'), ('మ్నం', 'U'), ('బు', '|'), ('నం', 'U'), ('గు', '|'), ('ది', '|'), ('యం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('చ', '|'), ('లిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డ', '|'), ('శ', '|'), ('శి', '|'), ('న', 'U'), ('ర్కుం', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('న్మ', '|'), ('న', 'U'), ('స్స', '|'), ('ద', '|'), ('న', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ని', 'U'), ('న్నె', '|'), ('ల', '|'), ('మి', '|'), ('సం', 'U'), ('స్థా', 'U'), ('ప్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('తా', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('ర', '|'), ('సా', 'U'), ('బ్ధి', '|'), ('దే', 'U'), ('లు', '|'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('చె', '|'), ('ద', '|'), ('రం', 'U'), ('బా', 'U'), ('ఱు', '|'), ('ద', '|'), ('శ', '|'), ('ప్ర', '|'), ('భం', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('ల', 'U'), ('న్శి', 'U'), ('క్ష', 'U'), ('న్సు', '|'), ('షు', 'U'), ('మ్నం', 'U'), ('బు', '|'), ('నం', 'U'), ('గు', '|'), ('ది', '|'), ('యం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('చ', '|'), ('లిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డ', '|'), ('శ', '|'), ('శి', '|'), ('న', 'U'), ('ర్కుం', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('న్మ', '|'), ('న', 'U'), ('స్స', '|'), ('ద', '|'), ('న', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ని', 'U'), ('న్నె', '|'), ('ల', '|'), ('మి', '|'), ('సం', 'U'), ('స్థా', 'U'), ('ప్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('తా', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('ర', '|'), ('సా', 'U'), ('బ్ధి', '|'), ('దే', 'U'), ('లు', '|'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('భ', '|'), ('వి', '|'), ('కిన్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('మం', 'U'), ('కు', '|'), ('రి', '|'), ('త', '|'), ('మై', 'U'), ('పా', 'U'), ('టి', 'U'), ('ల్ల', '|'), ('భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వ', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('గు', '|'), ('భ', 'U'), ('క్తి', '|'), ('పు', 'U'), ('ష్పి', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('ద', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డా', 'U'), ('త్మే', 'U'), ('శు', '|'), ('డై', 'U'), ('స', '|'), ('వి', '|'), ('శే', 'U'), ('ష', 'U'), ('స్థి', '|'), ('తి', '|'), ('దో', 'U'), ('చు', '|'), ('భ', 'U'), ('క్తి', '|'), ('స', '|'), ('ఫ', '|'), ('లో', 'U'), ('త్సా', 'U'), ('హం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('న', '|'), ('వి', '|'), ('క', 'U'), ('ల్ప', 'U'), ('స్థి', '|'), ('తి', '|'), ('నం', 'U'), ('త', '|'), ('భ', 'U'), ('క్తు', '|'), ('డు', '|'), ('ను', '|'), ('నీ', 'U'), ('వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('భ', '|'), ('వి', '|'), ('కి', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('మం', 'U'), ('కు', '|'), ('రి', '|'), ('త', '|'), ('మై', 'U'), ('పా', 'U'), ('టి', 'U'), ('ల్ల', '|'), ('భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వ', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('గు', '|'), ('భ', 'U'), ('క్తి', '|'), ('పు', 'U'), ('ష్పి', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('ద', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డా', 'U'), ('త్మే', 'U'), ('శు', '|'), ('డై', 'U'), ('స', '|'), ('వి', '|'), ('శే', 'U'), ('ష', 'U'), ('స్థి', '|'), ('తి', '|'), ('దో', 'U'), ('చు', '|'), ('భ', 'U'), ('క్తి', '|'), ('స', '|'), ('ఫ', '|'), ('లో', 'U'), ('త్సా', 'U'), ('హం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('న', '|'), ('వి', '|'), ('క', 'U'), ('ల్ప', 'U'), ('స్థి', '|'), ('తి', '|'), ('నం', 'U'), ('త', '|'), ('భ', 'U'), ('క్తు', '|'), ('డు', '|'), ('ను', '|'), ('నీ', 'U'), ('వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('ము', '|'), ('ఖుం', 'U'), ('డై', 'U'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గి', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('మ', '|'), ('దిన్', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('కొ', 'U'), ('న్న', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('వి', '|'), ('ప్రో', 'U'), ('త్త', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('స', '|'), ('దృ', 'U'), ('క్షం', 'U'), ('బ', 'U'), ('న్న', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('నం', 'U'), ('దా', 'U'), ('ర', '|'), ('య', '|'), ('న', 'U'), ('మ్మ', '|'), ('హా', 'U'), ('మ', '|'), ('హు', '|'), ('డు', '|'), ('వే', 'U'), ('డ్కం', 'U'), ('గో', 'U'), ('రి', '|'), ('యా', 'U'), ('రో', 'U'), ('గి', '|'), ('ణం', 'U'), ('బ', '|'), ('మ', '|'), ('రం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మె', 'U'), ('ట్లు', '|'), ('గు', '|'), ('ఱి', '|'), ('సే', 'U'), ('య', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('సు', '|'), ('ము', '|'), ('ఖుం', 'U'), ('డై', 'U'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గి', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('మ', '|'), ('ది', 'U'), ('న్శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('కొ', 'U'), ('న్న', '|'), ('భి', 'U'), ('క్ష', '|'), ('ము', '|'), ('వి', '|'), ('ప్రో', 'U'), ('త్త', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('స', '|'), ('దృ', 'U'), ('క్షం', 'U'), ('బ', 'U'), ('న్న', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('నం', 'U'), ('దా', 'U'), ('ర', '|'), ('య', '|'), ('న', 'U'), ('మ్మ', '|'), ('హా', 'U'), ('మ', '|'), ('హు', '|'), ('డు', '|'), ('వే', 'U'), ('డ్కం', 'U'), ('గో', 'U'), ('రి', '|'), ('యా', 'U'), ('రో', 'U'), ('గి', '|'), ('ణం', 'U'), ('బ', '|'), ('మ', '|'), ('రం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మె', 'U'), ('ట్లు', '|'), ('గు', '|'), ('ఱి', '|'), ('సే', 'U'), ('య', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('పెం', 'U'), ('పన్', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('య', '|'), ('గున్', 'U'), ('రు', '|'), ('జా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('దు', 'U'), ('ష్పీ', 'U'), ('డా', 'U'), ('వి', '|'), ('ధి', 'U'), ('క్షో', 'U'), ('భ', '|'), ('వా', 'U'), ('రిం', 'U'), ('పన్', 'U'), ('వై', 'U'), ('ద్యు', '|'), ('డ', '|'), ('గుం', 'U'), ('గు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('వి', '|'), ('ధు', '|'), ('లం', 'U'), ('గ్రీ', 'U'), ('డిం', 'U'), ('ప', '|'), ('బో', 'U'), ('కుం', 'U'), ('డ', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('పన్', 'U'), ('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('య', '|'), ('గు', '|'), ('చున్', 'U'), ('శ్రీ', 'U'), ('మం', 'U'), ('తు', '|'), ('గా', 'U'), ('నెం', 'U'), ('త', '|'), ('యున్', 'U'), ('సం', 'U'), ('ప', 'U'), ('ద్వృ', 'U'), ('ద్ధి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('దా', 'U'), ('త', '|'), ('య', '|'), ('గు', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('పెం', 'U'), ('ప', 'U'), ('న్ద', 'U'), ('ల్లి', '|'), ('య', '|'), ('గు', '|'), ('న్రు', '|'), ('జా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('దు', 'U'), ('ష్పీ', 'U'), ('డా', 'U'), ('వి', '|'), ('ధి', 'U'), ('క్షో', 'U'), ('భ', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', 'U'), ('న్వై', 'U'), ('ద్యు', '|'), ('డ', '|'), ('గుం', 'U'), ('గు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('వి', '|'), ('ధు', '|'), ('లం', 'U'), ('గ్రీ', 'U'), ('డిం', 'U'), ('ప', '|'), ('బో', 'U'), ('కుం', 'U'), ('డ', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('ప', 'U'), ('న్బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('య', '|'), ('గు', '|'), ('చు', 'U'), ('న్శ్రీ', 'U'), ('మం', 'U'), ('తు', '|'), ('గా', 'U'), ('నెం', 'U'), ('త', '|'), ('యున్', 'U'), ('సం', 'U'), ('ప', 'U'), ('ద్వృ', 'U'), ('ద్ధి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('దా', 'U'), ('త', '|'), ('య', '|'), ('గు', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డు', '|'), ('ను', '|'), ('దు', 'U'), ('ర్బ', '|'), ('లుం', 'U'), ('డు', '|'), ('ను', '|'), ('మ', '|'), ('హా', 'U'), ('ప్రౌ', 'U'), ('ఢుం', 'U'), ('డు', '|'), ('మూ', 'U'), ('ఢుం', 'U'), ('డు', '|'), ('నుం', 'U'), ('గు', '|'), ('ల', '|'), ('జుం', 'U'), ('డుం', 'U'), ('గు', '|'), ('ల', '|'), ('హీ', 'U'), ('న', '|'), ('జా', 'U'), ('తు', '|'), ('డు', '|'), ('ఘ', '|'), ('న', '|'), ('క్రూ', 'U'), ('రుం', 'U'), ('డు', '|'), ('శాం', 'U'), ('తా', 'U'), ('తి', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('చి', 'U'), ('త్తుం', 'U'), ('డు', '|'), ('ను', '|'), ('నొ', 'U'), ('క్క', '|'), ('రూ', 'U'), ('ప', '|'), ('మ', '|'), ('ది', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లి', '|'), ('న', '|'), ('మీ', 'U'), ('ద', '|'), ('నే', 'U'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('నన్', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డు', '|'), ('ను', '|'), ('దు', 'U'), ('ర్బ', '|'), ('లుం', 'U'), ('డు', '|'), ('ను', '|'), ('మ', '|'), ('హా', 'U'), ('ప్రౌ', 'U'), ('ఢుం', 'U'), ('డు', '|'), ('మూ', 'U'), ('ఢుం', 'U'), ('డు', '|'), ('నుం', 'U'), ('గు', '|'), ('ల', '|'), ('జుం', 'U'), ('డుం', 'U'), ('గు', '|'), ('ల', '|'), ('హీ', 'U'), ('న', '|'), ('జా', 'U'), ('తు', '|'), ('డు', '|'), ('ఘ', '|'), ('న', '|'), ('క్రూ', 'U'), ('రుం', 'U'), ('డు', '|'), ('శాం', 'U'), ('తా', 'U'), ('తి', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('చి', 'U'), ('త్తుం', 'U'), ('డు', '|'), ('ను', '|'), ('నొ', 'U'), ('క్క', '|'), ('రూ', 'U'), ('ప', '|'), ('మ', '|'), ('ది', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లి', '|'), ('న', '|'), ('మీ', 'U'), ('ద', '|'), ('నే', 'U'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('న', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('మో', 'U'), ('ద్రే', 'U'), ('క', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('ణం', 'U'), ('బు', '|'), ('ను', '|'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('క్రో', 'U'), ('ధ', '|'), ('మున్', 'U'), ('లో', 'U'), ('భ', '|'), ('మున్', 'U'), ('వ్యా', 'U'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('మ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ము', '|'), ('దీ', 'U'), ('వ్రం', 'U'), ('బై', 'U'), ('న', '|'), ('పం', 'U'), ('చేం', 'U'), ('ద్రి', '|'), ('యో', 'U'), ('ద్దా', 'U'), ('మా', 'U'), ('టో', 'U'), ('ప', '|'), ('ము', '|'), ('గ్రా', 'U'), ('చి', '|'), ('పెం', 'U'), ('పె', '|'), ('స', '|'), ('గు', '|'), ('త', 'U'), ('త్త్వ', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('కిం', 'U'), ('గా', 'U'), ('క', '|'), ('తా', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('నూ', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('కా', 'U'), ('మో', 'U'), ('ద్రే', 'U'), ('క', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('ణం', 'U'), ('బు', '|'), ('ను', '|'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('క్రో', 'U'), ('ధ', '|'), ('ము', 'U'), ('న్లో', 'U'), ('భ', '|'), ('మున్', 'U'), ('వ్యా', 'U'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('మ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ము', '|'), ('దీ', 'U'), ('వ్రం', 'U'), ('బై', 'U'), ('న', '|'), ('పం', 'U'), ('చేం', 'U'), ('ద్రి', '|'), ('యో', 'U'), ('ద్దా', 'U'), ('మా', 'U'), ('టో', 'U'), ('ప', '|'), ('ము', '|'), ('గ్రా', 'U'), ('చి', '|'), ('పెం', 'U'), ('పె', '|'), ('స', '|'), ('గు', '|'), ('త', 'U'), ('త్త్వ', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('కిం', 'U'), ('గా', 'U'), ('క', '|'), ('తా', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('నూ', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('ఉ', '|'), ('రు', '|'), ('ప', 'U'), ('క్షం', 'U'), ('బు', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ని', '|'), ('రు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('న', 'U'), ('న్వృ', 'U'), ('క్ష', '|'), ('కో', 'U'), ('ట', '|'), ('ర', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('ప', 'U'), ('క్షి', '|'), ('గ', '|'), ('తి', '|'), ('ని', 'U'), ('ష్ఠం', 'U'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('మా', 'U'), ('త్మం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('కా', 'U'), ('రా', 'U'), ('గృ', '|'), ('హాం', 'U'), ('త', '|'), ('ర', '|'), ('గే', 'U'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('జీ', 'U'), ('వు', '|'), ('డ', '|'), ('తి', '|'), ('వం', 'U'), ('తన్', 'U'), ('బొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఉ', '|'), ('రు', '|'), ('ప', 'U'), ('క్షం', 'U'), ('బు', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ని', '|'), ('రు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('న', 'U'), ('న్వృ', 'U'), ('క్ష', '|'), ('కో', 'U'), ('ట', '|'), ('ర', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('ప', 'U'), ('క్షి', '|'), ('గ', '|'), ('తి', '|'), ('ని', 'U'), ('ష్ఠం', 'U'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('మా', 'U'), ('త్మం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('కా', 'U'), ('రా', 'U'), ('గృ', '|'), ('హాం', 'U'), ('త', '|'), ('ర', '|'), ('గే', 'U'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('జీ', 'U'), ('వు', '|'), ('డ', '|'), ('తి', '|'), ('వం', 'U'), ('త', 'U'), ('న్బొం', 'U'), ('దు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('లిం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ధ', '|'), ('న', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ము', '|'), ('లో', 'U'), ('లిన్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('కం', 'U'), ('గం', 'U'), ('బు', '|'), ('ప్రా', 'U'), ('ణాం', 'U'), ('గ', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('యు', '|'), ('నై', 'U'), ('స్ఫు', '|'), ('రిం', 'U'), ('చు', '|'), ('ని', '|'), ('ది', '|'), ('త', 'U'), ('త్త్వా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('గుం', 'U'), ('గా', 'U'), ('న', '|'), ('నా', 'U'), ('యం', 'U'), ('గా', 'U'), ('భ్య', 'U'), ('ర్చ', '|'), ('న', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('హి', '|'), ('త', '|'), ('క', '|'), ('రుం', 'U'), ('డై', 'U'), ('చే', 'U'), ('సి', '|'), ('నం', 'U'), ('దా', 'U'), ('శ', '|'), ('వ', '|'), ('శృం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('మ', '|'), ('ది', '|'), ('జ', 'U'), ('ర్చిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('లిం', 'U'), ('గా', 'U'), ('రా', 'U'), ('ధ', '|'), ('న', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ము', '|'), ('లో', 'U'), ('లి', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('కం', 'U'), ('గం', 'U'), ('బు', '|'), ('ప్రా', 'U'), ('ణాం', 'U'), ('గ', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('యు', '|'), ('నై', 'U'), ('స్ఫు', '|'), ('రిం', 'U'), ('చు', '|'), ('ని', '|'), ('ది', '|'), ('త', 'U'), ('త్త్వా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('గుం', 'U'), ('గా', 'U'), ('న', '|'), ('నా', 'U'), ('యం', 'U'), ('గా', 'U'), ('భ్య', 'U'), ('ర్చ', '|'), ('న', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('హి', '|'), ('త', '|'), ('క', '|'), ('రుం', 'U'), ('డై', 'U'), ('చే', 'U'), ('సి', '|'), ('నం', 'U'), ('దా', 'U'), ('శ', '|'), ('వ', '|'), ('శృం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('మ', '|'), ('ది', '|'), ('జ', 'U'), ('ర్చిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ర', '|'), ('యన్', 'U'), ('గ', 'U'), ('ర్మ', '|'), ('వి', '|'), ('ధా', 'U'), ('వ', '|'), ('ధా', 'U'), ('న', '|'), ('వి', '|'), ('ధి', '|'), ('వ', 'U'), ('ద్ధ్యా', 'U'), ('నో', 'U'), ('త్త', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ముల్', 'U'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('బే', 'U'), ('ర్కొ', '|'), ('న', '|'), ('నా', 'U'), ('ల్గు', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బెం', 'U'), ('దు', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('బా', 'U'), ('హ్య', '|'), ('క్రి', '|'), ('య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బొ', 'U'), ('ల్లు', '|'), ('ల', '|'), ('గు', '|'), ('టం', 'U'), ('ద', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('తా', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('ద', 'U'), ('క్కి', '|'), ('న', '|'), ('మూ', 'U'), ('డు', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('ర', '|'), ('య', 'U'), ('న్గ', 'U'), ('ర్మ', '|'), ('వి', '|'), ('ధా', 'U'), ('వ', '|'), ('ధా', 'U'), ('న', '|'), ('వి', '|'), ('ధి', '|'), ('వ', 'U'), ('ద్ధ్యా', 'U'), ('నో', 'U'), ('త్త', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ముల్', 'U'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్బే', 'U'), ('ర్కొ', '|'), ('న', '|'), ('నా', 'U'), ('ల్గు', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బెం', 'U'), ('దు', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('బా', 'U'), ('హ్య', '|'), ('క్రి', '|'), ('య', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బొ', 'U'), ('ల్లు', '|'), ('ల', '|'), ('గు', '|'), ('టం', 'U'), ('ద', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('తా', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('ద', 'U'), ('క్కి', '|'), ('న', '|'), ('మూ', 'U'), ('డు', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('సి', '|'), ('కుం', 'U'), ('డై', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గ', '|'), ('మా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('చు', '|'), ('చో', 'U'), ('దు', 'U'), ('ర్మ', '|'), ('ద', 'U'), ('వ్య', '|'), ('స', '|'), ('నా', 'U'), ('టో', 'U'), ('ప', '|'), ('ము', '|'), ('చి', 'U'), ('క్కు', '|'), ('లం', 'U'), ('బొ', '|'), ('ర', '|'), ('లు', '|'), ('చు', 'U'), ('న్వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ల', '|'), ('సు', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బ', '|'), ('దొ', 'U'), ('ప్పు', '|'), ('నె', '|'), ('భు', '|'), ('విన్', 'U'), ('ల', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నా', 'U'), ('రం', 'U'), ('భ', '|'), ('ముం', 'U'), ('గ', '|'), ('స', '|'), ('వుం', 'U'), ('బెం', 'U'), ('చి', '|'), ('న', '|'), ('చే', 'U'), ('ను', '|'), ('బో', 'U'), ('లు', '|'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('గా', 'U'), ('మీ', 'U'), ('ద', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ర', '|'), ('సి', '|'), ('కుం', 'U'), ('డై', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గ', '|'), ('మా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('చు', '|'), ('చో', 'U'), ('దు', 'U'), ('ర్మ', '|'), ('ద', 'U'), ('వ్య', '|'), ('స', '|'), ('నా', 'U'), ('టో', 'U'), ('ప', '|'), ('ము', '|'), ('చి', 'U'), ('క్కు', '|'), ('లం', 'U'), ('బొ', '|'), ('ర', '|'), ('లు', '|'), ('చు', 'U'), ('న్వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ల', '|'), ('సు', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బ', '|'), ('దొ', 'U'), ('ప్పు', '|'), ('నె', '|'), ('భు', '|'), ('వి', 'U'), ('న్ల', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నా', 'U'), ('రం', 'U'), ('భ', '|'), ('ముం', 'U'), ('గ', '|'), ('స', '|'), ('వుం', 'U'), ('బెం', 'U'), ('చి', '|'), ('న', '|'), ('చే', 'U'), ('ను', '|'), ('బో', 'U'), ('లు', '|'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('గా', 'U'), ('మీ', 'U'), ('ద', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('ఘ', '|'), ('న', '|'), ('వై', 'U'), ('రి', '|'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ధా', 'U'), ('టి', '|'), ('న', '|'), ('ని', '|'), ('లో', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చు', '|'), ('కం', 'U'), ('టెన్', 'U'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('వా', 'U'), ('రి', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('దో', 'U'), ('గా', 'U'), ('డు', '|'), ('కం', 'U'), ('టెన్', 'U'), ('మ', '|'), ('హా', 'U'), ('శ', '|'), ('ని', '|'), ('దా', 'U'), ('వ్రే', 'U'), ('యు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('ఘో', 'U'), ('ర', '|'), ('భ', '|'), ('వ', '|'), ('దు', 'U'), ('శ్చా', 'U'), ('రి', '|'), ('త్ర', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('తో', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('శి', 'U'), ('క్ష', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('మ', '|'), ('హా', 'U'), ('శౌ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఘ', '|'), ('న', '|'), ('వై', 'U'), ('రి', '|'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ధా', 'U'), ('టి', '|'), ('న', '|'), ('ని', '|'), ('లో', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చు', '|'), ('కం', 'U'), ('టె', 'U'), ('న్మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('వా', 'U'), ('రి', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('దో', 'U'), ('గా', 'U'), ('డు', '|'), ('కం', 'U'), ('టె', 'U'), ('న్మ', '|'), ('హా', 'U'), ('శ', '|'), ('ని', '|'), ('దా', 'U'), ('వ్రే', 'U'), ('యు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('ఘో', 'U'), ('ర', '|'), ('భ', '|'), ('వ', '|'), ('దు', 'U'), ('శ్చా', 'U'), ('రి', '|'), ('త్ర', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('తో', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('శి', 'U'), ('క్ష', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('మ', '|'), ('హా', 'U'), ('శౌ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('ష్ఠ', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('త', '|'), ('రు', '|'), ('వం', 'U'), ('గా', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('త', 'U'), ('త్సా', 'U'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('రెం', 'U'), ('టిన్', 'U'), ('ద', '|'), ('హి', '|'), ('యిం', 'U'), ('చు', '|'), ('వ', 'U'), ('హ్ని', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('బొ', 'U'), ('ల్పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('యం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధి', '|'), ('ల', '|'), ('స', 'U'), ('త్క', 'U'), ('ర్మ', '|'), ('ము', '|'), ('తో', 'U'), ('మ', '|'), ('థిం', 'U'), ('ప', '|'), ('గ', '|'), ('భ', '|'), ('వ', 'U'), ('చ్చి', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ద్వ', 'U'), ('హ్ని', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('మై', 'U'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('గ', 'U'), ('ర్మ', '|'), ('ముం', 'U'), ('జె', '|'), ('ఱు', '|'), ('చు', '|'), ('ద', 'U'), ('త్త్వం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('ష్ఠ', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('త', '|'), ('రు', '|'), ('వం', 'U'), ('గా', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('త', 'U'), ('త్సా', 'U'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('రెం', 'U'), ('టి', 'U'), ('న్ద', '|'), ('హి', '|'), ('యిం', 'U'), ('చు', '|'), ('వ', 'U'), ('హ్ని', '|'), ('గ', '|'), ('తి', '|'), ('దా', 'U'), ('బొ', 'U'), ('ల్పొం', 'U'), ('ద', '|'), ('గా', 'U'), ('యం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధి', '|'), ('ల', '|'), ('స', 'U'), ('త్క', 'U'), ('ర్మ', '|'), ('ము', '|'), ('తో', 'U'), ('మ', '|'), ('థిం', 'U'), ('ప', '|'), ('గ', '|'), ('భ', '|'), ('వ', 'U'), ('చ్చి', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('స', 'U'), ('ద్వ', 'U'), ('హ్ని', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('మై', 'U'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('గ', 'U'), ('ర్మ', '|'), ('ముం', 'U'), ('జె', '|'), ('ఱు', '|'), ('చు', '|'), ('ద', 'U'), ('త్త్వం', 'U'), ('బె', 'U'), ('న్న', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('స్థి', '|'), ('ర', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('ద', '|'), ('న', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('ర', '|'), ('సు', 'U'), ('క్షే', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బీ', 'U'), ('జ', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('గా', 'U'), ('వె', '|'), ('ద', '|'), ('పె', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('ద', '|'), ('న', '|'), ('తి', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నుం', 'U'), ('డ', '|'), ('గుం', 'U'), ('గా', 'U'), ('క', '|'), ('దా', 'U'), ('న', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('పా', 'U'), ('లు', '|'), ('సే', 'U'), ('సి', '|'), ('భ', '|'), ('వ', '|'), ('మా', 'U'), ('యా', 'U'), ('గ్ర', 'U'), ('స్తు', '|'), ('డై', 'U'), ('యి', 'U'), ('చ్చ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('వే', 'U'), ('డం', 'U'), ('జ', '|'), ('ను', '|'), ('వా', 'U'), ('డొ', '|'), ('కో', 'U'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('రి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('స్థి', '|'), ('ర', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('ద', '|'), ('న', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('ర', '|'), ('సు', 'U'), ('క్షే', 'U'), ('త్రం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్బీ', 'U'), ('జ', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('గా', 'U'), ('వె', '|'), ('ద', '|'), ('పె', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('ద', '|'), ('న', '|'), ('తి', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నుం', 'U'), ('డ', '|'), ('గుం', 'U'), ('గా', 'U'), ('క', '|'), ('దా', 'U'), ('న', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('పా', 'U'), ('లు', '|'), ('సే', 'U'), ('సి', '|'), ('భ', '|'), ('వ', '|'), ('మా', 'U'), ('యా', 'U'), ('గ్ర', 'U'), ('స్తు', '|'), ('డై', 'U'), ('యి', 'U'), ('చ్చ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('వే', 'U'), ('డం', 'U'), ('జ', '|'), ('ను', '|'), ('వా', 'U'), ('డొ', '|'), ('కో', 'U'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('రి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('ఉ', '|'), ('ద', '|'), ('కం', 'U'), ('బిం', 'U'), ('కి', '|'), ('న', '|'), ('లా', 'U'), ('వు', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('డు', '|'), ('మై', 'U'), ('య', 'U'), ('ష్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('రొం', 'U'), ('పి', '|'), ('లో', 'U'), ('గ', '|'), ('ద', '|'), ('లం', 'U'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('మీ', 'U'), ('ను', '|'), ('వా', 'U'), ('న', '|'), ('గు', '|'), ('రి', '|'), ('యం', 'U'), ('గ్ర', 'U'), ('మ్మె', 'U'), ('క్కి', '|'), ('పె', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('బొ', '|'), ('ద', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('నన్', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('బో', 'U'), ('రా', 'U'), ('డు', '|'), ('మ', 'U'), ('ర్త్యుం', 'U'), ('డు', '|'), ('దా', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('ను', '|'), ('నే', 'U'), ('యిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఉ', '|'), ('ద', '|'), ('కం', 'U'), ('బిం', 'U'), ('కి', '|'), ('న', '|'), ('లా', 'U'), ('వు', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('డు', '|'), ('మై', 'U'), ('య', 'U'), ('ష్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('రొం', 'U'), ('పి', '|'), ('లో', 'U'), ('గ', '|'), ('ద', '|'), ('లం', 'U'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('మీ', 'U'), ('ను', '|'), ('వా', 'U'), ('న', '|'), ('గు', '|'), ('రి', '|'), ('యం', 'U'), ('గ్ర', 'U'), ('మ్మె', 'U'), ('క్కి', '|'), ('పె', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('బొ', '|'), ('ద', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', 'U'), ('న్భ', '|'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('బో', 'U'), ('రా', 'U'), ('డు', '|'), ('మ', 'U'), ('ర్త్యుం', 'U'), ('డు', '|'), ('దా', 'U'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('ను', '|'), ('నే', 'U'), ('యిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[('శూ', 'U'), ('ల', 'U'), ('స్థా', 'U'), ('పి', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('శూ', 'U'), ('లం', 'U'), ('బు', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('వా', 'U'), ('త్యా', 'U'), ('లిం', 'U'), ('గం', 'U'), ('ప', '|'), ('ము', '|'), ('నొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('సు', '|'), ('ఖం', 'U'), ('బై', 'U'), ('తో', 'U'), ('చు', '|'), ('మా', 'U'), ('డ్కిన్', 'U'), ('భ', '|'), ('వా', 'U'), ('భీ', 'U'), ('ల', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('ల', '|'), ('గ్రా', 'U'), ('గు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('బిం', 'U'), ('బా', 'U'), ('ధ', '|'), ('రల్', 'U'), ('హా', 'U'), ('ర', '|'), ('వ', 'U'), ('స్త్రా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('లిం', 'U'), ('చు', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('సు', '|'), ('ఖం', 'U'), ('బై', 'U'), ('తో', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('శూ', 'U'), ('ల', 'U'), ('స్థా', 'U'), ('పి', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('న', '|'), ('కు', 'U'), ('న్శూ', 'U'), ('లం', 'U'), ('బు', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('వా', 'U'), ('త్యా', 'U'), ('లిం', 'U'), ('గం', 'U'), ('ప', '|'), ('ము', '|'), ('నొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('సు', '|'), ('ఖం', 'U'), ('బై', 'U'), ('తో', 'U'), ('చు', '|'), ('మా', 'U'), ('డ్కి', 'U'), ('న్భ', '|'), ('వా', 'U'), ('భీ', 'U'), ('ల', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('ల', '|'), ('గ్రా', 'U'), ('గు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('న', '|'), ('కు', 'U'), ('న్బిం', 'U'), ('బా', 'U'), ('ధ', '|'), ('ర', 'U'), ('ల్హా', 'U'), ('ర', '|'), ('వ', 'U'), ('స్త్రా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('లిం', 'U'), ('చు', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('సు', '|'), ('ఖం', 'U'), ('బై', 'U'), ('తో', 'U'), ('చు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('జు', '|'), ('డై', 'U'), ('సృ', 'U'), ('ష్టి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('దా', 'U'), ('న', '|'), ('ధో', 'U'), ('క్ష', '|'), ('జు', '|'), ('డై', 'U'), ('వ', 'U'), ('ర్ధి', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('క', '|'), ('ము', '|'), ('సం', 'U'), ('ప్ర', 'U'), ('వ్య', 'U'), ('క్తి', '|'), ('గా', 'U'), ('గో', 'U'), ('ప', '|'), ('తి', 'U'), ('ధ్వ', '|'), ('జు', '|'), ('డై', 'U'), ('సం', 'U'), ('హృ', '|'), ('తి', '|'), ('సే', 'U'), ('యు', '|'), ('దా', 'U'), ('మ', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('ద', 'U'), ('త్స', 'U'), ('ర్వ', '|'), ('ముం', 'U'), ('గూ', 'U'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('జ', '|'), ('వి', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('దు', 'U'), ('ర్య', '|'), ('మ', '|'), ('గు', '|'), ('చున్', 'U'), ('నీ', 'U'), ('యా', 'U'), ('జ్ఞ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('జు', '|'), ('డై', 'U'), ('సృ', 'U'), ('ష్టి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('దా', 'U'), ('న', '|'), ('ధో', 'U'), ('క్ష', '|'), ('జు', '|'), ('డై', 'U'), ('వ', 'U'), ('ర్ధి', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('క', '|'), ('ము', '|'), ('సం', 'U'), ('ప్ర', 'U'), ('వ్య', 'U'), ('క్తి', '|'), ('గా', 'U'), ('గో', 'U'), ('ప', '|'), ('తి', 'U'), ('ధ్వ', '|'), ('జు', '|'), ('డై', 'U'), ('సం', 'U'), ('హృ', '|'), ('తి', '|'), ('సే', 'U'), ('యు', '|'), ('దా', 'U'), ('మ', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('ద', 'U'), ('త్స', 'U'), ('ర్వ', '|'), ('ముం', 'U'), ('గూ', 'U'), ('డ', '|'), ('గా', 'U'), ('ని', '|'), ('జ', '|'), ('వి', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('దు', 'U'), ('ర్య', '|'), ('మ', '|'), ('గు', '|'), ('చు', 'U'), ('న్నీ', 'U'), ('యా', 'U'), ('జ్ఞ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ణి', '|'), ('మా', 'U'), ('ద్య', 'U'), ('ష్ట', '|'), ('గు', '|'), ('ణ', '|'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('త్రి', '|'), ('లో', 'U'), ('కా', 'U'), ('రా', 'U'), ('ధ్యు', '|'), ('లు', 'U'), ('ద్య', 'U'), ('ద్వ', '|'), ('చో', 'U'), ('మ', '|'), ('ణి', '|'), ('కో', 'U'), ('టి', '|'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('ప్ర', '|'), ('భా', 'U'), ('ప', '|'), ('ట', '|'), ('లు', '|'), ('లు', 'U'), ('న్మా', 'U'), ('దేం', 'U'), ('ద్రి', '|'), ('య', 'U'), ('ధ్వాం', 'U'), ('త', '|'), ('భీ', 'U'), ('ష', '|'), ('ణ', '|'), ('దై', 'U'), ('త్యేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మ', '|'), ('హా', 'U'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తు', 'U'), ('ల్లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ద', 'U'), ('క్తుల్', 'U'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థ', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('ణి', '|'), ('మా', 'U'), ('ద్య', 'U'), ('ష్ట', '|'), ('గు', '|'), ('ణ', '|'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('త్రి', '|'), ('లో', 'U'), ('కా', 'U'), ('రా', 'U'), ('ధ్యు', '|'), ('లు', 'U'), ('ద్య', 'U'), ('ద్వ', '|'), ('చో', 'U'), ('మ', '|'), ('ణి', '|'), ('కో', 'U'), ('టి', '|'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('ప్ర', '|'), ('భా', 'U'), ('ప', '|'), ('ట', '|'), ('లు', '|'), ('లు', 'U'), ('న్మా', 'U'), ('దేం', 'U'), ('ద్రి', '|'), ('య', 'U'), ('ధ్వాం', 'U'), ('త', '|'), ('భీ', 'U'), ('ష', '|'), ('ణ', '|'), ('దై', 'U'), ('త్యేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మ', '|'), ('హా', 'U'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తు', 'U'), ('ల్లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ద', 'U'), ('క్తు', 'U'), ('ల్వి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థ', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[('శి', '|'), ('వ', '|'), ('సా', 'U'), ('హి', 'U'), ('త్యు', '|'), ('ల', '|'), ('స', 'U'), ('త్క', '|'), ('ర', 'U'), ('స్థ', '|'), ('ల', '|'), ('ము', '|'), ('కా', 'U'), ('శీ', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('మా', 'U'), ('హ', 'U'), ('స్త', '|'), ('దే', 'U'), ('శ', '|'), ('వి', '|'), ('శా', 'U'), ('లో', 'U'), ('న్న', '|'), ('త', '|'), ('శా', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('బం', 'U'), ('చ', '|'), ('క్రో', 'U'), ('శ', '|'), ('మా', 'U'), ('పా', 'U'), ('ణి', '|'), ('సం', 'U'), ('భ', '|'), ('వ', '|'), ('శో', 'U'), ('భా', 'U'), ('న్వి', '|'), ('త', '|'), ('చి', '|'), ('త్ర', '|'), ('రే', 'U'), ('ఖ', '|'), ('లు', '|'), ('మ', '|'), ('హా', 'U'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('తీ', 'U'), ('ర్థ', '|'), ('ముల్', 'U'), ('శి', '|'), ('వ', '|'), ('లిం', 'U'), ('గం', 'U'), ('బ', '|'), ('ల', '|'), ('వి', 'U'), ('శ్వ', '|'), ('నా', 'U'), ('థు', '|'), ('డ', '|'), ('ర', '|'), ('యన్', 'U'), ('సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('శి', '|'), ('వ', '|'), ('సా', 'U'), ('హి', 'U'), ('త్యు', '|'), ('ల', '|'), ('స', 'U'), ('త్క', '|'), ('ర', 'U'), ('స్థ', '|'), ('ల', '|'), ('ము', '|'), ('కా', 'U'), ('శీ', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('మా', 'U'), ('హ', 'U'), ('స్త', '|'), ('దే', 'U'), ('శ', '|'), ('వి', '|'), ('శా', 'U'), ('లో', 'U'), ('న్న', '|'), ('త', '|'), ('శా', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('బం', 'U'), ('చ', '|'), ('క్రో', 'U'), ('శ', '|'), ('మా', 'U'), ('పా', 'U'), ('ణి', '|'), ('సం', 'U'), ('భ', '|'), ('వ', '|'), ('శో', 'U'), ('భా', 'U'), ('న్వి', '|'), ('త', '|'), ('చి', '|'), ('త్ర', '|'), ('రే', 'U'), ('ఖ', '|'), ('లు', '|'), ('మ', '|'), ('హా', 'U'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('తీ', 'U'), ('ర్థ', '|'), ('ముల్', 'U'), ('శి', '|'), ('వ', '|'), ('లిం', 'U'), ('గం', 'U'), ('బ', '|'), ('ల', '|'), ('వి', 'U'), ('శ్వ', '|'), ('నా', 'U'), ('థు', '|'), ('డ', '|'), ('ర', '|'), ('య', 'U'), ('న్సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('గు', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('నీ', 'U'), ('పా', 'U'), ('దా', 'U'), ('బ', 'U'), ('బ్జ', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డొ', 'U'), ('క్క', '|'), ('రు', '|'), ('డుం', 'U'), ('ద', 'U'), ('క్క', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('జా', 'U'), ('ద్య', '|'), ('మ', '|'), ('ర', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బు', '|'), ('లో', 'U'), ('నె', 'U'), ('ల్ల', '|'), ('దా', 'U'), ('నె', '|'), ('ర', '|'), ('యం', 'U'), ('గా', 'U'), ('చి', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('రు', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్భీ', 'U'), ('తు', '|'), ('డున్', 'U'), ('లే', 'U'), ('డ', '|'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణం', 'U'), ('గా', 'U'), ('లు', '|'), ('డు', '|'), ('ద', 'U'), ('న్ను', '|'), ('వే', 'U'), ('చి', '|'), ('వ', '|'), ('డి', '|'), ('గొం', 'U'), ('పో', 'U'), ('నుం', 'U'), ('డ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('గు', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('నీ', 'U'), ('పా', 'U'), ('దా', 'U'), ('బ', 'U'), ('బ్జ', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డొ', 'U'), ('క్క', '|'), ('రు', '|'), ('డుం', 'U'), ('ద', 'U'), ('క్క', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('జా', 'U'), ('ద్య', '|'), ('మ', '|'), ('ర', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బు', '|'), ('లో', 'U'), ('నె', 'U'), ('ల్ల', '|'), ('దా', 'U'), ('నె', '|'), ('ర', '|'), ('యం', 'U'), ('గా', 'U'), ('చి', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('రు', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్భీ', 'U'), ('తు', '|'), ('డు', 'U'), ('న్లే', 'U'), ('డ', '|'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణం', 'U'), ('గా', 'U'), ('లు', '|'), ('డు', '|'), ('ద', 'U'), ('న్ను', '|'), ('వే', 'U'), ('చి', '|'), ('వ', '|'), ('డి', '|'), ('గొం', 'U'), ('పో', 'U'), ('నుం', 'U'), ('డ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[('ఒ', '|'), ('న', '|'), ('రం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('లే', 'U'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('డు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('నం', 'U'), ('గో', 'U'), ('రి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('సు', '|'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('లున్', 'U'), ('శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్మం', 'U'), ('త్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ముల్', 'U'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లుం', 'U'), ('ద', '|'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('మీ', 'U'), ('దం', 'U'), ('జె', 'U'), ('ట్ట', '|'), ('వా', 'U'), ('డ', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('శ', 'U'), ('స్త్రా', 'U'), ('స్త్ర', '|'), ('క', '|'), ('ళా', 'U'), ('ని', '|'), ('భం', 'U'), ('బు', '|'), ('ల', '|'), ('గు', '|'), ('జ', 'U'), ('ర్చిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఒ', '|'), ('న', '|'), ('రం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('లే', 'U'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('డు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('నం', 'U'), ('గో', 'U'), ('రి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('సు', '|'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('లు', 'U'), ('న్శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్మం', 'U'), ('త్ర', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('ము', 'U'), ('ల్తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లుం', 'U'), ('ద', '|'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('మీ', 'U'), ('దం', 'U'), ('జె', 'U'), ('ట్ట', '|'), ('వా', 'U'), ('డ', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('శ', 'U'), ('స్త్రా', 'U'), ('స్త్ర', '|'), ('క', '|'), ('ళా', 'U'), ('ని', '|'), ('భం', 'U'), ('బు', '|'), ('ల', '|'), ('గు', '|'), ('జ', 'U'), ('ర్చిం', 'U'), ('పం', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[('క్ర', '|'), ('మ', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('యు', '|'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('జి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('య', '|'), ('మ', '|'), ('లాం', 'U'), ('తః', 'U'), ('క', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('న', 'U'), ('క్ష', '|'), ('ర', '|'), ('చ', '|'), ('తు', 'U'), ('ష్కా', 'U'), ('వా', 'U'), ('ప్తి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('పం', 'U'), ('చ', '|'), ('మ', '|'), ('వ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గ', '|'), ('నా', 'U'), ('త్మ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('క', '|'), ('డు', '|'), ('వాం', 'U'), ('ఛన్', 'U'), ('యో', 'U'), ('గి', '|'), ('పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('సు', '|'), ('మ', '|'), ('హా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నై', 'U'), ('క్య', '|'), ('ప', '|'), ('ద', '|'), ('విన్', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్లు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క్ర', '|'), ('మ', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('యు', '|'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('జి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('య', '|'), ('మ', '|'), ('లాం', 'U'), ('తః', 'U'), ('క', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('న', 'U'), ('క్ష', '|'), ('ర', '|'), ('చ', '|'), ('తు', 'U'), ('ష్కా', 'U'), ('వా', 'U'), ('ప్తి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('పం', 'U'), ('చ', '|'), ('మ', '|'), ('వ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గ', '|'), ('నా', 'U'), ('త్మ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('క', '|'), ('డు', '|'), ('వాం', 'U'), ('ఛ', 'U'), ('న్యో', 'U'), ('గి', '|'), ('పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('సు', '|'), ('మ', '|'), ('హా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నై', 'U'), ('క్య', '|'), ('ప', '|'), ('ద', '|'), ('వి', 'U'), ('న్శో', 'U'), ('భి', 'U'), ('ల్లు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('టు', '|'), ('శా', 'U'), ('స్త్రా', 'U'), ('గ', '|'), ('మ', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('ని', 'U'), ('వ్వి', '|'), ('ధ', '|'), ('ము', '|'), ('నన్', 'U'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('యు', 'U'), ('ద్భ', '|'), ('ట', '|'), ('వృ', 'U'), ('త్తిన్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('క', '|'), ('ర', '|'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('కుం', 'U'), ('డై', 'U'), ('న', '|'), ('నా', 'U'), ('ద', '|'), ('ట', '|'), ('లో', 'U'), ('గా', 'U'), ('చు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వి', '|'), ('ది', '|'), ('తో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('ప్ర', '|'), ('తా', 'U'), ('పో', 'U'), ('త్క', '|'), ('ట', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('య', '|'), ('ము', '|'), ('డు', '|'), ('గొం', 'U'), ('పో', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('టు', '|'), ('శా', 'U'), ('స్త్రా', 'U'), ('గ', '|'), ('మ', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('ని', 'U'), ('వ్వి', '|'), ('ధ', '|'), ('ము', '|'), ('న', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('చి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('యు', 'U'), ('ద్భ', '|'), ('ట', '|'), ('వృ', 'U'), ('త్తి', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('క', '|'), ('ర', '|'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('కుం', 'U'), ('డై', 'U'), ('న', '|'), ('నా', 'U'), ('ద', '|'), ('ట', '|'), ('లో', 'U'), ('గా', 'U'), ('చు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వి', '|'), ('ది', '|'), ('తో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('ప్ర', '|'), ('తా', 'U'), ('పో', 'U'), ('త్క', '|'), ('ట', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('య', '|'), ('ము', '|'), ('డు', '|'), ('గొం', 'U'), ('పో', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('వా', 'U'), ('రై', 'U'), ('మ', '|'), ('తి', '|'), ('మం', 'U'), ('తు', '|'), ('లై', 'U'), ('ర', '|'), ('సి', '|'), ('కు', '|'), ('లై', 'U'), ('గం', 'U'), ('భీ', 'U'), ('రు', '|'), ('లై', 'U'), ('ధీ', 'U'), ('రు', '|'), ('లై', 'U'), ('ల', '|'), ('ల', '|'), ('నా', 'U'), ('మ', 'U'), ('న్మ', '|'), ('థు', '|'), ('లై', 'U'), ('స', '|'), ('ము', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('వ', '|'), ('చో', 'U'), ('లా', 'U'), ('లి', 'U'), ('త్యు', '|'), ('లై', 'U'), ('ని', 'U'), ('త్యు', '|'), ('లై', 'U'), ('బ', '|'), ('ల', '|'), ('వి', '|'), ('భ్రా', 'U'), ('జి', '|'), ('తు', '|'), ('లై', 'U'), ('య', '|'), ('శో', 'U'), ('భ', '|'), ('రి', '|'), ('తు', '|'), ('లై', 'U'), ('భా', 'U'), ('సి', 'U'), ('ల్లు', '|'), ('భా', 'U'), ('గ్యో', 'U'), ('ద', '|'), ('యుల్', 'U'), ('తొ', '|'), ('లి', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('మి', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ముల్', 'U'), ('వా', 'U'), ('రు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('వా', 'U'), ('రై', 'U'), ('మ', '|'), ('తి', '|'), ('మం', 'U'), ('తు', '|'), ('లై', 'U'), ('ర', '|'), ('సి', '|'), ('కు', '|'), ('లై', 'U'), ('గం', 'U'), ('భీ', 'U'), ('రు', '|'), ('లై', 'U'), ('ధీ', 'U'), ('రు', '|'), ('లై', 'U'), ('ల', '|'), ('ల', '|'), ('నా', 'U'), ('మ', 'U'), ('న్మ', '|'), ('థు', '|'), ('లై', 'U'), ('స', '|'), ('ము', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('వ', '|'), ('చో', 'U'), ('లా', 'U'), ('లి', 'U'), ('త్యు', '|'), ('లై', 'U'), ('ని', 'U'), ('త్యు', '|'), ('లై', 'U'), ('బ', '|'), ('ల', '|'), ('వి', '|'), ('భ్రా', 'U'), ('జి', '|'), ('తు', '|'), ('లై', 'U'), ('య', '|'), ('శో', 'U'), ('భ', '|'), ('రి', '|'), ('తు', '|'), ('లై', 'U'), ('భా', 'U'), ('సి', 'U'), ('ల్లు', '|'), ('భా', 'U'), ('గ్యో', 'U'), ('ద', '|'), ('యుల్', 'U'), ('తొ', '|'), ('లి', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('మి', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', 'U'), ('ల్వా', 'U'), ('రు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[('ఖ', '|'), ('లు', '|'), ('లై', 'U'), ('యా', 'U'), ('చ', '|'), ('కు', '|'), ('లై', 'U'), ('వి', '|'), ('రు', 'U'), ('ద్ధ', '|'), ('వి', '|'), ('క', '|'), ('టా', 'U'), ('కా', 'U'), ('రాం', 'U'), ('గు', '|'), ('లై', 'U'), ('పం', 'U'), ('గు', '|'), ('లై', 'U'), ('బ', '|'), ('ల', '|'), ('హీ', 'U'), ('నా', 'U'), ('తు', '|'), ('రు', '|'), ('లై', 'U'), ('రు', '|'), ('జా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('తా', 'U'), ('ప', 'U'), ('చ్ఛ', 'U'), ('న్ను', '|'), ('లై', 'U'), ('ఖి', 'U'), ('న్ను', '|'), ('లై', 'U'), ('చ', '|'), ('ల', '|'), ('నాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('త', '|'), ('చి', 'U'), ('త్తు', '|'), ('లై', 'U'), ('మ', '|'), ('లి', '|'), ('ను', '|'), ('లై', 'U'), ('జా', 'U'), ('త్యం', 'U'), ('ధు', '|'), ('లై', 'U'), ('మం', 'U'), ('దు', '|'), ('లై', 'U'), ('తొ', '|'), ('లి', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('దు', '|'), ('రా', 'U'), ('త్ముల్', 'U'), ('వా', 'U'), ('రు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఖ', '|'), ('లు', '|'), ('లై', 'U'), ('యా', 'U'), ('చ', '|'), ('కు', '|'), ('లై', 'U'), ('వి', '|'), ('రు', 'U'), ('ద్ధ', '|'), ('వి', '|'), ('క', '|'), ('టా', 'U'), ('కా', 'U'), ('రాం', 'U'), ('గు', '|'), ('లై', 'U'), ('పం', 'U'), ('గు', '|'), ('లై', 'U'), ('బ', '|'), ('ల', '|'), ('హీ', 'U'), ('నా', 'U'), ('తు', '|'), ('రు', '|'), ('లై', 'U'), ('రు', '|'), ('జా', 'U'), ('ప', '|'), ('ట', '|'), ('ల', '|'), ('తా', 'U'), ('ప', 'U'), ('చ్ఛ', 'U'), ('న్ను', '|'), ('లై', 'U'), ('ఖి', 'U'), ('న్ను', '|'), ('లై', 'U'), ('చ', '|'), ('ల', '|'), ('నాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('త', '|'), ('చి', 'U'), ('త్తు', '|'), ('లై', 'U'), ('మ', '|'), ('లి', '|'), ('ను', '|'), ('లై', 'U'), ('జా', 'U'), ('త్యం', 'U'), ('ధు', '|'), ('లై', 'U'), ('మం', 'U'), ('దు', '|'), ('లై', 'U'), ('తొ', '|'), ('లి', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', 'U'), ('ల్వా', 'U'), ('రు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మి', '|'), ('తో', 'U'), ('ద్య', 'U'), ('ద్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('మ', '|'), ('హీ', 'U'), ('య', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('వా', 'U'), ('ణీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('యున్', 'U'), ('ది', 'U'), ('వ్య', '|'), ('వి', '|'), ('భ్ర', '|'), ('మ', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('నె', 'U'), ('న్ని', '|'), ('చూ', 'U'), ('డ', '|'), ('ని', '|'), ('వి', '|'), ('నీ', 'U'), ('పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('లై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('ల', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('మి', '|'), ('తో', 'U'), ('ద్య', 'U'), ('ద్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('మ', '|'), ('హీ', 'U'), ('య', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('వా', 'U'), ('ణీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ము', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('యు', 'U'), ('న్ది', 'U'), ('వ్య', '|'), ('వి', '|'), ('భ్ర', '|'), ('మ', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('నె', 'U'), ('న్ని', '|'), ('చూ', 'U'), ('డ', '|'), ('ని', '|'), ('వి', '|'), ('నీ', 'U'), ('పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('లై', 'U'), ('యుం', 'U'), ('డు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('ల', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[('సం', 'U'), ('కీ', 'U'), ('ర్ణా', 'U'), ('క', '|'), ('లి', '|'), ('తా', 'U'), ('క్ష', '|'), ('ర', '|'), ('త్ర', '|'), ('య', '|'), ('ము', '|'), ('భా', 'U'), ('స్వ', 'U'), ('న్నా', 'U'), ('ద', '|'), ('బిం', 'U'), ('దు', '|'), ('క్ర', '|'), ('మా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', 'U'), ('ద్వి', '|'), ('త', '|'), ('యం', 'U'), ('బు', '|'), ('తో', 'U'), ('గ', '|'), ('లి', '|'), ('సి', '|'), ('లీ', 'U'), ('లన్', 'U'), ('ది', 'U'), ('వ్య', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('హృ', 'U'), ('త్పం', 'U'), ('కో', 'U'), ('ద్భూ', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('రూ', 'U'), ('ఢ', '|'), ('మ', '|'), ('గు', '|'), ('చుం', 'U'), ('బం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మ', 'U'), ('య్యోం', 'U'), ('కా', 'U'), ('రా', 'U'), ('త్మ', '|'), ('క', '|'), ('మౌ', 'U'), ('ల', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('గ', '|'), ('ణం', 'U'), ('బూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('సం', 'U'), ('కీ', 'U'), ('ర్ణా', 'U'), ('క', '|'), ('లి', '|'), ('తా', 'U'), ('క్ష', '|'), ('ర', '|'), ('త్ర', '|'), ('య', '|'), ('ము', '|'), ('భా', 'U'), ('స్వ', 'U'), ('న్నా', 'U'), ('ద', '|'), ('బిం', 'U'), ('దు', '|'), ('క్ర', '|'), ('మా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', 'U'), ('ద్వి', '|'), ('త', '|'), ('యం', 'U'), ('బు', '|'), ('తో', 'U'), ('గ', '|'), ('లి', '|'), ('సి', '|'), ('లీ', 'U'), ('ల', 'U'), ('న్ది', 'U'), ('వ్య', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('హృ', 'U'), ('త్పం', 'U'), ('కో', 'U'), ('ద్భూ', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('రూ', 'U'), ('ఢ', '|'), ('మ', '|'), ('గు', '|'), ('చుం', 'U'), ('బం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మ', 'U'), ('య్యోం', 'U'), ('కా', 'U'), ('రా', 'U'), ('త్మ', '|'), ('క', '|'), ('మౌ', 'U'), ('ల', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('గ', '|'), ('ణం', 'U'), ('బూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('ల', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', '|'), ('భా', 'U'), ('స', '|'), ('భా', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('న', 'U'), ('య్య', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('ధి', '|'), ('క్ర', '|'), ('మ', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', 'U'), ('న్ను', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('జో', 'U'), ('కం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('చా', 'U'), ('లు', '|'), ('గ', '|'), ('డు', '|'), ('వీ', 'U'), ('కన్', 'U'), ('ఘో', 'U'), ('ర', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్లం', 'U'), ('బె', '|'), ('డ', '|'), ('వా', 'U'), ('ప', '|'), ('ని', 'U'), ('న్ను', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('జూ', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('ల', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', '|'), ('భా', 'U'), ('స', '|'), ('భా', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('న', 'U'), ('య్య', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('పూ', 'U'), ('జా', 'U'), ('వి', '|'), ('ధి', '|'), ('క్ర', '|'), ('మ', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', 'U'), ('న్ను', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('జో', 'U'), ('కం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('చా', 'U'), ('లు', '|'), ('గ', '|'), ('డు', '|'), ('వీ', 'U'), ('క', 'U'), ('న్ఘో', 'U'), ('ర', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్లం', 'U'), ('బె', '|'), ('డ', '|'), ('వా', 'U'), ('ప', '|'), ('ని', 'U'), ('న్ను', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('జూ', 'U'), ('ప', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('మ', '|'), ('ల', '|'), ('సి', '|'), ('మా', 'U'), ('యా', 'U'), ('వృ', 'U'), ('త్తి', '|'), ('నా', 'U'), ('యం', 'U'), ('ద', '|'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('మో', 'U'), ('హు', '|'), ('డ', '|'), ('త', '|'), ('నిన్', 'U'), ('బో', 'U'), ('ద్రో', 'U'), ('చి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('జే', 'U'), ('సి', '|'), ('నె', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('చి', '|'), ('నా', 'U'), ('యం', 'U'), ('ద', '|'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('రౌ', 'U'), ('ప్య', '|'), ('కు', '|'), ('ధ', '|'), ('ర', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('మ', '|'), ('ల', '|'), ('సి', '|'), ('మా', 'U'), ('యా', 'U'), ('వృ', 'U'), ('త్తి', '|'), ('నా', 'U'), ('యం', 'U'), ('ద', '|'), ('తి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('మో', 'U'), ('హు', '|'), ('డ', '|'), ('త', '|'), ('ని', 'U'), ('న్బో', 'U'), ('ద్రో', 'U'), ('చి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('బ', '|'), ('ర', '|'), ('గం', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('జే', 'U'), ('సి', '|'), ('నె', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('చి', '|'), ('నా', 'U'), ('యం', 'U'), ('ద', '|'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('రౌ', 'U'), ('ప్య', '|'), ('కు', '|'), ('ధ', '|'), ('ర', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('నీ', 'U'), ('దా', 'U'), ('ర', '|'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('తుం', 'U'), ('డు', '|'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('గా', 'U'), ('నీ', 'U'), ('డు', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్పు', '|'), ('నిన్', 'U'), ('గో', 'U'), ('నీ', 'U'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('కో', 'U'), ('టి', '|'), ('లో', 'U'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('పై', 'U'), ('కో', 'U'), ('నీ', 'U'), ('డు', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('నున్', 'U'), ('రా', 'U'), ('నీ', 'U'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('రా', 'U'), ('జ్య', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('పై', 'U'), ('రా', 'U'), ('నీ', 'U'), ('డు', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నున్', 'U'), ('లో', 'U'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('బో', 'U'), ('నీ', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('కా', 'U'), ('నీ', 'U'), ('దా', 'U'), ('ర', '|'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('తుం', 'U'), ('డు', '|'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('గా', 'U'), ('నీ', 'U'), ('డు', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్పు', '|'), ('నిన్', 'U'), ('గో', 'U'), ('నీ', 'U'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('కో', 'U'), ('టి', '|'), ('లో', 'U'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('పై', 'U'), ('కో', 'U'), ('నీ', 'U'), ('డు', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('నున్', 'U'), ('రా', 'U'), ('నీ', 'U'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('రా', 'U'), ('జ్య', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('పై', 'U'), ('రా', 'U'), ('నీ', 'U'), ('డు', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నున్', 'U'), ('లో', 'U'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('న్బో', 'U'), ('నీ', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('య', '|'), ('శ', 'U'), ('క్తిన్', 'U'), ('ర', '|'), ('వి', '|'), ('చం', 'U'), ('ద్ర', '|'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('జ', 'U'), ('ల్పెన్', 'U'), ('య', '|'), ('థా', 'U'), ('వా', 'U'), ('క్కు', '|'), ('లా', 'U'), ('న్వ', '|'), ('య', '|'), ('సం', 'U'), ('జా', 'U'), ('తు', '|'), ('డు', '|'), ('న', 'U'), ('న్న', '|'), ('మా', 'U'), ('ర్యు', '|'), ('డ', '|'), ('వ', '|'), ('ని', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క్రి', '|'), ('య', '|'), ('సం', 'U'), ('బో', 'U'), ('ధ', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్ణీ', 'U'), ('త', '|'), ('వి', '|'), ('శ్రాం', 'U'), ('తి', '|'), ('గా', 'U'), ('భ', '|'), ('య', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తు', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('యీ', 'U'), ('శ', '|'), ('త', '|'), ('క', '|'), ('ముం', 'U'), ('బ్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('జ', '|'), ('య', '|'), ('శ', 'U'), ('క్తి', '|'), ('న్ర', '|'), ('వి', '|'), ('చం', 'U'), ('ద్ర', '|'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('జ', 'U'), ('ల్పె', 'U'), ('న్య', '|'), ('థా', 'U'), ('వా', 'U'), ('క్కు', '|'), ('లా', 'U'), ('న్వ', '|'), ('య', '|'), ('సం', 'U'), ('జా', 'U'), ('తు', '|'), ('డు', '|'), ('న', 'U'), ('న్న', '|'), ('మా', 'U'), ('ర్యు', '|'), ('డ', '|'), ('వ', '|'), ('ని', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('క్రి', '|'), ('య', '|'), ('సం', 'U'), ('బో', 'U'), ('ధ', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('ర్ణీ', 'U'), ('త', '|'), ('వి', '|'), ('శ్రాం', 'U'), ('తి', '|'), ('గా', 'U'), ('భ', '|'), ('య', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తు', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('యీ', 'U'), ('శ', '|'), ('త', '|'), ('క', '|'), ('ముం', 'U'), ('బ్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
